--- a/RT_radpat_0deg.xlsx
+++ b/RT_radpat_0deg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B601"/>
+  <dimension ref="A1:B901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,4799 +443,7199 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-53.21031928110019</v>
+        <v>-166.2434782168474</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.005244728970934546</v>
+        <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-43.73363966443602</v>
+        <v>-164.2742027337704</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.01048945794186909</v>
+        <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-48.61423387674252</v>
+        <v>-163.7786564164242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.01573418691280364</v>
+        <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-45.78485813379013</v>
+        <v>-163.4347841782595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0.02097891588373818</v>
+        <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-46.66983935699067</v>
+        <v>-163.1726044706224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0.02622364485467273</v>
+        <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-46.1275662664493</v>
+        <v>-162.9575679630797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0.03146837382560728</v>
+        <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-45.64089548870251</v>
+        <v>-162.7726954139936</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0.03671310279654182</v>
+        <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-45.50813506300077</v>
+        <v>-162.6086404636619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0.04195783176747637</v>
+        <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-45.43242731742282</v>
+        <v>-162.4598167828949</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0.04720256073841091</v>
+        <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-45.39074785956866</v>
+        <v>-162.3227176122048</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0.05244728970934546</v>
+        <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-45.37691032329144</v>
+        <v>-162.1950957774003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0.05769201868028</v>
+        <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-45.38919518407262</v>
+        <v>-162.0754927976875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0.06293674765121456</v>
+        <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-45.42785850660514</v>
+        <v>-161.9630142446093</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0.0681814766221491</v>
+        <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-45.49438159644271</v>
+        <v>-161.8571473851108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0.07342620559308365</v>
+        <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-45.59115792110711</v>
+        <v>-161.7576690199283</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0.07867093456401819</v>
+        <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-45.7214112199151</v>
+        <v>-161.6646007728646</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0.08391566353495274</v>
+        <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-45.88916438885131</v>
+        <v>-161.5781295642275</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0.08916039250588728</v>
+        <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-46.09929447086581</v>
+        <v>-161.4986109457989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>0.09440512147682183</v>
+        <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-46.35759457046045</v>
+        <v>-161.4265192750992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0.09964985044775637</v>
+        <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-46.67090020202593</v>
+        <v>-161.3624535412642</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0.1048945794186909</v>
+        <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-47.04719452797544</v>
+        <v>-161.3071236042687</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0.1101393083896255</v>
+        <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-47.49568542740322</v>
+        <v>-161.2613337522858</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0.11538403736056</v>
+        <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-48.02674468202684</v>
+        <v>-161.2259970740644</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0.1206287663314946</v>
+        <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-48.65144349242782</v>
+        <v>-161.2021210640644</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>0.1258734953024291</v>
+        <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-49.38005389361648</v>
+        <v>-161.1908205310112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>0.1311182242733636</v>
+        <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-50.21804329708038</v>
+        <v>-161.1933204062194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>0.1363629532442982</v>
+        <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-51.15635816321817</v>
+        <v>-161.2109655844429</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>0.1416076822152327</v>
+        <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-52.14937050677874</v>
+        <v>-161.2452267198007</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>0.1468524111861673</v>
+        <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-53.07430562680632</v>
+        <v>-161.2977338910075</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>0.1520971401571018</v>
+        <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-53.69174361536984</v>
+        <v>-161.3702737051078</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>0.1573418691280364</v>
+        <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-53.71035430142554</v>
+        <v>-161.4648203210592</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>0.1625865980989709</v>
+        <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-53.02701761457175</v>
+        <v>-161.5835920877059</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>0.1678313270699055</v>
+        <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-51.84476555635268</v>
+        <v>-161.7290508079997</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>0.17307605604084</v>
+        <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-50.46195511486422</v>
+        <v>-161.9039798027451</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>0.1783207850117746</v>
+        <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-49.08152712288756</v>
+        <v>-162.1115357533481</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>0.1835655139827091</v>
+        <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-47.79922090633649</v>
+        <v>-162.3553199223443</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>0.1888102429536437</v>
+        <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-46.64999606226696</v>
+        <v>-162.6394875663333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>0.1940549719245782</v>
+        <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-45.642121083829</v>
+        <v>-162.9688504537393</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>0.1992997008955127</v>
+        <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-44.77411862693358</v>
+        <v>-163.3490254699182</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>0.2045444298664473</v>
+        <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-44.04212638317329</v>
+        <v>-163.7866395178264</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>0.2097891588373818</v>
+        <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-43.44294639950227</v>
+        <v>-164.2895092175083</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>0.2150338878083164</v>
+        <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-42.97532302526042</v>
+        <v>-164.866894893172</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>0.2202786167792509</v>
+        <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-42.64058295711808</v>
+        <v>-165.5296557349783</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>0.2255233457501855</v>
+        <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-42.44309364375037</v>
+        <v>-166.2902559428586</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>0.23076807472112</v>
+        <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-42.39090431141422</v>
+        <v>-167.1620757377844</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>0.2360128036920546</v>
+        <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-42.49673040708231</v>
+        <v>-168.1568951187371</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>0.2412575326629891</v>
+        <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-42.7796130312265</v>
+        <v>-169.2776409726845</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>0.2465022616339237</v>
+        <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-43.26778964638225</v>
+        <v>-170.4990370207025</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>0.2517469906048582</v>
+        <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-44.00394852517947</v>
+        <v>-171.7230438080937</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>0.2569917195757928</v>
+        <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-45.05535360479351</v>
+        <v>-172.706867150834</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>0.2622364485467273</v>
+        <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-46.53574183727989</v>
+        <v>-173.0647968548172</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>0.2674811775176619</v>
+        <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-48.65964869662872</v>
+        <v>-172.5546538089149</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>0.2727259064885964</v>
+        <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-51.91263998848277</v>
+        <v>-171.3718647513781</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>0.2779706354595309</v>
+        <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-57.86998505276986</v>
+        <v>-169.9081725249337</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>0.2832153644304655</v>
+        <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-75.68728267034122</v>
+        <v>-168.4305514167628</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>0.2884600934014001</v>
+        <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-56.61214247708887</v>
+        <v>-167.0530368004438</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>0.2937048223723346</v>
+        <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-50.82018292290736</v>
+        <v>-165.8087827399418</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>0.2989495513432691</v>
+        <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-47.43906826129115</v>
+        <v>-164.6988729429287</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>0.3041942803142036</v>
+        <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-45.13483516960359</v>
+        <v>-163.7139833849668</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>0.3094390092851382</v>
+        <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-43.47972078776311</v>
+        <v>-162.842756518717</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>0.3146837382560728</v>
+        <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-42.28724337733627</v>
+        <v>-162.0746771808797</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>0.3199284672270073</v>
+        <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-41.46518898748526</v>
+        <v>-161.4009363095107</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>0.3251731961979418</v>
+        <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-40.9681341170597</v>
+        <v>-160.8145190882245</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>0.3304179251688764</v>
+        <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-40.77942452180345</v>
+        <v>-160.3100920543168</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>0.3356626541398109</v>
+        <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-40.90510585469708</v>
+        <v>-159.8837910541812</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>0.3409073831107455</v>
+        <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-41.37504293089556</v>
+        <v>-159.5330977916962</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>0.3461521120816801</v>
+        <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-42.25202811190337</v>
+        <v>-159.2566888236997</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>0.3513968410526146</v>
+        <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-43.65612861375708</v>
+        <v>-159.0543997076987</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>0.3566415700235491</v>
+        <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-45.83032241645308</v>
+        <v>-158.927202017208</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>0.3618862989944837</v>
+        <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-49.35810691644419</v>
+        <v>-158.8772693907471</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>0.3671310279654182</v>
+        <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-56.27194700815716</v>
+        <v>-158.9081040277831</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>0.3723757569363528</v>
+        <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-62.16669169830237</v>
+        <v>-159.0247615427924</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>0.3776204859072873</v>
+        <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-51.32758065254872</v>
+        <v>-159.2341919123002</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>0.3828652148782218</v>
+        <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-46.54296234054441</v>
+        <v>-159.5458008571699</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>0.3881099438491564</v>
+        <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-43.6702517731193</v>
+        <v>-159.9722713026138</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>0.393354672820091</v>
+        <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-41.78495082825749</v>
+        <v>-160.5308738242943</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>0.3985994017910255</v>
+        <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-40.55662161760384</v>
+        <v>-161.2455637121936</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>0.40384413076196</v>
+        <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-39.84207701789978</v>
+        <v>-162.1505564153493</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>0.4090888597328946</v>
+        <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-39.58171312314485</v>
+        <v>-163.2966098400301</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>0.4143335887038291</v>
+        <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-39.7672521577951</v>
+        <v>-164.7628767879842</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>0.4195783176747637</v>
+        <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-40.43668030521427</v>
+        <v>-166.6805778414517</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>0.4248230466456983</v>
+        <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-41.69072193905452</v>
+        <v>-169.2807740789894</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>0.4300677756166328</v>
+        <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-43.75048595789717</v>
+        <v>-172.9439735388152</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>0.4353125045875673</v>
+        <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-47.1543134397483</v>
+        <v>-177.2011932949167</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>0.4405572335585018</v>
+        <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-53.75757856697165</v>
+        <v>-175.6208555141686</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>0.4458019625294364</v>
+        <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-63.08592033765353</v>
+        <v>-171.0498021296687</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>0.451046691500371</v>
+        <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-50.52972138751893</v>
+        <v>-167.6237361240253</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>0.4562914204713055</v>
+        <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-45.69373402771451</v>
+        <v>-165.1107624178084</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>0.46153614944224</v>
+        <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-43.02682868213184</v>
+        <v>-163.1863338212344</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>0.4667808784131746</v>
+        <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-41.48793565942692</v>
+        <v>-161.6673321298601</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>0.4720256073841091</v>
+        <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-40.73852599298544</v>
+        <v>-160.4490288365263</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>0.4772703363550437</v>
+        <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-40.66144488824597</v>
+        <v>-159.46812092443</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>0.4825150653259782</v>
+        <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-41.25593295649185</v>
+        <v>-158.6846834761695</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>0.4877597942969128</v>
+        <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-42.62988641749171</v>
+        <v>-158.073024052551</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>0.4930045232678473</v>
+        <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-45.06340720147068</v>
+        <v>-157.6167696508807</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>0.4982492522387819</v>
+        <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-49.16317097569352</v>
+        <v>-157.3062020127295</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>0.5034939812097164</v>
+        <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-54.15652671183859</v>
+        <v>-157.1367758930627</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>0.508738710180651</v>
+        <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-50.26140237836243</v>
+        <v>-157.108461008444</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>0.5139834391515855</v>
+        <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-45.61731439459255</v>
+        <v>-157.2256350726506</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>0.51922816812252</v>
+        <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-42.82739877310665</v>
+        <v>-157.4976013824332</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>0.5244728970934546</v>
+        <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-41.23534209079168</v>
+        <v>-157.9397748205514</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>0.5297176260643891</v>
+        <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-40.52642936779297</v>
+        <v>-158.5760041045943</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>0.5349623550353237</v>
+        <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-40.59598007316811</v>
+        <v>-159.4428179078823</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>0.5402070840062583</v>
+        <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-41.47906450172167</v>
+        <v>-160.5976409715169</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>0.5454518129771928</v>
+        <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-43.38182563666679</v>
+        <v>-162.1356512426385</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>0.5506965419481273</v>
+        <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-46.9004362212258</v>
+        <v>-164.2290983669662</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>0.5559412709190619</v>
+        <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-54.15950146148382</v>
+        <v>-167.2359601494883</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>0.5611859998899964</v>
+        <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-57.12986773093769</v>
+        <v>-172.0847679875036</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>0.5664307288609309</v>
+        <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-48.34333275146173</v>
+        <v>-180.8802678929435</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>0.5716754578318655</v>
+        <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-44.45263315311622</v>
+        <v>-174.717738087417</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>0.5769201868028001</v>
+        <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-42.52909618043882</v>
+        <v>-168.6112387925809</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>0.5821649157737346</v>
+        <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-41.85173907227944</v>
+        <v>-165.0608784462568</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>0.5874096447446692</v>
+        <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-42.25775019258631</v>
+        <v>-162.667027416184</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>0.5926543737156037</v>
+        <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-43.90212914088112</v>
+        <v>-160.9440747409556</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>0.5978991026865382</v>
+        <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-47.49739091984078</v>
+        <v>-159.6772204528177</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>0.6031438316574728</v>
+        <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-56.73145374148925</v>
+        <v>-158.7562794785117</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>0.6083885606284073</v>
+        <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-55.92784102596506</v>
+        <v>-158.1205028825859</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>0.6136332895993419</v>
+        <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-46.81359843627148</v>
+        <v>-157.7365403118858</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>0.6188780185702765</v>
+        <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-43.00178187163371</v>
+        <v>-157.5887155437653</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>0.624122747541211</v>
+        <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-41.10437378114183</v>
+        <v>-157.674931857378</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>0.6293674765121455</v>
+        <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-40.44729575358812</v>
+        <v>-158.0058534215443</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>0.6346122054830801</v>
+        <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-40.89058200657124</v>
+        <v>-158.6068539034324</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>0.6398569344540146</v>
+        <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-42.60873342818674</v>
+        <v>-159.523592333957</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>0.6451016634249491</v>
+        <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-46.35433245036914</v>
+        <v>-160.8336547822808</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>0.6503463923958837</v>
+        <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-55.88844970274368</v>
+        <v>-162.6699819154936</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>0.6555911213668183</v>
+        <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-53.35578141793144</v>
+        <v>-165.2616125807879</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>0.6608358503377528</v>
+        <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-45.27002270177242</v>
+        <v>-168.8981486973213</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>0.6660805793086874</v>
+        <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-41.78829740124488</v>
+        <v>-172.2476657640277</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>0.6713253082796219</v>
+        <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-40.18246358254567</v>
+        <v>-169.8077672724501</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>0.6765700372505564</v>
+        <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-39.87014711606478</v>
+        <v>-165.7689098637101</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>0.681814766221491</v>
+        <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-40.78408363647906</v>
+        <v>-162.7773195205034</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>0.6870594951924255</v>
+        <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-43.24581822666082</v>
+        <v>-160.6276042684833</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>0.6923042241633601</v>
+        <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-48.45663334823565</v>
+        <v>-159.0645768839847</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>0.6975489531342947</v>
+        <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-55.7927052176959</v>
+        <v>-157.9398305161729</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>0.7027936821052292</v>
+        <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-47.19794475882019</v>
+        <v>-157.1699845900129</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>0.7080384110761637</v>
+        <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-42.68622856277432</v>
+        <v>-156.7095281392318</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>0.7132831400470983</v>
+        <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-40.65189322728938</v>
+        <v>-156.5376347935328</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>0.7185278690180328</v>
+        <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-40.20146513947259</v>
+        <v>-156.6527386383491</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>0.7237725979889673</v>
+        <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-41.23116788130591</v>
+        <v>-157.0722491552876</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>0.7290173269599018</v>
+        <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-44.27162101360133</v>
+        <v>-157.8375884633371</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>0.7342620559308365</v>
+        <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-52.24357111937222</v>
+        <v>-159.0279861481753</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>0.739506784901771</v>
+        <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-54.96100446960806</v>
+        <v>-160.7950324306495</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>0.7447515138727056</v>
+        <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-44.59714988126842</v>
+        <v>-163.4608830687508</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>0.7499962428436401</v>
+        <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-40.73074052300665</v>
+        <v>-167.8939615578282</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>0.7552409718145746</v>
+        <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-39.07949792258606</v>
+        <v>-178.4260834015217</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>0.7604857007855091</v>
+        <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-38.93978172896267</v>
+        <v>-174.6024566280565</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>0.7657304297564437</v>
+        <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-40.30939382630095</v>
+        <v>-166.4320469003053</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>0.7709751587273783</v>
+        <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-43.875182386311</v>
+        <v>-162.435042769039</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>0.7762198876983128</v>
+        <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-53.70129211053028</v>
+        <v>-159.9180720731767</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>0.7814646166692474</v>
+        <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-51.58928738734038</v>
+        <v>-158.2159560213556</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>0.7867093456401819</v>
+        <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-43.24825141800783</v>
+        <v>-157.0673993554783</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>0.7919540746111164</v>
+        <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-40.07652190045944</v>
+        <v>-156.3497094088374</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>0.797198803582051</v>
+        <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-39.0451932428825</v>
+        <v>-156.0038230936236</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>0.8024435325529855</v>
+        <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-39.68598453235727</v>
+        <v>-156.0079003988387</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>0.80768826152392</v>
+        <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-42.3374364194389</v>
+        <v>-156.3687898490001</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>0.8129329904948547</v>
+        <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-49.21781303630541</v>
+        <v>-157.1236495166042</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>0.8181777194657892</v>
+        <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-56.61126234287806</v>
+        <v>-158.3526713530995</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>0.8234224484367237</v>
+        <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-44.29968442210776</v>
+        <v>-160.2133178122672</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>0.8286671774076583</v>
+        <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-40.35834359836129</v>
+        <v>-163.03056712635</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>0.8339119063785928</v>
+        <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-38.98711234829867</v>
+        <v>-167.5283974552448</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>0.8391566353495273</v>
+        <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-39.45714703718009</v>
+        <v>-173.3955752581288</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>0.8444013643204619</v>
+        <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-42.06397746388518</v>
+        <v>-168.9111192785233</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>0.8496460932913965</v>
+        <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-49.1432558210426</v>
+        <v>-163.8766941238214</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>0.854890822262331</v>
+        <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-53.96309156461911</v>
+        <v>-160.77785380163</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>0.8601355512332656</v>
+        <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-43.22341124217768</v>
+        <v>-158.7756188216936</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>0.8653802802042001</v>
+        <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-39.49849749880759</v>
+        <v>-157.4912949890516</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>0.8706250091751346</v>
+        <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-38.28254520800833</v>
+        <v>-156.75390942942</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>0.8758697381460692</v>
+        <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-38.96564700496639</v>
+        <v>-156.4889009524823</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>0.8811144671170037</v>
+        <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-42.00202842814984</v>
+        <v>-156.6799447252579</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>0.8863591960879382</v>
+        <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-50.88948308873083</v>
+        <v>-157.3617595130834</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>0.8916039250588729</v>
+        <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-50.3565737398947</v>
+        <v>-158.6373683280437</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>0.8968486540298074</v>
+        <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-41.52969149160401</v>
+        <v>-160.7421117117005</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>0.9020933830007419</v>
+        <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-38.34454259857439</v>
+        <v>-164.2703276833042</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>0.9073381119716765</v>
+        <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-37.50506860348191</v>
+        <v>-171.3983395854199</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>0.912582840942611</v>
+        <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-38.59936186857578</v>
+        <v>-176.9789104035275</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>0.9178275699135455</v>
+        <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-42.30360671388737</v>
+        <v>-166.0034291084697</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>0.9230722988844801</v>
+        <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-53.71113659394574</v>
+        <v>-161.3001480536711</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>0.9283170278554147</v>
+        <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-47.31372328671613</v>
+        <v>-158.5073021932428</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>0.9335617568263492</v>
+        <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-40.57848781295721</v>
+        <v>-156.7082254594462</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>0.9388064857972838</v>
+        <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-38.26159779708183</v>
+        <v>-155.5752644372932</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>0.9440512147682183</v>
+        <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-38.31583048545997</v>
+        <v>-154.966672502994</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>0.9492959437391528</v>
+        <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-40.84343809185327</v>
+        <v>-154.8247906104621</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>0.9545406727100874</v>
+        <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-48.60158154091046</v>
+        <v>-155.1452323605645</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>0.9597854016810219</v>
+        <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-50.31963386448052</v>
+        <v>-155.9743563405175</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>0.9650301306519564</v>
+        <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-40.85084933011662</v>
+        <v>-157.4319979867583</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>0.9702748596228911</v>
+        <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-37.56282671137694</v>
+        <v>-159.7890360175053</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>0.9755195885938256</v>
+        <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-36.8137680361642</v>
+        <v>-163.7527758242273</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>0.9807643175647601</v>
+        <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-38.22891441377183</v>
+        <v>-172.2082459960703</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>0.9860090465356947</v>
+        <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-42.8905147194111</v>
+        <v>-173.3561247599792</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>0.9912537755066292</v>
+        <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-66.74486545303573</v>
+        <v>-164.1986163015418</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>0.9964985044775637</v>
+        <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-43.56657836772433</v>
+        <v>-160.0834475624594</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>1.001743233448498</v>
+        <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-38.45976195633896</v>
+        <v>-157.6928805205241</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>1.006987962419433</v>
+        <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-36.92357218089806</v>
+        <v>-156.2681240555946</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>1.012232691390367</v>
+        <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-37.7820070812931</v>
+        <v>-155.5366898263594</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>1.017477420361302</v>
+        <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-41.74455914416756</v>
+        <v>-155.3961664800335</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>1.022722149332236</v>
+        <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-58.01202625625886</v>
+        <v>-155.8370304296892</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>1.027966878303171</v>
+        <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-44.01281340029782</v>
+        <v>-156.9355290877857</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>1.033211607274106</v>
+        <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-38.18621059397566</v>
+        <v>-158.9043444512782</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>1.03845633624504</v>
+        <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-36.31281219626099</v>
+        <v>-162.2937478668939</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>1.043701065215975</v>
+        <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-36.8684709357417</v>
+        <v>-168.9499617749258</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>1.048945794186909</v>
+        <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-40.31621857057731</v>
+        <v>-173.9391097279449</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>1.054190523157844</v>
+        <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-52.5173782905805</v>
+        <v>-164.2532232689275</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>1.059435252128778</v>
+        <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-45.06274953355071</v>
+        <v>-159.7103818495499</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>1.064679981099713</v>
+        <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-38.37434812372117</v>
+        <v>-157.0826470683657</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>1.069924710070647</v>
+        <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-36.33570357523636</v>
+        <v>-155.4991847814023</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>1.075169439041582</v>
+        <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-36.96339930761898</v>
+        <v>-154.649858525419</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>1.080414168012517</v>
+        <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-40.87225551716358</v>
+        <v>-154.4150022821108</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>1.085658896983451</v>
+        <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-58.80545068397839</v>
+        <v>-154.7739079556221</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>1.090903625954386</v>
+        <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-42.60206044459598</v>
+        <v>-155.7914325511816</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>1.09614835492532</v>
+        <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-36.94095105184154</v>
+        <v>-157.6616777477253</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>1.101393083896255</v>
+        <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-35.22221573733721</v>
+        <v>-160.8916851634919</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>1.106637812867189</v>
+        <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-36.04649289034653</v>
+        <v>-167.2652023042392</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>1.111882541838124</v>
+        <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-40.1485500929482</v>
+        <v>-179.6502397899384</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>1.117127270809058</v>
+        <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-58.66865386485412</v>
+        <v>-164.727498466834</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>1.122371999779993</v>
+        <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-41.90148842173508</v>
+        <v>-159.6892302373324</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>1.127616728750927</v>
+        <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-36.53071857756087</v>
+        <v>-156.9677649668628</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>1.132861457721862</v>
+        <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-35.12949709104223</v>
+        <v>-155.4234888091052</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>1.138106186692796</v>
+        <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-36.47813594790637</v>
+        <v>-154.6971992818461</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>1.143350915663731</v>
+        <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-41.97882876222302</v>
+        <v>-154.6673209189193</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>1.148595644634666</v>
+        <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-55.72997346261232</v>
+        <v>-155.3387533765854</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>1.1538403736056</v>
+        <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-39.15759250900146</v>
+        <v>-156.84430939044</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>1.159085102576535</v>
+        <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-35.19113290382106</v>
+        <v>-159.557958245426</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>1.164329831547469</v>
+        <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-34.5228897162248</v>
+        <v>-164.5938278333168</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>1.169574560518404</v>
+        <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-36.68370421299478</v>
+        <v>-173.9611692649093</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>1.174819289489338</v>
+        <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-44.29213212283729</v>
+        <v>-165.1927088400709</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>1.180064018460273</v>
+        <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-46.98073986296986</v>
+        <v>-159.6950783521202</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>1.185308747431207</v>
+        <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-37.23054149618741</v>
+        <v>-156.7291596775695</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>1.190553476402142</v>
+        <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-34.43519605780295</v>
+        <v>-155.0461744938339</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>1.195798205373076</v>
+        <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-34.69658955282807</v>
+        <v>-154.2427800015128</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>1.201042934344011</v>
+        <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-38.34632203484739</v>
+        <v>-154.1835244970595</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>1.206287663314946</v>
+        <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-54.34679752086778</v>
+        <v>-154.8759908636414</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>1.21153239228588</v>
+        <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-40.64486713414675</v>
+        <v>-156.4780210266244</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>1.216777121256815</v>
+        <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-35.03686092420521</v>
+        <v>-159.4593910378308</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>1.222021850227749</v>
+        <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-33.67174591271045</v>
+        <v>-165.5085910552604</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>1.227266579198684</v>
+        <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-35.30238797426046</v>
+        <v>-184.6735678841066</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>1.232511308169618</v>
+        <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-41.96882813696781</v>
+        <v>-163.701876370088</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>1.237756037140553</v>
+        <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-47.49190679755775</v>
+        <v>-158.3963415446908</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>1.243000766111487</v>
+        <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-36.20653210406861</v>
+        <v>-155.5997583361463</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>1.248245495082422</v>
+        <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-33.05346990782915</v>
+        <v>-154.05604334499</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>1.253490224053357</v>
+        <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-33.08023689868465</v>
+        <v>-153.3884526901312</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>1.258734953024291</v>
+        <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-36.44620063207788</v>
+        <v>-153.4805102980746</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>1.263979681995226</v>
+        <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-50.52753149178466</v>
+        <v>-154.3614050848151</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>1.26922441096616</v>
+        <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-39.63710319654862</v>
+        <v>-156.2296410956937</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>1.274469139937095</v>
+        <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-33.70756023154715</v>
+        <v>-159.6725442942304</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>1.279713868908029</v>
+        <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-32.30794672887663</v>
+        <v>-167.003455833212</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>1.284958597878964</v>
+        <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-34.0730483895572</v>
+        <v>-172.9033945267366</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>1.290203326849898</v>
+        <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-41.51135139605528</v>
+        <v>-161.6552320385098</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>1.295448055820833</v>
+        <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-43.85821706869153</v>
+        <v>-157.2981293521938</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>1.300692784791767</v>
+        <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-34.03617068866905</v>
+        <v>-155.0106861398625</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>1.305937513762702</v>
+        <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-31.24417666046848</v>
+        <v>-153.9010673845886</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>1.311182242733637</v>
+        <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-31.6304489408007</v>
+        <v>-153.702588164126</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>1.316426971704571</v>
+        <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-35.76696591585993</v>
+        <v>-154.3887999779916</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>1.321671700675506</v>
+        <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-65.5256382179516</v>
+        <v>-156.1446604521401</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>1.32691642964644</v>
+        <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-35.90670131771081</v>
+        <v>-159.6011723366213</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>1.332161158617375</v>
+        <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-31.11096691999959</v>
+        <v>-167.5571947052622</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>1.337405887588309</v>
+        <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-30.26590129306955</v>
+        <v>-171.4666520641671</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>1.342650616559244</v>
+        <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-32.70859247635329</v>
+        <v>-160.4884994489259</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>1.347895345530178</v>
+        <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-42.71088943183658</v>
+        <v>-156.1953076915578</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>1.353140074501113</v>
+        <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-38.52994919653952</v>
+        <v>-153.894763718924</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>1.358384803472047</v>
+        <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-31.07396140161729</v>
+        <v>-152.7409129591647</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>1.363629532442982</v>
+        <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-29.04502706602459</v>
+        <v>-152.4724328126315</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>1.368874261413916</v>
+        <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-30.20015810622932</v>
+        <v>-153.0493418726975</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>1.374118990384851</v>
+        <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-36.12005043749132</v>
+        <v>-154.6117928995433</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>1.379363719355786</v>
+        <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-44.67013902297078</v>
+        <v>-157.6334657198663</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>1.38460844832672</v>
+        <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-31.56326988535311</v>
+        <v>-163.8621519026897</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>1.389853177297655</v>
+        <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-28.20662093878468</v>
+        <v>-177.4923573968344</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>1.395097906268589</v>
+        <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-28.31806442907724</v>
+        <v>-161.6255085692875</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>1.400342635239524</v>
+        <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-32.29066246118124</v>
+        <v>-156.6946011810071</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>1.405587364210458</v>
+        <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-61.10365177753346</v>
+        <v>-154.2288114599411</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>1.410832093181393</v>
+        <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-32.11737877977491</v>
+        <v>-153.0851715428071</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>1.416076822152327</v>
+        <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-27.29023299708386</v>
+        <v>-152.9503108251618</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>1.421321551123262</v>
+        <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-26.45528511178904</v>
+        <v>-153.8067856402286</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>1.426566280094197</v>
+        <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-29.05533469484273</v>
+        <v>-155.9103513607538</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>1.431811009065131</v>
+        <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-40.55476918562738</v>
+        <v>-160.186975951653</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>1.437055738036066</v>
+        <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-33.17235323745058</v>
+        <v>-172.4192514628024</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>1.442300467007</v>
+        <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-26.38438948551591</v>
+        <v>-165.1462249355311</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>1.447545195977935</v>
+        <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-24.6055478336642</v>
+        <v>-157.7621795416142</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>1.452789924948869</v>
+        <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-26.13607188237052</v>
+        <v>-154.3740495299824</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>1.458034653919804</v>
+        <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-33.58852734093563</v>
+        <v>-152.6375148933911</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>1.463279382890738</v>
+        <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-34.79241699323965</v>
+        <v>-151.9976993616103</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>1.468524111861673</v>
+        <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-25.23087628394953</v>
+        <v>-152.3157717880475</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>1.473768840832608</v>
+        <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-22.45350589545999</v>
+        <v>-153.6882538588049</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>1.479013569803542</v>
+        <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-23.00361348188781</v>
+        <v>-156.5649081595286</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>1.484258298774477</v>
+        <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-28.05076714010638</v>
+        <v>-162.68033591009</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>1.489503027745411</v>
+        <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-38.66168913472482</v>
+        <v>-178.4751653442578</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>1.494747756716346</v>
+        <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-23.90504594772501</v>
+        <v>-160.5317094736054</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>1.49999248568728</v>
+        <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-19.93324255897636</v>
+        <v>-155.5311909273107</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>1.505237214658215</v>
+        <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-19.4631457395625</v>
+        <v>-153.0711839991926</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>1.510481943629149</v>
+        <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-22.38877768641868</v>
+        <v>-151.9802279298569</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>1.515726672600084</v>
+        <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-27.51444458312361</v>
+        <v>-151.9517887295</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>1.520971401571018</v>
+        <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-20.24298538440564</v>
+        <v>-152.9975773223377</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>1.526216130541953</v>
+        <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-15.81529712167794</v>
+        <v>-155.4617457405452</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>1.531460859512887</v>
+        <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-14.68769369342489</v>
+        <v>-160.6649526475687</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>1.536705588483822</v>
+        <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-17.2003846434081</v>
+        <v>-186.7499434009663</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>1.541950317454757</v>
+        <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-34.91590247018042</v>
+        <v>-161.3431665563231</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>1.547195046425691</v>
+        <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-14.57096357957977</v>
+        <v>-155.5344688948256</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>1.552439775396626</v>
+        <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-7.377757848152744</v>
+        <v>-152.7527810420633</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>1.55768450436756</v>
+        <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-3.46173523964621</v>
+        <v>-151.4639546137882</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>1.562929233338495</v>
+        <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-1.192143747538767</v>
+        <v>-151.2813838330333</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>1.568173962309429</v>
+        <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.09265245347983676</v>
+        <v>-152.177935413949</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>1.573418691280364</v>
+        <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>0.002803623004056856</v>
+        <v>-154.4473961980163</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>1.578663420251298</v>
+        <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.8930973760248001</v>
+        <v>-159.2223986514488</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>1.583908149222233</v>
+        <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-2.911391011473822</v>
+        <v>-176.4842766945999</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>1.589152878193167</v>
+        <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-6.442583339448889</v>
+        <v>-161.6570157009991</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>1.594397607164102</v>
+        <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-12.72451973536018</v>
+        <v>-155.3200927356955</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>1.599642336135036</v>
+        <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-31.77708236889039</v>
+        <v>-152.3825381921224</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>1.604887065105971</v>
+        <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-18.36452458598981</v>
+        <v>-151.0353100988728</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>1.610131794076906</v>
+        <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-14.77945369971931</v>
+        <v>-150.8463822197046</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>1.61537652304784</v>
+        <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-15.30100584643003</v>
+        <v>-151.7851501089048</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>1.620621252018775</v>
+        <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-18.98157404931947</v>
+        <v>-154.1761456780262</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>1.625865980989709</v>
+        <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-26.52876421191214</v>
+        <v>-159.3216785125886</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>1.631110709960644</v>
+        <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-23.51049094509395</v>
+        <v>-183.6607319634165</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>1.636355438931578</v>
+        <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-19.73254099322543</v>
+        <v>-160.0698572196862</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>1.641600167902513</v>
+        <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-19.58276552414466</v>
+        <v>-154.2794951482023</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>1.646844896873447</v>
+        <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-22.71360220860922</v>
+        <v>-151.5559952751425</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>1.652089625844382</v>
+        <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-33.06676741819508</v>
+        <v>-150.3658766410867</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>1.657334354815317</v>
+        <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-30.19132965615505</v>
+        <v>-150.3391408974997</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>1.662579083786251</v>
+        <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-23.50182218525623</v>
+        <v>-151.4910775198595</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>1.667823812757186</v>
+        <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-22.26352385392823</v>
+        <v>-154.2432239767029</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>1.67306854172812</v>
+        <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-24.29372249800879</v>
+        <v>-160.3599654135482</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>1.678313270699055</v>
+        <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-31.49847480405134</v>
+        <v>-174.4329752934175</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>1.683557999669989</v>
+        <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-37.54574231736247</v>
+        <v>-157.8376754927479</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>1.688802728640924</v>
+        <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-26.99406192821914</v>
+        <v>-152.9787244891511</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>1.694047457611858</v>
+        <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-24.66754799532112</v>
+        <v>-150.6718165954025</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>1.699292186582793</v>
+        <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-25.77226357850942</v>
+        <v>-149.8022556340876</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>1.704536915553728</v>
+        <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-31.11243187101671</v>
+        <v>-150.1145975844485</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>1.709781644524662</v>
+        <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-49.29473006764746</v>
+        <v>-151.7306432823432</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>1.715026373495597</v>
+        <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-30.14475292553344</v>
+        <v>-155.3506512731638</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>1.720271102466531</v>
+        <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-26.64048801320565</v>
+        <v>-164.6662441308812</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>1.725515831437466</v>
+        <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-26.84354315526391</v>
+        <v>-163.7440356750756</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>1.7307605604084</v>
+        <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-30.64288488202067</v>
+        <v>-154.8576616026041</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>1.736005289379335</v>
+        <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-46.8030742364374</v>
+        <v>-151.222751946446</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>1.741250018350269</v>
+        <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-33.86568598344157</v>
+        <v>-149.5375340444651</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>1.746494747321204</v>
+        <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-28.67694043449173</v>
+        <v>-149.1540706254498</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>1.751739476292138</v>
+        <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-27.91348276558359</v>
+        <v>-149.979661887591</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>1.756984205263073</v>
+        <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-30.43693215458109</v>
+        <v>-152.3202000221177</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>1.762228934234007</v>
+        <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-39.55960061336036</v>
+        <v>-157.497401585845</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>1.767473663204942</v>
+        <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-38.7688635008146</v>
+        <v>-180.0183760802859</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>1.772718392175876</v>
+        <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-30.85111573025309</v>
+        <v>-157.9420815366257</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>1.777963121146811</v>
+        <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-28.97209568918819</v>
+        <v>-152.3240811024628</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>1.783207850117746</v>
+        <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-30.29403899390275</v>
+        <v>-149.749613361204</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>1.78845257908868</v>
+        <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-35.99830848671948</v>
+        <v>-148.7580751464977</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>1.793697308059615</v>
+        <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-49.69731363525934</v>
+        <v>-149.0298789938811</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>1.798942037030549</v>
+        <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-33.82239230475263</v>
+        <v>-150.6869193814085</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>1.804186766001484</v>
+        <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-30.46619147109381</v>
+        <v>-154.5145108541644</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>1.809431494972418</v>
+        <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-30.65298012737601</v>
+        <v>-165.1914667818757</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>1.814676223943353</v>
+        <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-34.36211746599389</v>
+        <v>-160.9093333296686</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>1.819920952914287</v>
+        <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-50.0876409315273</v>
+        <v>-152.9397782268634</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>1.825165681885222</v>
+        <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-37.51239816708951</v>
+        <v>-149.5591852363523</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>1.830410410856157</v>
+        <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-32.09536336510639</v>
+        <v>-148.0471563404484</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>1.835655139827091</v>
+        <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-31.05623349262699</v>
+        <v>-147.8459584608458</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>1.840899868798026</v>
+        <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-33.09355734590017</v>
+        <v>-148.9232731245139</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>1.84614459776896</v>
+        <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-40.40101265527706</v>
+        <v>-151.7151335266499</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>1.851389326739895</v>
+        <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-45.1807486763613</v>
+        <v>-158.2087497664912</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>1.856634055710829</v>
+        <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-34.85609239680875</v>
+        <v>-169.4485801628311</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>1.861878784681764</v>
+        <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-32.28582767398559</v>
+        <v>-154.5391548986707</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>1.867123513652698</v>
+        <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-32.96978412123869</v>
+        <v>-149.9791431623675</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>1.872368242623633</v>
+        <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-37.41131395906852</v>
+        <v>-147.9000981043687</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>1.877612971594568</v>
+        <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-60.86857274747432</v>
+        <v>-147.3053886790871</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>1.882857700565502</v>
+        <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-38.12037857933551</v>
+        <v>-148.0221555833398</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>1.888102429536437</v>
+        <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-33.57383007778813</v>
+        <v>-150.3517515361332</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>1.893347158507371</v>
+        <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-32.86843848150804</v>
+        <v>-155.7475985489716</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>1.898591887478306</v>
+        <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-35.17864741384885</v>
+        <v>-184.4461414517114</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>1.90383661644924</v>
+        <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-43.16106509174598</v>
+        <v>-155.0260233950248</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>1.909081345420175</v>
+        <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-45.48692677606385</v>
+        <v>-149.6806661553684</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>1.914326074391109</v>
+        <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-36.25264547989138</v>
+        <v>-147.2341892149743</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>1.919570803362044</v>
+        <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-33.84289537344432</v>
+        <v>-146.3643022394957</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>1.924815532332978</v>
+        <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-34.55342582471051</v>
+        <v>-146.7998856261575</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>1.930060261303913</v>
+        <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-38.92828509036676</v>
+        <v>-148.7326488682181</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>1.935304990274848</v>
+        <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-59.96829407490959</v>
+        <v>-153.2018840864513</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>1.940549719245782</v>
+        <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-39.74309429549775</v>
+        <v>-168.85499604014</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>1.945794448216717</v>
+        <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-35.02621310837808</v>
+        <v>-156.1090081600939</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>1.951039177187651</v>
+        <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-34.11409225412245</v>
+        <v>-149.6349591069304</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>1.956283906158586</v>
+        <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-36.06466562887586</v>
+        <v>-146.7879778450522</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>1.96152863512952</v>
+        <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-42.8595678078333</v>
+        <v>-145.682702747945</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>1.966773364100455</v>
+        <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-49.50102001211879</v>
+        <v>-145.9348628859229</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>1.972018093071389</v>
+        <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-38.0343558571896</v>
+        <v>-147.6780490127413</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>1.977262822042324</v>
+        <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-34.97686501787716</v>
+        <v>-151.8351923143456</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>1.982507551013258</v>
+        <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-35.02373164705621</v>
+        <v>-165.1252072888814</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>1.987752279984193</v>
+        <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-38.12042228468705</v>
+        <v>-155.9327441468952</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>1.992997008955127</v>
+        <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-48.92660032639166</v>
+        <v>-148.948346942317</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>1.998241737926062</v>
+        <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-44.09909989958291</v>
+        <v>-145.9205859344302</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>2.003486466896997</v>
+        <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-37.05753884110272</v>
+        <v>-144.7002617022727</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>2.008731195867931</v>
+        <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-35.03949879489033</v>
+        <v>-144.8544877548363</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>2.013975924838866</v>
+        <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-35.75644653948993</v>
+        <v>-146.4880211446446</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>2.0192206538098</v>
+        <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-39.69296695620366</v>
+        <v>-150.4552285025489</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>2.024465382780735</v>
+        <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-54.8423295486962</v>
+        <v>-162.5243586240549</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>2.029710111751669</v>
+        <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-42.70141920974439</v>
+        <v>-155.4265432324849</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>2.034954840722604</v>
+        <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-37.1122107824503</v>
+        <v>-148.0629809422558</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>2.040199569693538</v>
+        <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-35.65270883751749</v>
+        <v>-144.9190465178133</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>2.045444298664473</v>
+        <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-36.85974902812474</v>
+        <v>-143.6359594405428</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>2.050689027635408</v>
+        <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-41.70350745051521</v>
+        <v>-143.7494432775889</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>2.055933756606342</v>
+        <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-75.35000118545695</v>
+        <v>-145.3563290028238</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>2.061178485577277</v>
+        <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-41.50502913030977</v>
+        <v>-149.3140707494749</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>2.066423214548211</v>
+        <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-36.8621149564558</v>
+        <v>-161.4843323682604</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>2.071667943519146</v>
+        <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-35.68120022423673</v>
+        <v>-154.1388960791004</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>2.07691267249008</v>
+        <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-36.93574950209383</v>
+        <v>-146.8082897887221</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>2.082157401461015</v>
+        <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-41.48065225691025</v>
+        <v>-143.6715034435242</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>2.087402130431949</v>
+        <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-61.7297984996868</v>
+        <v>-142.3984491765349</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>2.092646859402884</v>
+        <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-43.16575183285291</v>
+        <v>-142.5348027704644</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>2.097891588373818</v>
+        <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-38.141828309898</v>
+        <v>-144.1956101661873</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>2.103136317344753</v>
+        <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-36.88573066866545</v>
+        <v>-148.3093049956243</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>2.108381046315687</v>
+        <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-38.19052939625448</v>
+        <v>-161.8370786657289</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>2.113625775286622</v>
+        <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-43.05649585529842</v>
+        <v>-152.1019920129779</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>2.118870504257556</v>
+        <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-59.80664245392784</v>
+        <v>-145.1540647066386</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>2.124115233228491</v>
+        <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-42.59598133523328</v>
+        <v>-142.1303124912041</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>2.129359962199425</v>
+        <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-37.93969583318061</v>
+        <v>-140.9297565691849</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>2.13460469117036</v>
+        <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-36.59103465344102</v>
+        <v>-141.144480408254</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>2.139849420141295</v>
+        <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-37.51123624057428</v>
+        <v>-142.9335705135202</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>2.14509414911223</v>
+        <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-41.25177702096435</v>
+        <v>-147.3749183241685</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>2.150338878083164</v>
+        <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-53.49248613700143</v>
+        <v>-164.572320058853</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>2.155583607054099</v>
+        <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-46.05058465651715</v>
+        <v>-149.4021773486281</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>2.160828336025033</v>
+        <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-39.5755472135119</v>
+        <v>-143.0559242988909</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>2.166073064995968</v>
+        <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-37.48829713469883</v>
+        <v>-140.2210904985759</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>2.171317793966902</v>
+        <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-37.7792371653616</v>
+        <v>-139.1378266789611</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>2.176562522937837</v>
+        <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-40.55267914513757</v>
+        <v>-139.4714396472309</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>2.181807251908771</v>
+        <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-48.48150255828527</v>
+        <v>-141.4491955521128</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>2.187051980879706</v>
+        <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-50.0771802145514</v>
+        <v>-146.3936446153281</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>2.19229670985064</v>
+        <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-41.21417518651079</v>
+        <v>-179.8811659184193</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>2.197541438821575</v>
+        <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-38.22259847243432</v>
+        <v>-146.1687073501274</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>2.202786167792509</v>
+        <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-37.74691985433077</v>
+        <v>-140.4710950642577</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>2.208030896763444</v>
+        <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-39.45108813389064</v>
+        <v>-137.8558187092273</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>2.213275625734378</v>
+        <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-44.54635547104139</v>
+        <v>-136.9114982662333</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>2.218520354705313</v>
+        <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-78.97025026713969</v>
+        <v>-137.392099234823</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>2.223765083676247</v>
+        <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-44.34424776675598</v>
+        <v>-139.624131411492</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>2.229009812647182</v>
+        <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-39.4723058506527</v>
+        <v>-145.3545421482234</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>2.234254541618117</v>
+        <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-37.84598210266759</v>
+        <v>-160.1710623536603</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>2.239499270589051</v>
+        <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-38.27460484793158</v>
+        <v>-142.186632953594</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>2.244743999559986</v>
+        <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-40.94757042052758</v>
+        <v>-137.1302150932139</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>2.24998872853092</v>
+        <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-48.20094026847787</v>
+        <v>-134.7347483679004</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>2.255233457501855</v>
+        <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-53.29674215968541</v>
+        <v>-133.9237218672785</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>2.260478186472789</v>
+        <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-42.55761610693378</v>
+        <v>-134.5562414195384</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>2.265722915443724</v>
+        <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-39.00977443465062</v>
+        <v>-137.1083220570862</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>2.270967644414658</v>
+        <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-37.97276889600369</v>
+        <v>-144.1503964985837</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>2.276212373385593</v>
+        <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-38.80997174604322</v>
+        <v>-148.7454329166112</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>2.281457102356527</v>
+        <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-41.91809025788867</v>
+        <v>-136.8982953983649</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>2.286701831327462</v>
+        <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-50.38520049242965</v>
+        <v>-132.3666820815091</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>2.291946560298397</v>
+        <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-52.0922395677096</v>
+        <v>-130.09896382064</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>2.297191289269331</v>
+        <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-42.60644243853434</v>
+        <v>-129.3238139679877</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>2.302436018240266</v>
+        <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-39.33341412265159</v>
+        <v>-130.0362314230611</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>2.3076807472112</v>
+        <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-38.3900464498333</v>
+        <v>-133.0115229955733</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>2.312925476182135</v>
+        <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-39.21873038760882</v>
+        <v>-143.5976057533686</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>2.318170205153069</v>
+        <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-42.17831777536651</v>
+        <v>-136.3640341299413</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>2.323414934124004</v>
+        <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-49.86299966153778</v>
+        <v>-127.5789842733208</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>2.328659663094939</v>
+        <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-54.47993157658881</v>
+        <v>-122.9422774476992</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>2.333904392065873</v>
+        <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-43.70906785179997</v>
+        <v>-119.8877451337122</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>2.339149121036808</v>
+        <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-40.11281285357384</v>
+        <v>-117.7644452804324</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>2.344393850007742</v>
+        <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-38.90883660540487</v>
+        <v>-116.308865335771</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>2.349638578978677</v>
+        <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-39.41188623769249</v>
+        <v>-115.3930626394428</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>2.354883307949611</v>
+        <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-41.81585193542815</v>
+        <v>-114.9522998220991</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>2.360128036920546</v>
+        <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-47.80238835558625</v>
+        <v>-114.9589743219369</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>2.36537276589148</v>
+        <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-63.17045563521906</v>
+        <v>-115.4134886906247</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>2.370617494862415</v>
+        <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-45.43964979410715</v>
+        <v>-116.344375416401</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>2.375862223833349</v>
+        <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-40.81123567134279</v>
+        <v>-117.8177717387443</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>2.381106952804284</v>
+        <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-38.8810422263664</v>
+        <v>-119.964269370862</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>2.386351681775218</v>
+        <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-38.55252941809517</v>
+        <v>-123.0537240380197</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>2.391596410746153</v>
+        <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-39.65411147555781</v>
+        <v>-127.7583364636026</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>2.396841139717087</v>
+        <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-42.56835334982102</v>
+        <v>-136.7945626246064</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>2.402085868688022</v>
+        <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-49.23125992063613</v>
+        <v>-142.8821147500248</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>2.407330597658957</v>
+        <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-59.09691314612785</v>
+        <v>-132.8679313766484</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>2.412575326629891</v>
+        <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-45.96366858995272</v>
+        <v>-129.9887898562382</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>2.417820055600826</v>
+        <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-41.82617205473872</v>
+        <v>-129.3268098001085</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>2.42306478457176</v>
+        <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-40.192078327777</v>
+        <v>-130.1441424765879</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>2.428309513542695</v>
+        <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-40.12950649835968</v>
+        <v>-132.463213883357</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>2.433554242513629</v>
+        <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-41.54339915087414</v>
+        <v>-137.0934066320739</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>2.438798971484564</v>
+        <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-44.91811534804921</v>
+        <v>-149.5330875552069</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>2.444043700455498</v>
+        <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-51.55452489915989</v>
+        <v>-143.7791706695662</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>2.449288429426433</v>
+        <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-49.95636189251729</v>
+        <v>-136.9900175396918</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>2.454533158397368</v>
+        <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-43.88939810838096</v>
+        <v>-134.5131418790517</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>2.459777887368302</v>
+        <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-40.80495994716184</v>
+        <v>-133.9272233209903</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>2.465022616339237</v>
+        <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-39.40506582687012</v>
+        <v>-134.7811632059535</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>2.470267345310171</v>
+        <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-39.22626941783881</v>
+        <v>-137.233231947244</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>2.475512074281106</v>
+        <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-40.1976311677421</v>
+        <v>-142.4127729199953</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>2.48075680325204</v>
+        <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-42.57481286561266</v>
+        <v>-162.1797398056893</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>2.486001532222975</v>
+        <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-47.33645878794346</v>
+        <v>-145.0783539429459</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>2.491246261193909</v>
+        <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-56.92879724107591</v>
+        <v>-139.5229705685971</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>2.496490990164844</v>
+        <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-49.23250555599522</v>
+        <v>-137.356374234353</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>2.501735719135779</v>
+        <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-43.85686811095676</v>
+        <v>-136.9204712967133</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>2.506980448106713</v>
+        <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-41.3090871511337</v>
+        <v>-137.9090432017085</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>2.512225177077648</v>
+        <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-40.2605976689171</v>
+        <v>-140.5872881096509</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>2.517469906048582</v>
+        <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-40.33559613835415</v>
+        <v>-146.4411644940236</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>2.522714635019517</v>
+        <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-41.50681369257576</v>
+        <v>-171.8799764274609</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>2.527959363990451</v>
+        <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-44.06856585787544</v>
+        <v>-146.1564166724826</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>2.533204092961386</v>
+        <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-49.13033404033972</v>
+        <v>-141.3538325912592</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>2.53844882193232</v>
+        <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-61.26172231528507</v>
+        <v>-139.4363311084381</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>2.543693550903255</v>
+        <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-50.98376196710407</v>
+        <v>-139.1459283575836</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>2.548938279874189</v>
+        <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-45.4401178581497</v>
+        <v>-140.2732579467533</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>2.554183008845124</v>
+        <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-42.85663617549796</v>
+        <v>-143.1730599899586</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>2.559427737816058</v>
+        <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-41.76408114588288</v>
+        <v>-149.6969950079817</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>2.564672466786993</v>
+        <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-41.769647934986</v>
+        <v>-163.0549139611909</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>2.569917195757927</v>
+        <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-42.83542872107348</v>
+        <v>-147.1848009945682</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>2.575161924728862</v>
+        <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-45.22761208702839</v>
+        <v>-142.8584727388258</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>2.580406653699796</v>
+        <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-49.88042028624967</v>
+        <v>-141.1244097940593</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>2.585651382670731</v>
+        <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-58.07868003004258</v>
+        <v>-140.9527117469146</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>2.590896111641666</v>
+        <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-51.03777918785607</v>
+        <v>-142.2009621718638</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>2.5961408406126</v>
+        <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-45.64761246487231</v>
+        <v>-145.3016270147829</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>2.601385569583535</v>
+        <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-42.78208950438498</v>
+        <v>-152.4912969490802</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>2.60663029855447</v>
+        <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-41.23946614899966</v>
+        <v>-160.7432898335714</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>2.611875027525404</v>
+        <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-40.60878427376409</v>
+        <v>-148.0993644293169</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>2.617119756496339</v>
+        <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-40.74550135786967</v>
+        <v>-144.1015142548222</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>2.622364485467273</v>
+        <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-41.64540717937052</v>
+        <v>-142.496564133561</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>2.627609214438208</v>
+        <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-43.43870114900602</v>
+        <v>-142.4021720764187</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>2.632853943409142</v>
+        <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-46.47379604871981</v>
+        <v>-143.7191965297391</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>2.638098672380077</v>
+        <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-51.37587335379817</v>
+        <v>-146.923493467152</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>2.643343401351011</v>
+        <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-54.14139547684661</v>
+        <v>-154.466713427584</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>2.648588130321946</v>
+        <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-49.04981941306605</v>
+        <v>-160.7668942851392</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>2.65383285929288</v>
+        <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-45.30630432515544</v>
+        <v>-149.1645791237558</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>2.659077588263815</v>
+        <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-43.1039300748596</v>
+        <v>-145.2982686222535</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>2.664322317234749</v>
+        <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-41.90642958359884</v>
+        <v>-143.740512475326</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>2.669567046205684</v>
+        <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-41.46991528066501</v>
+        <v>-143.6684095022715</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>2.674811775176619</v>
+        <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-41.70809424091212</v>
+        <v>-145.000147532393</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>2.680056504147553</v>
+        <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-42.64390825735096</v>
+        <v>-148.2269016599136</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>2.685301233118488</v>
+        <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-44.43311045818873</v>
+        <v>-155.8744218376864</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>2.690545962089422</v>
+        <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-47.51491615034208</v>
+        <v>-161.5918354588842</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>2.695790691060357</v>
+        <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-53.34203366129656</v>
+        <v>-150.2438759046883</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>2.701035420031291</v>
+        <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-64.18006793078008</v>
+        <v>-146.3893473887069</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>2.706280149002226</v>
+        <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-52.06933420816661</v>
+        <v>-144.8109174020018</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>2.71152487797316</v>
+        <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-46.81582488376787</v>
+        <v>-144.6976231447009</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>2.716769606944095</v>
+        <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-43.88796886879712</v>
+        <v>-145.9597376164987</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>2.722014335915029</v>
+        <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-42.08757110610772</v>
+        <v>-149.049205195608</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>2.727259064885964</v>
+        <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-41.00841773636938</v>
+        <v>-156.214938667174</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>2.732503793856898</v>
+        <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-40.47363042573927</v>
+        <v>-164.3693071319903</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>2.737748522827833</v>
+        <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-40.40229688116943</v>
+        <v>-151.6972208643297</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>2.742993251798767</v>
+        <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-40.76786637897274</v>
+        <v>-147.6292103613868</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>2.748237980769702</v>
+        <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-41.58763722128364</v>
+        <v>-145.9342045595571</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>2.753482709740636</v>
+        <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-42.93181390776094</v>
+        <v>-145.7233491692678</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>2.758727438711571</v>
+        <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-44.96216278748856</v>
+        <v>-146.8776845231578</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>2.763972167682506</v>
+        <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-48.05563378577185</v>
+        <v>-149.8069263598933</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>2.769216896653441</v>
+        <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-53.31540538678873</v>
+        <v>-156.534552767965</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>2.774461625624375</v>
+        <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-65.5216308716272</v>
+        <v>-167.2481399168626</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>2.77970635459531</v>
+        <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-55.89546022354806</v>
+        <v>-152.9391689264107</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>2.784951083566244</v>
+        <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-49.80200351112263</v>
+        <v>-148.6106907229353</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>2.790195812537179</v>
+        <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-46.56309536996836</v>
+        <v>-146.7414748743773</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>2.795440541508113</v>
+        <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-44.55192175011472</v>
+        <v>-146.3507322356104</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>2.800685270479048</v>
+        <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-43.26430539362448</v>
+        <v>-147.2642652629592</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>2.805929999449982</v>
+        <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-42.4835177812429</v>
+        <v>-149.7706517523992</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>2.811174728420917</v>
+        <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-42.1015621209114</v>
+        <v>-155.25712409437</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>2.816419457391851</v>
+        <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-42.06308995912917</v>
+        <v>-201.5898534757167</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>2.821664186362786</v>
+        <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-42.3445202934144</v>
+        <v>-155.4935736018895</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>2.82690891533372</v>
+        <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-42.9469529937421</v>
+        <v>-150.2413884458613</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>2.832153644304655</v>
+        <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-43.89728561281213</v>
+        <v>-147.9699763282149</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>2.837398373275589</v>
+        <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-45.25845033649109</v>
+        <v>-147.2928770935832</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>2.842643102246524</v>
+        <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-47.15747283441179</v>
+        <v>-147.9250213176834</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>2.847887831217458</v>
+        <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-49.86415487508532</v>
+        <v>-150.0524886099265</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>2.853132560188393</v>
+        <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-54.07136606475906</v>
+        <v>-154.711107316964</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>2.858377289159328</v>
+        <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-62.65078302244693</v>
+        <v>-170.4148073894436</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>2.863622018130262</v>
+        <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-65.1006306900036</v>
+        <v>-157.9194285551344</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>2.868866747101197</v>
+        <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-55.27259606278637</v>
+        <v>-151.6064685557866</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>2.874111476072131</v>
+        <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-50.96707544163682</v>
+        <v>-148.8757762836419</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>2.879356205043066</v>
+        <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-48.32536727960558</v>
+        <v>-147.8372215976188</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>2.884600934014</v>
+        <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-46.52009367981048</v>
+        <v>-148.072794642841</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>2.889845662984935</v>
+        <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-45.23481007998079</v>
+        <v>-149.6254135994698</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>2.895090391955869</v>
+        <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-44.31456735895029</v>
+        <v>-153.0747261535217</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>2.900335120926804</v>
+        <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-43.6720975166511</v>
+        <v>-161.2969377318453</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>2.905579849897738</v>
+        <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-43.25375735849994</v>
+        <v>-164.7012867107917</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>2.910824578868673</v>
+        <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-43.02470075037857</v>
+        <v>-154.3998828910716</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>2.916069307839607</v>
+        <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-42.9616446749308</v>
+        <v>-150.6539353235247</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>2.921314036810542</v>
+        <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-43.04898440269208</v>
+        <v>-149.0457035294378</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>2.926558765781477</v>
+        <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-43.2766824899102</v>
+        <v>-148.8188939264194</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>2.931803494752411</v>
+        <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-43.63904105556934</v>
+        <v>-149.867043721333</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>2.937048223723346</v>
+        <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-44.134113690257</v>
+        <v>-152.5390230338301</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>2.94229295269428</v>
+        <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-44.76344192778809</v>
+        <v>-158.4370940512147</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>2.947537681665215</v>
+        <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-45.53209043068584</v>
+        <v>-176.7197220167247</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>2.95278241063615</v>
+        <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-46.44879925486386</v>
+        <v>-157.0242295065513</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>2.958027139607084</v>
+        <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-47.5259784567958</v>
+        <v>-152.0736163167557</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>2.963271868578019</v>
+        <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-48.77876947828447</v>
+        <v>-149.815368077781</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>2.968516597548953</v>
+        <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-50.22072513193672</v>
+        <v>-149.0330796412347</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>2.973761326519888</v>
+        <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-51.84896203148075</v>
+        <v>-149.4425334893959</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>2.979006055490822</v>
+        <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-53.59945255425504</v>
+        <v>-151.1420540219418</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>2.984250784461757</v>
+        <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-55.23928672287705</v>
+        <v>-154.7758298494082</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>2.989495513432691</v>
+        <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-56.25463147242912</v>
+        <v>-163.6081318644343</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>2.994740242403626</v>
+        <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-56.1570634299133</v>
+        <v>-164.9649082488526</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>2.99998497137456</v>
+        <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-55.13529430871701</v>
+        <v>-155.4586458682649</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>3.005229700345495</v>
+        <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-53.76982489961203</v>
+        <v>-151.8267367721782</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>3.010474429316429</v>
+        <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-52.42777985219227</v>
+        <v>-150.2222672263971</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>3.015719158287364</v>
+        <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-51.23516902273585</v>
+        <v>-149.9351372759152</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>3.020963887258298</v>
+        <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-50.21190681599168</v>
+        <v>-150.8480587549081</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>3.026208616229233</v>
+        <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-49.34447428486403</v>
+        <v>-153.2375956632841</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>3.031453345200168</v>
+        <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-48.61203970385947</v>
+        <v>-158.3182901883637</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>3.036698074171102</v>
+        <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-47.99459219931303</v>
+        <v>-177.1511137286147</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>3.041942803142037</v>
+        <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-47.4749425477184</v>
+        <v>-159.8013025616584</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>3.047187532112971</v>
+        <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-47.03884965556482</v>
+        <v>-154.0044316434378</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>3.052432261083906</v>
+        <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-46.6746375572251</v>
+        <v>-151.3576611672442</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>3.05767699005484</v>
+        <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-46.37276904172561</v>
+        <v>-150.2638903641473</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>3.062921719025775</v>
+        <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-46.12541976569945</v>
+        <v>-150.3337131891431</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>3.068166447996709</v>
+        <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-45.92618494039253</v>
+        <v>-151.5656839154079</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>3.073411176967644</v>
+        <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-45.76984798738822</v>
+        <v>-154.3465205312188</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>3.078655905938578</v>
+        <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-45.65222365888987</v>
+        <v>-160.2793272440917</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>3.083900634909513</v>
+        <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-45.57008186857639</v>
+        <v>-181.4026315177712</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>3.089145363880448</v>
+        <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-45.52115208340371</v>
+        <v>-159.0969165295168</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>3.094390092851382</v>
+        <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-45.50428392864932</v>
+        <v>-154.0607593666826</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>3.099634821822317</v>
+        <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-45.51993822053819</v>
+        <v>-151.713421635908</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>3.104879550793251</v>
+        <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-45.57187503604882</v>
+        <v>-150.8004064906214</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>3.110124279764186</v>
+        <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-45.67528076375515</v>
+        <v>-151.0072536057959</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>3.11536900873512</v>
+        <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-45.98611932922763</v>
+        <v>-152.3674335997983</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>3.120613737706055</v>
+        <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-45.3864676163777</v>
+        <v>-155.3119467838337</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>3.12585846667699</v>
+        <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-45.95591194630055</v>
+        <v>-161.633320444411</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>3.131103195647924</v>
+        <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-48.20987654954688</v>
+        <v>-176.5815581920445</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>3.136347924618859</v>
+        <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-47.27695575895142</v>
+        <v>-159.3145086800306</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
+        <v>2.093230255283967</v>
+      </c>
+      <c r="B601" t="n">
+        <v>-154.5447031334007</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>2.096724796611653</v>
+      </c>
+      <c r="B602" t="n">
+        <v>-152.2925183366868</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>2.100219337939339</v>
+      </c>
+      <c r="B603" t="n">
+        <v>-151.422375577107</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>2.103713879267025</v>
+      </c>
+      <c r="B604" t="n">
+        <v>-151.6445347910069</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>2.107208420594711</v>
+      </c>
+      <c r="B605" t="n">
+        <v>-152.9984627702777</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>2.110702961922397</v>
+      </c>
+      <c r="B606" t="n">
+        <v>-155.91012349401</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>2.114197503250083</v>
+      </c>
+      <c r="B607" t="n">
+        <v>-162.1261617376198</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>2.117692044577769</v>
+      </c>
+      <c r="B608" t="n">
+        <v>-178.2658463907561</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>2.121186585905456</v>
+      </c>
+      <c r="B609" t="n">
+        <v>-160.0250436728255</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>2.124681127233142</v>
+      </c>
+      <c r="B610" t="n">
+        <v>-155.1365201745052</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>2.128175668560828</v>
+      </c>
+      <c r="B611" t="n">
+        <v>-152.7827944301358</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>2.131670209888514</v>
+      </c>
+      <c r="B612" t="n">
+        <v>-151.7914871817273</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>2.1351647512162</v>
+      </c>
+      <c r="B613" t="n">
+        <v>-151.8485265757224</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>2.138659292543886</v>
+      </c>
+      <c r="B614" t="n">
+        <v>-152.9490676151143</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>2.142153833871572</v>
+      </c>
+      <c r="B615" t="n">
+        <v>-155.3926360739341</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>2.145648375199258</v>
+      </c>
+      <c r="B616" t="n">
+        <v>-160.3013759164537</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>2.149142916526944</v>
+      </c>
+      <c r="B617" t="n">
+        <v>-177.2450238374148</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>2.15263745785463</v>
+      </c>
+      <c r="B618" t="n">
+        <v>-163.129975472998</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>2.156131999182316</v>
+      </c>
+      <c r="B619" t="n">
+        <v>-156.8369713484189</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>2.159626540510002</v>
+      </c>
+      <c r="B620" t="n">
+        <v>-153.9340616386578</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>2.163121081837688</v>
+      </c>
+      <c r="B621" t="n">
+        <v>-152.5756872609925</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>2.166615623165375</v>
+      </c>
+      <c r="B622" t="n">
+        <v>-152.2992478820132</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>2.170110164493061</v>
+      </c>
+      <c r="B623" t="n">
+        <v>-153.0159296348878</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>2.173604705820747</v>
+      </c>
+      <c r="B624" t="n">
+        <v>-154.8963436116975</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>2.177099247148433</v>
+      </c>
+      <c r="B625" t="n">
+        <v>-158.6088956160269</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>2.180593788476119</v>
+      </c>
+      <c r="B626" t="n">
+        <v>-167.2217453909508</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>2.184088329803805</v>
+      </c>
+      <c r="B627" t="n">
+        <v>-168.0650940838291</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>2.187582871131491</v>
+      </c>
+      <c r="B628" t="n">
+        <v>-158.9593986224991</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>2.191077412459177</v>
+      </c>
+      <c r="B629" t="n">
+        <v>-155.1476910381098</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>2.194571953786864</v>
+      </c>
+      <c r="B630" t="n">
+        <v>-153.2105936036122</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>2.19806649511455</v>
+      </c>
+      <c r="B631" t="n">
+        <v>-152.4176525180587</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>2.201561036442236</v>
+      </c>
+      <c r="B632" t="n">
+        <v>-152.5540082981775</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>2.205055577769921</v>
+      </c>
+      <c r="B633" t="n">
+        <v>-153.6341996939045</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>2.208550119097608</v>
+      </c>
+      <c r="B634" t="n">
+        <v>-155.9202161438703</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>2.212044660425294</v>
+      </c>
+      <c r="B635" t="n">
+        <v>-160.3107317154169</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>2.21553920175298</v>
+      </c>
+      <c r="B636" t="n">
+        <v>-172.1549743327122</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>2.219033743080666</v>
+      </c>
+      <c r="B637" t="n">
+        <v>-166.147363386236</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>2.222528284408352</v>
+      </c>
+      <c r="B638" t="n">
+        <v>-158.6916771359563</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>2.226022825736038</v>
+      </c>
+      <c r="B639" t="n">
+        <v>-155.3641294642393</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>2.229517367063724</v>
+      </c>
+      <c r="B640" t="n">
+        <v>-153.6868662614085</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>2.23301190839141</v>
+      </c>
+      <c r="B641" t="n">
+        <v>-153.0743407057895</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>2.236506449719097</v>
+      </c>
+      <c r="B642" t="n">
+        <v>-153.3594287168206</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>2.240000991046783</v>
+      </c>
+      <c r="B643" t="n">
+        <v>-154.585616922911</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>2.243495532374469</v>
+      </c>
+      <c r="B644" t="n">
+        <v>-157.0537308024382</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>2.246990073702155</v>
+      </c>
+      <c r="B645" t="n">
+        <v>-161.7736549196698</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>2.250484615029841</v>
+      </c>
+      <c r="B646" t="n">
+        <v>-173.9570272062084</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>2.253979156357527</v>
+      </c>
+      <c r="B647" t="n">
+        <v>-165.176536244418</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>2.257473697685213</v>
+      </c>
+      <c r="B648" t="n">
+        <v>-158.7901993162945</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>2.260968239012899</v>
+      </c>
+      <c r="B649" t="n">
+        <v>-155.7161059643428</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>2.264462780340585</v>
+      </c>
+      <c r="B650" t="n">
+        <v>-154.135807495281</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>2.267957321668271</v>
+      </c>
+      <c r="B651" t="n">
+        <v>-153.5555484794037</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>2.271451862995957</v>
+      </c>
+      <c r="B652" t="n">
+        <v>-153.8315733233665</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>2.274946404323643</v>
+      </c>
+      <c r="B653" t="n">
+        <v>-155.010104771478</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>2.278440945651329</v>
+      </c>
+      <c r="B654" t="n">
+        <v>-157.3770195540254</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>2.281935486979016</v>
+      </c>
+      <c r="B655" t="n">
+        <v>-161.8772700213338</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>2.285430028306702</v>
+      </c>
+      <c r="B656" t="n">
+        <v>-173.9771450182869</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>2.288924569634388</v>
+      </c>
+      <c r="B657" t="n">
+        <v>-166.6383089835155</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>2.292419110962074</v>
+      </c>
+      <c r="B658" t="n">
+        <v>-159.5367554156053</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>2.29591365228976</v>
+      </c>
+      <c r="B659" t="n">
+        <v>-156.1801273039493</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>2.299408193617446</v>
+      </c>
+      <c r="B660" t="n">
+        <v>-154.367251348187</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>2.302902734945132</v>
+      </c>
+      <c r="B661" t="n">
+        <v>-153.5327809394818</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>2.306397276272818</v>
+      </c>
+      <c r="B662" t="n">
+        <v>-153.4871596245861</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>2.309891817600504</v>
+      </c>
+      <c r="B663" t="n">
+        <v>-154.2083166596791</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>2.31338635892819</v>
+      </c>
+      <c r="B664" t="n">
+        <v>-155.8230231815552</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>2.316880900255876</v>
+      </c>
+      <c r="B665" t="n">
+        <v>-158.7298254351492</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>2.320375441583562</v>
+      </c>
+      <c r="B666" t="n">
+        <v>-164.2288515057104</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>2.323869982911249</v>
+      </c>
+      <c r="B667" t="n">
+        <v>-176.0579310479347</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>2.327364524238935</v>
+      </c>
+      <c r="B668" t="n">
+        <v>-164.3727073974351</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>2.330859065566621</v>
+      </c>
+      <c r="B669" t="n">
+        <v>-159.0157740603975</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>2.334353606894307</v>
+      </c>
+      <c r="B670" t="n">
+        <v>-156.2454267068168</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>2.337848148221993</v>
+      </c>
+      <c r="B671" t="n">
+        <v>-154.7584384788599</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>2.341342689549679</v>
+      </c>
+      <c r="B672" t="n">
+        <v>-154.1522334210731</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>2.344837230877365</v>
+      </c>
+      <c r="B673" t="n">
+        <v>-154.2943562898331</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>2.348331772205051</v>
+      </c>
+      <c r="B674" t="n">
+        <v>-155.19758961334</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>2.351826313532738</v>
+      </c>
+      <c r="B675" t="n">
+        <v>-157.032711150775</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>2.355320854860424</v>
+      </c>
+      <c r="B676" t="n">
+        <v>-160.3127125467494</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>2.35881539618811</v>
+      </c>
+      <c r="B677" t="n">
+        <v>-166.9771179864625</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>2.362309937515795</v>
+      </c>
+      <c r="B678" t="n">
+        <v>-179.7144190832941</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>2.365804478843482</v>
+      </c>
+      <c r="B679" t="n">
+        <v>-163.8843906370403</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>2.369299020171168</v>
+      </c>
+      <c r="B680" t="n">
+        <v>-158.9887263754947</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>2.372793561498854</v>
+      </c>
+      <c r="B681" t="n">
+        <v>-156.3759605412473</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>2.37628810282654</v>
+      </c>
+      <c r="B682" t="n">
+        <v>-154.9258822858876</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>2.379782644154226</v>
+      </c>
+      <c r="B683" t="n">
+        <v>-154.2803316018383</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>2.383277185481912</v>
+      </c>
+      <c r="B684" t="n">
+        <v>-154.3114304833514</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>2.386771726809598</v>
+      </c>
+      <c r="B685" t="n">
+        <v>-155.0103677151643</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>2.390266268137284</v>
+      </c>
+      <c r="B686" t="n">
+        <v>-156.4813338065994</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>2.39376080946497</v>
+      </c>
+      <c r="B687" t="n">
+        <v>-159.027273377745</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>2.397255350792657</v>
+      </c>
+      <c r="B688" t="n">
+        <v>-163.5340534768262</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>2.400749892120343</v>
+      </c>
+      <c r="B689" t="n">
+        <v>-173.9458631912877</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>2.404244433448029</v>
+      </c>
+      <c r="B690" t="n">
+        <v>-168.7117106552432</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>2.407738974775715</v>
+      </c>
+      <c r="B691" t="n">
+        <v>-161.7137013368841</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>2.411233516103401</v>
+      </c>
+      <c r="B692" t="n">
+        <v>-158.2872783000425</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>2.414728057431087</v>
+      </c>
+      <c r="B693" t="n">
+        <v>-156.347006648415</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>2.418222598758773</v>
+      </c>
+      <c r="B694" t="n">
+        <v>-155.31863030599</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>2.421717140086459</v>
+      </c>
+      <c r="B695" t="n">
+        <v>-154.9904448919164</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>2.425211681414145</v>
+      </c>
+      <c r="B696" t="n">
+        <v>-155.2986993433286</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>2.428706222741831</v>
+      </c>
+      <c r="B697" t="n">
+        <v>-156.2815609226027</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>2.432200764069517</v>
+      </c>
+      <c r="B698" t="n">
+        <v>-158.1080673260395</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>2.435695305397203</v>
+      </c>
+      <c r="B699" t="n">
+        <v>-161.2399665610466</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>2.43918984672489</v>
+      </c>
+      <c r="B700" t="n">
+        <v>-167.2596597886417</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>2.442684388052576</v>
+      </c>
+      <c r="B701" t="n">
+        <v>-181.5265044188623</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>2.446178929380262</v>
+      </c>
+      <c r="B702" t="n">
+        <v>-165.8702701157714</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>2.449673470707948</v>
+      </c>
+      <c r="B703" t="n">
+        <v>-160.5492260004266</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>2.453168012035634</v>
+      </c>
+      <c r="B704" t="n">
+        <v>-157.6459985279679</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>2.45666255336332</v>
+      </c>
+      <c r="B705" t="n">
+        <v>-155.9040174206887</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>2.460157094691006</v>
+      </c>
+      <c r="B706" t="n">
+        <v>-154.9175515990826</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>2.463651636018692</v>
+      </c>
+      <c r="B707" t="n">
+        <v>-154.5201295820663</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>2.467146177346378</v>
+      </c>
+      <c r="B708" t="n">
+        <v>-154.6489341163607</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>2.470640718674064</v>
+      </c>
+      <c r="B709" t="n">
+        <v>-155.3079399441143</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>2.47413526000175</v>
+      </c>
+      <c r="B710" t="n">
+        <v>-156.5704986882932</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>2.477629801329436</v>
+      </c>
+      <c r="B711" t="n">
+        <v>-158.62448183307</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>2.481124342657123</v>
+      </c>
+      <c r="B712" t="n">
+        <v>-161.9343657287677</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>2.484618883984809</v>
+      </c>
+      <c r="B713" t="n">
+        <v>-167.9778616625105</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>2.488113425312495</v>
+      </c>
+      <c r="B714" t="n">
+        <v>-177.9498575390292</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>2.491607966640181</v>
+      </c>
+      <c r="B715" t="n">
+        <v>-166.6565590005487</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>2.495102507967867</v>
+      </c>
+      <c r="B716" t="n">
+        <v>-161.6395276270511</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>2.498597049295553</v>
+      </c>
+      <c r="B717" t="n">
+        <v>-158.8809188876881</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>2.502091590623239</v>
+      </c>
+      <c r="B718" t="n">
+        <v>-157.2455772854945</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>2.505586131950925</v>
+      </c>
+      <c r="B719" t="n">
+        <v>-156.3503896417291</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>2.509080673278612</v>
+      </c>
+      <c r="B720" t="n">
+        <v>-156.0389959210958</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>2.512575214606298</v>
+      </c>
+      <c r="B721" t="n">
+        <v>-156.257699663991</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>2.516069755933983</v>
+      </c>
+      <c r="B722" t="n">
+        <v>-157.0237375722205</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>2.519564297261669</v>
+      </c>
+      <c r="B723" t="n">
+        <v>-158.4356543457714</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>2.523058838589356</v>
+      </c>
+      <c r="B724" t="n">
+        <v>-160.7403930676156</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>2.526553379917042</v>
+      </c>
+      <c r="B725" t="n">
+        <v>-164.5820930957538</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>2.530047921244728</v>
+      </c>
+      <c r="B726" t="n">
+        <v>-172.1840740444478</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>2.533542462572414</v>
+      </c>
+      <c r="B727" t="n">
+        <v>-173.3217416004891</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>2.5370370039001</v>
+      </c>
+      <c r="B728" t="n">
+        <v>-165.0227153143754</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>2.540531545227786</v>
+      </c>
+      <c r="B729" t="n">
+        <v>-160.8890664658188</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>2.544026086555472</v>
+      </c>
+      <c r="B730" t="n">
+        <v>-158.3810760692088</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>2.547520627883158</v>
+      </c>
+      <c r="B731" t="n">
+        <v>-156.7692920552022</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>2.551015169210844</v>
+      </c>
+      <c r="B732" t="n">
+        <v>-155.7673361173306</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>2.554509710538531</v>
+      </c>
+      <c r="B733" t="n">
+        <v>-155.2423813938518</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>2.558004251866217</v>
+      </c>
+      <c r="B734" t="n">
+        <v>-155.1326934057596</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>2.561498793193903</v>
+      </c>
+      <c r="B735" t="n">
+        <v>-155.4197073993816</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>2.564993334521589</v>
+      </c>
+      <c r="B736" t="n">
+        <v>-156.1211868739275</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>2.568487875849275</v>
+      </c>
+      <c r="B737" t="n">
+        <v>-157.2989956060037</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>2.571982417176961</v>
+      </c>
+      <c r="B738" t="n">
+        <v>-159.0893829776646</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>2.575476958504647</v>
+      </c>
+      <c r="B739" t="n">
+        <v>-161.7950152811328</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>2.578971499832333</v>
+      </c>
+      <c r="B740" t="n">
+        <v>-166.2384757225668</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>2.582466041160019</v>
+      </c>
+      <c r="B741" t="n">
+        <v>-176.5317451991459</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>2.585960582487705</v>
+      </c>
+      <c r="B742" t="n">
+        <v>-174.5048693304874</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>2.589455123815391</v>
+      </c>
+      <c r="B743" t="n">
+        <v>-165.8927272104675</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>2.592949665143077</v>
+      </c>
+      <c r="B744" t="n">
+        <v>-161.9809088376072</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>2.596444206470764</v>
+      </c>
+      <c r="B745" t="n">
+        <v>-159.6394758648825</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>2.59993874779845</v>
+      </c>
+      <c r="B746" t="n">
+        <v>-158.1535644977472</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>2.603433289126136</v>
+      </c>
+      <c r="B747" t="n">
+        <v>-157.2487935053672</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>2.606927830453822</v>
+      </c>
+      <c r="B748" t="n">
+        <v>-156.7987892525202</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>2.610422371781508</v>
+      </c>
+      <c r="B749" t="n">
+        <v>-156.7453562865165</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>2.613916913109194</v>
+      </c>
+      <c r="B750" t="n">
+        <v>-157.0717026127073</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>2.61741145443688</v>
+      </c>
+      <c r="B751" t="n">
+        <v>-157.7956964773328</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>2.620905995764566</v>
+      </c>
+      <c r="B752" t="n">
+        <v>-158.9763037599396</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>2.624400537092252</v>
+      </c>
+      <c r="B753" t="n">
+        <v>-160.7378587014689</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>2.627895078419938</v>
+      </c>
+      <c r="B754" t="n">
+        <v>-163.3325038061178</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>2.631389619747624</v>
+      </c>
+      <c r="B755" t="n">
+        <v>-167.2754343755125</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>2.63488416107531</v>
+      </c>
+      <c r="B756" t="n">
+        <v>-172.6254187000827</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>2.638378702402997</v>
+      </c>
+      <c r="B757" t="n">
+        <v>-170.7307819917683</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>2.641873243730683</v>
+      </c>
+      <c r="B758" t="n">
+        <v>-165.6896775124125</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>2.645367785058369</v>
+      </c>
+      <c r="B759" t="n">
+        <v>-162.3628365478648</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>2.648862326386055</v>
+      </c>
+      <c r="B760" t="n">
+        <v>-160.1378798723685</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>2.652356867713741</v>
+      </c>
+      <c r="B761" t="n">
+        <v>-158.608604475163</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>2.655851409041427</v>
+      </c>
+      <c r="B762" t="n">
+        <v>-157.5725968005336</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>2.659345950369113</v>
+      </c>
+      <c r="B763" t="n">
+        <v>-156.9226437661405</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>2.662840491696799</v>
+      </c>
+      <c r="B764" t="n">
+        <v>-156.6005531683082</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>2.666335033024485</v>
+      </c>
+      <c r="B765" t="n">
+        <v>-156.5775336687577</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>2.669829574352172</v>
+      </c>
+      <c r="B766" t="n">
+        <v>-156.8461983386636</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>2.673324115679857</v>
+      </c>
+      <c r="B767" t="n">
+        <v>-157.4190577291584</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>2.676818657007543</v>
+      </c>
+      <c r="B768" t="n">
+        <v>-158.3326766625846</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>2.68031319833523</v>
+      </c>
+      <c r="B769" t="n">
+        <v>-159.6605651068271</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>2.683807739662916</v>
+      </c>
+      <c r="B770" t="n">
+        <v>-161.5458550344653</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>2.687302280990602</v>
+      </c>
+      <c r="B771" t="n">
+        <v>-164.2937929286564</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>2.690796822318288</v>
+      </c>
+      <c r="B772" t="n">
+        <v>-168.7212566386211</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>2.694291363645974</v>
+      </c>
+      <c r="B773" t="n">
+        <v>-178.8619801653092</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>2.69778590497366</v>
+      </c>
+      <c r="B774" t="n">
+        <v>-177.0785060424836</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>2.701280446301346</v>
+      </c>
+      <c r="B775" t="n">
+        <v>-168.2369269992551</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>2.704774987629032</v>
+      </c>
+      <c r="B776" t="n">
+        <v>-164.1277008132734</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>2.708269528956718</v>
+      </c>
+      <c r="B777" t="n">
+        <v>-161.5481556251687</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>2.711764070284405</v>
+      </c>
+      <c r="B778" t="n">
+        <v>-159.7690051496618</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>2.715258611612091</v>
+      </c>
+      <c r="B779" t="n">
+        <v>-158.504507004502</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>2.718753152939777</v>
+      </c>
+      <c r="B780" t="n">
+        <v>-157.6143462023184</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>2.722247694267463</v>
+      </c>
+      <c r="B781" t="n">
+        <v>-157.0209636560856</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>2.725742235595149</v>
+      </c>
+      <c r="B782" t="n">
+        <v>-156.6790605296933</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>2.729236776922835</v>
+      </c>
+      <c r="B783" t="n">
+        <v>-156.5624342494657</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>2.732731318250521</v>
+      </c>
+      <c r="B784" t="n">
+        <v>-156.6578633288035</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>2.736225859578207</v>
+      </c>
+      <c r="B785" t="n">
+        <v>-156.9624392066154</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>2.739720400905893</v>
+      </c>
+      <c r="B786" t="n">
+        <v>-157.4830707001558</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>2.743214942233579</v>
+      </c>
+      <c r="B787" t="n">
+        <v>-158.2378528254868</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>2.746709483561265</v>
+      </c>
+      <c r="B788" t="n">
+        <v>-159.2598988840665</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>2.750204024888951</v>
+      </c>
+      <c r="B789" t="n">
+        <v>-160.6051410607765</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>2.753698566216638</v>
+      </c>
+      <c r="B790" t="n">
+        <v>-162.3680561394965</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>2.757193107544324</v>
+      </c>
+      <c r="B791" t="n">
+        <v>-164.7129156455198</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>2.76068764887201</v>
+      </c>
+      <c r="B792" t="n">
+        <v>-167.9227825602251</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>2.764182190199696</v>
+      </c>
+      <c r="B793" t="n">
+        <v>-172.2016675699936</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>2.767676731527382</v>
+      </c>
+      <c r="B794" t="n">
+        <v>-174.2750760599312</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>2.771171272855068</v>
+      </c>
+      <c r="B795" t="n">
+        <v>-170.5227998862363</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>2.774665814182754</v>
+      </c>
+      <c r="B796" t="n">
+        <v>-166.9030808852828</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>2.77816035551044</v>
+      </c>
+      <c r="B797" t="n">
+        <v>-164.3327692010158</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>2.781654896838126</v>
+      </c>
+      <c r="B798" t="n">
+        <v>-162.4793759769504</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>2.785149438165812</v>
+      </c>
+      <c r="B799" t="n">
+        <v>-161.1139762936527</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>2.788643979493498</v>
+      </c>
+      <c r="B800" t="n">
+        <v>-160.104665875175</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>2.792138520821184</v>
+      </c>
+      <c r="B801" t="n">
+        <v>-159.3726893635548</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>2.795633062148871</v>
+      </c>
+      <c r="B802" t="n">
+        <v>-158.8689913615925</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>2.799127603476557</v>
+      </c>
+      <c r="B803" t="n">
+        <v>-158.5623242992691</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>2.802622144804243</v>
+      </c>
+      <c r="B804" t="n">
+        <v>-158.4330121200618</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>2.806116686131929</v>
+      </c>
+      <c r="B805" t="n">
+        <v>-158.4696350614093</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>2.809611227459615</v>
+      </c>
+      <c r="B806" t="n">
+        <v>-158.6673203134113</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>2.813105768787301</v>
+      </c>
+      <c r="B807" t="n">
+        <v>-159.0271050512482</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>2.816600310114987</v>
+      </c>
+      <c r="B808" t="n">
+        <v>-159.5561136795528</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>2.820094851442673</v>
+      </c>
+      <c r="B809" t="n">
+        <v>-160.2685924828452</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>2.823589392770359</v>
+      </c>
+      <c r="B810" t="n">
+        <v>-161.188061335234</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>2.827083934098045</v>
+      </c>
+      <c r="B811" t="n">
+        <v>-162.3510780578634</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>2.830578475425731</v>
+      </c>
+      <c r="B812" t="n">
+        <v>-163.8132535712332</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>2.834073016753417</v>
+      </c>
+      <c r="B813" t="n">
+        <v>-165.6570514119853</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>2.837567558081104</v>
+      </c>
+      <c r="B814" t="n">
+        <v>-167.9888729071292</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>2.84106209940879</v>
+      </c>
+      <c r="B815" t="n">
+        <v>-170.8251204648765</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>2.844556640736476</v>
+      </c>
+      <c r="B816" t="n">
+        <v>-173.316505677421</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>2.848051182064162</v>
+      </c>
+      <c r="B817" t="n">
+        <v>-172.8881312911952</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>2.851545723391848</v>
+      </c>
+      <c r="B818" t="n">
+        <v>-170.1934496082445</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>2.855040264719534</v>
+      </c>
+      <c r="B819" t="n">
+        <v>-167.5546520977915</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>2.85853480604722</v>
+      </c>
+      <c r="B820" t="n">
+        <v>-165.4371968319689</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>2.862029347374906</v>
+      </c>
+      <c r="B821" t="n">
+        <v>-163.7674272441151</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>2.865523888702592</v>
+      </c>
+      <c r="B822" t="n">
+        <v>-162.4388086333149</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>2.869018430030279</v>
+      </c>
+      <c r="B823" t="n">
+        <v>-161.3724520065471</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>2.872512971357965</v>
+      </c>
+      <c r="B824" t="n">
+        <v>-160.5138507420805</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>2.876007512685651</v>
+      </c>
+      <c r="B825" t="n">
+        <v>-159.8250453516482</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>2.879502054013336</v>
+      </c>
+      <c r="B826" t="n">
+        <v>-159.2790298774977</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>2.882996595341023</v>
+      </c>
+      <c r="B827" t="n">
+        <v>-158.8561533008234</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>2.886491136668709</v>
+      </c>
+      <c r="B828" t="n">
+        <v>-158.5418912909711</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>2.889985677996395</v>
+      </c>
+      <c r="B829" t="n">
+        <v>-158.3253778306834</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>2.893480219324081</v>
+      </c>
+      <c r="B830" t="n">
+        <v>-158.1984684573274</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>2.896974760651767</v>
+      </c>
+      <c r="B831" t="n">
+        <v>-158.1551183397169</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>2.900469301979453</v>
+      </c>
+      <c r="B832" t="n">
+        <v>-158.190987181111</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>2.903963843307139</v>
+      </c>
+      <c r="B833" t="n">
+        <v>-158.3031580548749</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>2.907458384634825</v>
+      </c>
+      <c r="B834" t="n">
+        <v>-158.4899939436016</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>2.910952925962512</v>
+      </c>
+      <c r="B835" t="n">
+        <v>-158.7510674931974</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>2.914447467290198</v>
+      </c>
+      <c r="B836" t="n">
+        <v>-159.0871721389241</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>2.917942008617884</v>
+      </c>
+      <c r="B837" t="n">
+        <v>-159.5004155751101</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>2.92143654994557</v>
+      </c>
+      <c r="B838" t="n">
+        <v>-159.9943999992078</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>2.924931091273256</v>
+      </c>
+      <c r="B839" t="n">
+        <v>-160.5745274529637</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>2.928425632600942</v>
+      </c>
+      <c r="B840" t="n">
+        <v>-161.2484931095539</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>2.931920173928628</v>
+      </c>
+      <c r="B841" t="n">
+        <v>-162.0270138117684</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>2.935414715256314</v>
+      </c>
+      <c r="B842" t="n">
+        <v>-162.9249762539256</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>2.938909256584</v>
+      </c>
+      <c r="B843" t="n">
+        <v>-163.9632825572971</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>2.942403797911686</v>
+      </c>
+      <c r="B844" t="n">
+        <v>-165.1718666938585</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>2.945898339239372</v>
+      </c>
+      <c r="B845" t="n">
+        <v>-166.5948764771177</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>2.949392880567058</v>
+      </c>
+      <c r="B846" t="n">
+        <v>-168.2999967887551</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>2.952887421894745</v>
+      </c>
+      <c r="B847" t="n">
+        <v>-170.3955140235486</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>2.956381963222431</v>
+      </c>
+      <c r="B848" t="n">
+        <v>-173.0589841440227</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>2.959876504550117</v>
+      </c>
+      <c r="B849" t="n">
+        <v>-176.5366635026434</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>2.963371045877803</v>
+      </c>
+      <c r="B850" t="n">
+        <v>-180.431240656016</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>2.966865587205489</v>
+      </c>
+      <c r="B851" t="n">
+        <v>-180.3623299448176</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>2.970360128533175</v>
+      </c>
+      <c r="B852" t="n">
+        <v>-176.6592202117074</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>2.973854669860861</v>
+      </c>
+      <c r="B853" t="n">
+        <v>-173.4714323265827</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>2.977349211188547</v>
+      </c>
+      <c r="B854" t="n">
+        <v>-171.0802748616746</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>2.980843752516233</v>
+      </c>
+      <c r="B855" t="n">
+        <v>-169.2378914263091</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>2.984338293843919</v>
+      </c>
+      <c r="B856" t="n">
+        <v>-167.7702856894908</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>2.987832835171605</v>
+      </c>
+      <c r="B857" t="n">
+        <v>-166.5706614316139</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>2.991327376499291</v>
+      </c>
+      <c r="B858" t="n">
+        <v>-165.5713984158831</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>2.994821917826977</v>
+      </c>
+      <c r="B859" t="n">
+        <v>-164.7276023170214</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>2.998316459154664</v>
+      </c>
+      <c r="B860" t="n">
+        <v>-164.0080748834359</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>3.00181100048235</v>
+      </c>
+      <c r="B861" t="n">
+        <v>-163.3902948779487</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>3.005305541810036</v>
+      </c>
+      <c r="B862" t="n">
+        <v>-162.8575013106069</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>3.008800083137722</v>
+      </c>
+      <c r="B863" t="n">
+        <v>-162.3968261758335</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>3.012294624465408</v>
+      </c>
+      <c r="B864" t="n">
+        <v>-161.9981979294834</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>3.015789165793094</v>
+      </c>
+      <c r="B865" t="n">
+        <v>-161.6535454477929</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>3.01928370712078</v>
+      </c>
+      <c r="B866" t="n">
+        <v>-161.3563013821323</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>3.022778248448466</v>
+      </c>
+      <c r="B867" t="n">
+        <v>-161.1010265071616</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>3.026272789776153</v>
+      </c>
+      <c r="B868" t="n">
+        <v>-160.8831588109137</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>3.029767331103839</v>
+      </c>
+      <c r="B869" t="n">
+        <v>-160.6988279916112</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>3.033261872431525</v>
+      </c>
+      <c r="B870" t="n">
+        <v>-160.5447033423531</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>3.03675641375921</v>
+      </c>
+      <c r="B871" t="n">
+        <v>-160.4179055750067</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>3.040250955086897</v>
+      </c>
+      <c r="B872" t="n">
+        <v>-160.315915209979</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>3.043745496414583</v>
+      </c>
+      <c r="B873" t="n">
+        <v>-160.2365113916977</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>3.047240037742269</v>
+      </c>
+      <c r="B874" t="n">
+        <v>-160.1777239941839</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>3.050734579069955</v>
+      </c>
+      <c r="B875" t="n">
+        <v>-160.1378011631453</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>3.054229120397641</v>
+      </c>
+      <c r="B876" t="n">
+        <v>-160.1151669382328</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>3.057723661725327</v>
+      </c>
+      <c r="B877" t="n">
+        <v>-160.1084138972215</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>3.061218203053013</v>
+      </c>
+      <c r="B878" t="n">
+        <v>-160.1162663963914</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>3.064712744380699</v>
+      </c>
+      <c r="B879" t="n">
+        <v>-160.137588967672</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>3.068207285708386</v>
+      </c>
+      <c r="B880" t="n">
+        <v>-160.1713531918793</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>3.071701827036072</v>
+      </c>
+      <c r="B881" t="n">
+        <v>-160.216644348499</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>3.075196368363758</v>
+      </c>
+      <c r="B882" t="n">
+        <v>-160.2726576078744</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>3.078690909691444</v>
+      </c>
+      <c r="B883" t="n">
+        <v>-160.3386827042675</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>3.08218545101913</v>
+      </c>
+      <c r="B884" t="n">
+        <v>-160.4141374540763</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>3.085679992346816</v>
+      </c>
+      <c r="B885" t="n">
+        <v>-160.4985331224506</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>3.089174533674502</v>
+      </c>
+      <c r="B886" t="n">
+        <v>-160.5915257981354</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>3.092669075002188</v>
+      </c>
+      <c r="B887" t="n">
+        <v>-160.6928994364134</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>3.096163616329874</v>
+      </c>
+      <c r="B888" t="n">
+        <v>-160.80262600846</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>3.09965815765756</v>
+      </c>
+      <c r="B889" t="n">
+        <v>-160.920874463755</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>3.103152698985246</v>
+      </c>
+      <c r="B890" t="n">
+        <v>-161.0480955253077</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>3.106647240312932</v>
+      </c>
+      <c r="B891" t="n">
+        <v>-161.1850918280882</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>3.110141781640618</v>
+      </c>
+      <c r="B892" t="n">
+        <v>-161.3331608054179</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>3.113636322968305</v>
+      </c>
+      <c r="B893" t="n">
+        <v>-161.494354949891</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>3.117130864295991</v>
+      </c>
+      <c r="B894" t="n">
+        <v>-161.6718288988327</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>3.120625405623677</v>
+      </c>
+      <c r="B895" t="n">
+        <v>-161.8706068409087</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>3.124119946951363</v>
+      </c>
+      <c r="B896" t="n">
+        <v>-162.0990184298547</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>3.127614488279049</v>
+      </c>
+      <c r="B897" t="n">
+        <v>-162.3719872249156</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>3.131109029606735</v>
+      </c>
+      <c r="B898" t="n">
+        <v>-162.7197474885123</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>3.134603570934421</v>
+      </c>
+      <c r="B899" t="n">
+        <v>-163.2182216422572</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>3.138098112262107</v>
+      </c>
+      <c r="B900" t="n">
+        <v>-164.1692197180718</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
         <v>3.141592653589793</v>
       </c>
-      <c r="B601" t="n">
-        <v>-51.93391779225853</v>
+      <c r="B901" t="n">
+        <v>-151.5446671119458</v>
       </c>
     </row>
   </sheetData>

--- a/RT_radpat_0deg.xlsx
+++ b/RT_radpat_0deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-166.2434782168474</v>
+        <v>-166.1769118310538</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-164.2742027337704</v>
+        <v>-164.0807789888402</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-163.7786564164242</v>
+        <v>-163.4510640045305</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-163.4347841782595</v>
+        <v>-163.0674823317793</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-163.1726044706224</v>
+        <v>-162.7839440350784</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-162.9575679630797</v>
+        <v>-162.554642544588</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-162.7726954139936</v>
+        <v>-162.3592965769012</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-162.6086404636619</v>
+        <v>-162.1872237603711</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-162.4598167828949</v>
+        <v>-162.0322121818704</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-162.3227176122048</v>
+        <v>-161.8904178872357</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-162.1950957774003</v>
+        <v>-161.7593753164295</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-162.0754927976875</v>
+        <v>-161.6374992148434</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-161.9630142446093</v>
+        <v>-161.5237924988261</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-161.8571473851108</v>
+        <v>-161.4176593437901</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-161.7576690199283</v>
+        <v>-161.3188289490288</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-161.6646007728646</v>
+        <v>-161.2272482648898</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-161.5781295642275</v>
+        <v>-161.1430604613168</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-161.4986109457989</v>
+        <v>-161.0665630070106</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-161.4265192750992</v>
+        <v>-160.9981847421632</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-161.3624535412642</v>
+        <v>-160.9384832365118</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-161.3071236042687</v>
+        <v>-160.8881136572886</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-161.2613337522858</v>
+        <v>-160.8478420010342</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-161.2259970740644</v>
+        <v>-160.8185475017797</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-161.2021210640644</v>
+        <v>-160.8011966099229</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-161.1908205310112</v>
+        <v>-160.7968776273825</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-161.1933204062194</v>
+        <v>-160.8067859308139</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-161.2109655844429</v>
+        <v>-160.8322513927329</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-161.2452267198007</v>
+        <v>-160.874738095027</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-161.2977338910075</v>
+        <v>-160.9358700158434</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-161.3702737051078</v>
+        <v>-161.0174516766251</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-161.4648203210592</v>
+        <v>-161.1215010897624</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-161.5835920877059</v>
+        <v>-161.2502703735139</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-161.7290508079997</v>
+        <v>-161.4063235331324</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-161.9039798027451</v>
+        <v>-161.5925488774635</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-162.1115357533481</v>
+        <v>-161.8122749106599</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-162.3553199223443</v>
+        <v>-162.0693536486839</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-162.6394875663333</v>
+        <v>-162.3682659779861</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-162.9688504537393</v>
+        <v>-162.7143070897508</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-163.3490254699182</v>
+        <v>-163.1137978074885</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-163.7866395178264</v>
+        <v>-163.5743453909872</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-164.2895092175083</v>
+        <v>-164.1052710531332</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-164.866894893172</v>
+        <v>-164.7180928205212</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-165.5296557349783</v>
+        <v>-165.4272356066246</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-166.2902559428586</v>
+        <v>-166.2508899145313</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-167.1620757377844</v>
+        <v>-167.2119847233399</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-168.1568951187371</v>
+        <v>-168.3386827080378</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-169.2776409726845</v>
+        <v>-169.662207758271</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-170.4990370207025</v>
+        <v>-171.2040074212481</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-171.7230438080937</v>
+        <v>-172.9243373046587</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-172.706867150834</v>
+        <v>-174.5605115373888</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-173.0647968548172</v>
+        <v>-175.3836206927662</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-172.5546538089149</v>
+        <v>-174.693013590482</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-171.3718647513781</v>
+        <v>-172.937457459453</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-169.9081725249337</v>
+        <v>-170.9514386890322</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-168.4305514167628</v>
+        <v>-169.1096540575186</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-167.0530368004438</v>
+        <v>-167.4916563499015</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-165.8087827399418</v>
+        <v>-166.0865055432241</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-164.6988729429287</v>
+        <v>-164.8653170356949</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-163.7139833849668</v>
+        <v>-163.8004758980583</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-162.842756518717</v>
+        <v>-162.8695676129208</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-162.0746771808797</v>
+        <v>-162.0552242854853</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-161.4009363095107</v>
+        <v>-161.3442663901065</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-160.8145190882245</v>
+        <v>-160.7267694021177</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-160.3100920543168</v>
+        <v>-160.195395311638</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-159.8837910541812</v>
+        <v>-159.7448342327206</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-159.5330977916962</v>
+        <v>-159.3714640399791</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-159.2566888236997</v>
+        <v>-159.0730865813706</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-159.0543997076987</v>
+        <v>-158.8487696066983</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-158.927202017208</v>
+        <v>-158.6987705383438</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-158.8772693907471</v>
+        <v>-158.6245431685875</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-158.9081040277831</v>
+        <v>-158.6287902243475</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-159.0247615427924</v>
+        <v>-158.715622070482</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-159.2341919123002</v>
+        <v>-158.890832650398</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-159.5458008571699</v>
+        <v>-159.1622707960129</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-159.9722713026138</v>
+        <v>-159.5405021182638</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-160.5308738242943</v>
+        <v>-160.0397395890091</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-161.2455637121936</v>
+        <v>-160.6793572412035</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-162.1505564153493</v>
+        <v>-161.4863027485993</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-163.2966098400301</v>
+        <v>-162.4992036069744</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-164.7628767879842</v>
+        <v>-163.7753979754391</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-166.6805778414517</v>
+        <v>-165.4036765623721</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-169.2807740789894</v>
+        <v>-167.526072846454</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-172.9439735388152</v>
+        <v>-170.355650195027</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-177.2011932949167</v>
+        <v>-173.9317870346257</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-175.6208555141686</v>
+        <v>-175.7740688599559</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-171.0498021296687</v>
+        <v>-172.7421912985723</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-167.6237361240253</v>
+        <v>-169.1560477691928</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-165.1107624178084</v>
+        <v>-166.3887350498502</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-163.1863338212344</v>
+        <v>-164.2740079509878</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-161.6673321298601</v>
+        <v>-162.6195842431405</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-160.4490288365263</v>
+        <v>-161.3039233622079</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-159.46812092443</v>
+        <v>-160.252118828346</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-158.6846834761695</v>
+        <v>-159.4169115782773</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-158.073024052551</v>
+        <v>-158.7679837061059</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-157.6167696508807</v>
+        <v>-158.2860762097331</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-157.3062020127295</v>
+        <v>-157.9597097570689</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-157.1367758930627</v>
+        <v>-157.7834185009573</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-157.108461008444</v>
+        <v>-157.7569050729223</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-157.2256350726506</v>
+        <v>-157.8849407698446</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-157.4976013824332</v>
+        <v>-158.1779324963888</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-157.9397748205514</v>
+        <v>-158.6533567127169</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-158.5760041045943</v>
+        <v>-159.3385533749557</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-159.4428179078823</v>
+        <v>-160.2759052307187</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-160.5976409715169</v>
+        <v>-161.5328060924915</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-162.1356512426385</v>
+        <v>-163.2222091406027</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-164.2290983669662</v>
+        <v>-165.5485705372066</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-167.2359601494883</v>
+        <v>-168.9132075526847</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-172.0847679875036</v>
+        <v>-173.9085195039642</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-180.8802678929435</v>
+        <v>-175.8390030040683</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-174.717738087417</v>
+        <v>-170.4850886886584</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-168.6112387925809</v>
+        <v>-166.4072454924178</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-165.0608784462568</v>
+        <v>-163.6180873374047</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-162.667027416184</v>
+        <v>-161.6025056644071</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-160.9440747409556</v>
+        <v>-160.1003945433159</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-159.6772204528177</v>
+        <v>-158.9754519114391</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-158.7562794785117</v>
+        <v>-158.1513081985807</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-158.1205028825859</v>
+        <v>-157.5840077821007</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-157.7365403118858</v>
+        <v>-157.2493712931426</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-157.5887155437653</v>
+        <v>-157.1371147321118</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-157.674931857378</v>
+        <v>-157.2484703259081</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-158.0058534215443</v>
+        <v>-157.5963144250009</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-158.6068539034324</v>
+        <v>-158.2078037561909</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-159.523592333957</v>
+        <v>-159.1308299911251</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-160.8336547822808</v>
+        <v>-160.448069449344</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-162.6699819154936</v>
+        <v>-162.3090813222285</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-165.2616125807879</v>
+        <v>-165.0130056294271</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-168.8981486973213</v>
+        <v>-169.2534290897689</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-172.2476657640277</v>
+        <v>-176.0965685000833</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-169.8077672724501</v>
+        <v>-173.1604499443045</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-165.7689098637101</v>
+        <v>-167.1675148217841</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-162.7773195205034</v>
+        <v>-163.5368581773299</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-160.6276042684833</v>
+        <v>-161.1105761334709</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-159.0645768839847</v>
+        <v>-159.400328983876</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-157.9398305161729</v>
+        <v>-158.1859306642528</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-157.1699845900129</v>
+        <v>-157.3559522036828</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-156.7095281392318</v>
+        <v>-156.851850950101</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-156.5376347935328</v>
+        <v>-156.6457979076936</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-156.6527386383491</v>
+        <v>-156.7318400323345</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-157.0722491552876</v>
+        <v>-157.12398757553</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-157.8375884633371</v>
+        <v>-157.8599939821421</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-159.0279861481753</v>
+        <v>-159.0134742714014</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-160.7950324306495</v>
+        <v>-160.7239313773964</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-163.4608830687508</v>
+        <v>-163.2776004395945</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-167.8939615578282</v>
+        <v>-167.373216362754</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-178.4260834015217</v>
+        <v>-175.0023643591801</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-174.6024566280565</v>
+        <v>-173.5945777200628</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-166.4320469003053</v>
+        <v>-166.5017535985959</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-162.435042769039</v>
+        <v>-162.592112738814</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-159.9180720731767</v>
+        <v>-160.0926801714161</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-158.2159560213556</v>
+        <v>-158.3991463154715</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-157.0673993554783</v>
+        <v>-157.2605531111531</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-156.3497094088374</v>
+        <v>-156.5575046963318</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-156.0038230936236</v>
+        <v>-156.2332830381438</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-156.0079003988387</v>
+        <v>-156.2691578120841</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-156.3687898490001</v>
+        <v>-156.6771634447986</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-157.1236495166042</v>
+        <v>-157.5041234915768</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-158.3526713530995</v>
+        <v>-158.8503736062094</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-160.2133178122672</v>
+        <v>-160.9223863250277</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-163.03056712635</v>
+        <v>-164.1976514127351</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-167.5283974552448</v>
+        <v>-170.1239657935346</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-173.3955752581288</v>
+        <v>-178.177941722185</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-168.9111192785233</v>
+        <v>-168.0534198999414</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-163.8766941238214</v>
+        <v>-162.9814029493851</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-160.77785380163</v>
+        <v>-160.0043127416619</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-158.7756188216936</v>
+        <v>-158.0773559744184</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-157.4912949890516</v>
+        <v>-156.8293976307342</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-156.75390942942</v>
+        <v>-156.0985162925034</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-156.4889009524823</v>
+        <v>-155.813089744969</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-156.6799447252579</v>
+        <v>-155.9539280106032</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-157.3617595130834</v>
+        <v>-156.5453748046575</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-158.6373683280437</v>
+        <v>-157.665691810145</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-160.7421117117005</v>
+        <v>-159.4882756462289</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-164.2703276833042</v>
+        <v>-162.4133905049708</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-171.3983395854199</v>
+        <v>-167.6175725632267</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-176.9789104035275</v>
+        <v>-179.2075607084477</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-166.0034291084697</v>
+        <v>-168.7789779546843</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-161.3001480536711</v>
+        <v>-162.8511855358826</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-158.5073021932428</v>
+        <v>-159.5957688019633</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-156.7082254594462</v>
+        <v>-157.5649167983189</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-155.5752644372932</v>
+        <v>-156.3009512177513</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-154.966672502994</v>
+        <v>-155.6167382945569</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-154.8247906104621</v>
+        <v>-155.436343679769</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-155.1452323605645</v>
+        <v>-155.7492564708637</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-155.9743563405175</v>
+        <v>-156.6044563471082</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-157.4319979867583</v>
+        <v>-158.136679063654</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-159.7890360175053</v>
+        <v>-160.6624688661981</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-163.7527758242273</v>
+        <v>-165.0590688946527</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-172.2082459960703</v>
+        <v>-175.3078774335629</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-173.3561247599792</v>
+        <v>-170.6104914828975</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-164.1986163015418</v>
+        <v>-163.1707090142592</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-160.0834475624594</v>
+        <v>-159.4658417437733</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-157.6928805205241</v>
+        <v>-157.2448743495238</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-156.2681240555946</v>
+        <v>-155.9045538900706</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-155.5366898263594</v>
+        <v>-155.2158327075268</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-155.3961664800335</v>
+        <v>-155.0916471413178</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-155.8370304296892</v>
+        <v>-155.5269066990384</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-156.9355290877857</v>
+        <v>-156.594792274468</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-158.9043444512782</v>
+        <v>-158.4940036213099</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-162.2937478668939</v>
+        <v>-161.7325920158606</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-168.9499617749258</v>
+        <v>-168.0640324326666</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-173.9391097279449</v>
+        <v>-178.8350939490413</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-164.2532232689275</v>
+        <v>-165.3485337355243</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-159.7103818495499</v>
+        <v>-160.3049427556045</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-157.0826470683657</v>
+        <v>-157.5080596151042</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-155.4991847814023</v>
+        <v>-155.8485348323962</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-154.649858525419</v>
+        <v>-154.964319517261</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-154.4150022821108</v>
+        <v>-154.7198235747664</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-154.7739079556221</v>
+        <v>-155.0907789483603</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-155.7914325511816</v>
+        <v>-156.1470262834357</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-157.6616777477253</v>
+        <v>-158.102085588193</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-160.8916851634919</v>
+        <v>-161.5303114854059</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-167.2652023042392</v>
+        <v>-168.5986071271383</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-179.6502397899384</v>
+        <v>-175.8630371506766</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-164.727498466834</v>
+        <v>-163.8305698334448</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-159.6892302373324</v>
+        <v>-159.1888718647895</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-156.9677649668628</v>
+        <v>-156.6119643927429</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-155.4234888091052</v>
+        <v>-155.1386696615373</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-154.6971992818461</v>
+        <v>-154.4516496072966</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-154.6673209189193</v>
+        <v>-154.4441348934364</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-155.3387533765854</v>
+        <v>-155.1278285691783</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-156.84430939044</v>
+        <v>-156.6408257227122</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-159.557958245426</v>
+        <v>-159.3720641814131</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-164.5938278333168</v>
+        <v>-164.5720596083051</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-173.9611692649093</v>
+        <v>-181.2402634589197</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-165.1927088400709</v>
+        <v>-165.9518367958663</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-159.6950783521202</v>
+        <v>-159.8721335387872</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-156.7291596775695</v>
+        <v>-156.7637068139248</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-155.0461744938339</v>
+        <v>-155.0127090350359</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-154.2427800015128</v>
+        <v>-154.161160389653</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-154.1835244970595</v>
+        <v>-154.0555682430987</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-154.8759908636414</v>
+        <v>-154.6908068024539</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-156.4780210266244</v>
+        <v>-156.2049061419158</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-159.4593910378308</v>
+        <v>-159.0125136710334</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-165.5085910552604</v>
+        <v>-164.5125259045294</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-184.6735678841066</v>
+        <v>-183.6970860825637</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-163.701876370088</v>
+        <v>-164.6407097381247</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-158.3963415446908</v>
+        <v>-158.9304407665699</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-155.5997583361463</v>
+        <v>-155.998032497462</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-154.05604334499</v>
+        <v>-154.3952705246655</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-153.3884526901312</v>
+        <v>-153.7057371236408</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-153.4805102980746</v>
+        <v>-153.8033214392021</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-154.3614050848151</v>
+        <v>-154.721462106392</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-156.2296410956937</v>
+        <v>-156.6828150989263</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-159.6725442942304</v>
+        <v>-160.3699153775709</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-167.003455833212</v>
+        <v>-168.8366372188274</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-172.9033945267366</v>
+        <v>-170.8079753801293</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-161.6552320385098</v>
+        <v>-160.8742389751552</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-157.2981293521938</v>
+        <v>-156.788177791776</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-155.0106861398625</v>
+        <v>-154.5964977681301</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-153.9010673845886</v>
+        <v>-153.5176769977863</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-153.702588164126</v>
+        <v>-153.3096402350107</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-154.3887999779916</v>
+        <v>-153.9446830116273</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-156.1446604521401</v>
+        <v>-155.5807141295724</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-159.6011723366213</v>
+        <v>-158.7414511556919</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-167.5571947052622</v>
+        <v>-165.4688912580924</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-171.4666520641671</v>
+        <v>-175.8370042941535</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-160.4884994489259</v>
+        <v>-161.6154205647052</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-156.1953076915578</v>
+        <v>-156.8797982739262</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-153.894763718924</v>
+        <v>-154.4212146504332</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-152.7409129591647</v>
+        <v>-153.2027047966084</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-152.4724328126315</v>
+        <v>-152.9203209735348</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-153.0493418726975</v>
+        <v>-153.527863501449</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-154.6117928995433</v>
+        <v>-155.1855020839312</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-157.6334657198663</v>
+        <v>-158.4543814188077</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-163.8621519026897</v>
+        <v>-165.6459980645841</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-177.4923573968344</v>
+        <v>-173.1477710848963</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-161.6255085692875</v>
+        <v>-160.558168638324</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-156.6946011810071</v>
+        <v>-156.0779305990898</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-154.2288114599411</v>
+        <v>-153.7704723464227</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-153.0851715428071</v>
+        <v>-152.6943982583556</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-152.9503108251618</v>
+        <v>-152.5808578240277</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-153.8067856402286</v>
+        <v>-153.4206076761652</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-155.9103513607538</v>
+        <v>-155.4520582814176</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-160.186975951653</v>
+        <v>-159.5057095211527</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-172.4192514628024</v>
+        <v>-170.1737700026466</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-165.1462249355311</v>
+        <v>-166.2414837715337</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-157.7621795416142</v>
+        <v>-158.156770894789</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-154.3740495299824</v>
+        <v>-154.6032940360036</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-152.6375148933911</v>
+        <v>-152.7981853027784</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-151.9976993616103</v>
+        <v>-152.1259045880264</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-152.3157717880475</v>
+        <v>-152.4320333542523</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-153.6882538588049</v>
+        <v>-153.8117963239386</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-156.5649081595286</v>
+        <v>-156.7301989819813</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-162.68033591009</v>
+        <v>-163.0280444541417</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-178.4751653442578</v>
+        <v>-177.027803295515</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-160.5317094736054</v>
+        <v>-160.2426235292593</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-155.5311909273107</v>
+        <v>-155.3460860517232</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-153.0711839991926</v>
+        <v>-152.9152601782113</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-151.9802279298569</v>
+        <v>-151.8296733055717</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-151.9517887295</v>
+        <v>-151.7919718679526</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-152.9975773223377</v>
+        <v>-152.8118324187413</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-155.4617457405452</v>
+        <v>-155.2171438543155</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-160.6649526475687</v>
+        <v>-160.2434099028786</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-186.7499434009663</v>
+        <v>-180.7183715785721</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-161.3431665563231</v>
+        <v>-161.6996478775984</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-155.5344688948256</v>
+        <v>-155.6762812955294</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-152.7527810420633</v>
+        <v>-152.8230237829347</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-151.4639546137882</v>
+        <v>-151.4954955340786</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-151.2813838330333</v>
+        <v>-151.2852593160859</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-152.177935413949</v>
+        <v>-152.1562476401775</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-154.4473961980163</v>
+        <v>-154.3933928524678</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-159.2223986514488</v>
+        <v>-159.1011441116345</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-176.4842766945999</v>
+        <v>-175.5101477203426</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-161.6570157009991</v>
+        <v>-161.8082254278772</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-155.3200927356955</v>
+        <v>-155.3744714707458</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-152.3825381921224</v>
+        <v>-152.4011351722365</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-151.0353100988728</v>
+        <v>-151.0300687980202</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-150.8463822197046</v>
+        <v>-150.8189332810854</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-151.7851501089048</v>
+        <v>-151.7304769135929</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-154.1761456780262</v>
+        <v>-154.0767167433279</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-159.3216785125886</v>
+        <v>-159.1059033423573</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-183.6607319634165</v>
+        <v>-180.8702375289155</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-160.0698572196862</v>
+        <v>-160.3488428304603</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-154.2794951482023</v>
+        <v>-154.4156328062934</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-151.5559952751425</v>
+        <v>-151.6454693021266</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-150.3658766410867</v>
+        <v>-150.4318146392404</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-150.3391408974997</v>
+        <v>-150.3912153776335</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-151.4910775198595</v>
+        <v>-151.5354304413547</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-154.2432239767029</v>
+        <v>-154.2878188396859</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-160.3599654135482</v>
+        <v>-160.442275651894</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-174.4329752934175</v>
+        <v>-175.4092106009901</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-157.8376754927479</v>
+        <v>-157.8381847659117</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-152.9787244891511</v>
+        <v>-152.9675055666101</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-150.6718165954025</v>
+        <v>-150.6535152765648</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-149.8022556340876</v>
+        <v>-149.775577177401</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-150.1145975844485</v>
+        <v>-150.0762527640186</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-151.7306432823432</v>
+        <v>-151.6732926352391</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-155.3506512731638</v>
+        <v>-155.2530081457004</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-164.6662441308812</v>
+        <v>-164.4071860779806</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-163.7440356750756</v>
+        <v>-164.110585440944</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-154.8576616026041</v>
+        <v>-154.969287681497</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-151.222751946446</v>
+        <v>-151.288133270686</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-149.5375340444651</v>
+        <v>-149.584725697465</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-149.1540706254498</v>
+        <v>-149.1938895006206</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-149.979661887591</v>
+        <v>-150.0205528728442</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-152.3202000221177</v>
+        <v>-152.3765025859315</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-157.497401585845</v>
+        <v>-157.6242479454876</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-180.0183760802859</v>
+        <v>-190.8005174973454</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-157.9420815366257</v>
+        <v>-157.7722638294024</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-152.3240811024628</v>
+        <v>-152.198485019451</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-149.749613361204</v>
+        <v>-149.6284903930844</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-148.7580751464977</v>
+        <v>-148.6249809189425</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-149.0298789938811</v>
+        <v>-148.8684728781815</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-150.6869193814085</v>
+        <v>-150.4675596966793</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-154.5145108541644</v>
+        <v>-154.150086089245</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-165.1914667818757</v>
+        <v>-163.9948932113821</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-160.9093333296686</v>
+        <v>-161.797227894297</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-152.9397782268634</v>
+        <v>-153.2665881599056</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-149.5591852363523</v>
+        <v>-149.7636159626761</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-148.0471563404484</v>
+        <v>-148.2016465950609</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-147.8459584608458</v>
+        <v>-147.9784293148369</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-148.9232731245139</v>
+        <v>-149.0528723478932</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-151.7151335266499</v>
+        <v>-151.8700307546962</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-158.2087497664912</v>
+        <v>-158.5030412149404</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-169.4485801628311</v>
+        <v>-168.5741789452348</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-154.5391548986707</v>
+        <v>-154.3674901497629</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-149.9791431623675</v>
+        <v>-149.8696424396009</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-147.9000981043687</v>
+        <v>-147.8037622948139</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-147.3053886790871</v>
+        <v>-147.2037594171917</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-148.0221555833398</v>
+        <v>-147.8989276636055</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-150.3517515361332</v>
+        <v>-150.1767209818702</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-155.7475985489716</v>
+        <v>-155.408268109427</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-184.4461414517114</v>
+        <v>-195.635950879389</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-155.0260233950248</v>
+        <v>-155.3475762658423</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-149.6806661553684</v>
+        <v>-149.8401980022894</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-147.2341892149743</v>
+        <v>-147.3404364911764</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-146.3643022394957</v>
+        <v>-146.4453920197946</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-146.7998856261575</v>
+        <v>-146.8688077895645</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-148.7326488682181</v>
+        <v>-148.8002608996184</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-153.2018840864513</v>
+        <v>-153.2915591863537</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-168.85499604014</v>
+        <v>-169.3731479032056</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-156.1090081600939</v>
+        <v>-156.0140636579322</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-149.6349591069304</v>
+        <v>-149.5836255206813</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-146.7879778450522</v>
+        <v>-146.7426362895444</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-145.682702747945</v>
+        <v>-145.6332101851193</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-145.9348628859229</v>
+        <v>-145.8737182750525</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-147.6780490127413</v>
+        <v>-147.5930686993497</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-151.8351923143456</v>
+        <v>-151.6892850769352</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-165.1252072888814</v>
+        <v>-164.4836947903423</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-155.9327441468952</v>
+        <v>-156.1526126704145</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-148.948346942317</v>
+        <v>-149.028002964848</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-145.9205859344302</v>
+        <v>-145.9592227147399</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-144.7002617022727</v>
+        <v>-144.7158329897858</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-144.8544877548363</v>
+        <v>-144.851196951347</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-146.4880211446446</v>
+        <v>-146.4626646591778</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-150.4552285025489</v>
+        <v>-150.3883068925999</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-162.5243586240549</v>
+        <v>-162.1939081451114</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-155.4265432324849</v>
+        <v>-155.5869723969099</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-148.0629809422558</v>
+        <v>-148.1256139565179</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-144.9190465178133</v>
+        <v>-144.952778882626</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-143.6359594405428</v>
+        <v>-143.6528323808228</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-143.7494432775889</v>
+        <v>-143.7522564290825</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-145.3563290028238</v>
+        <v>-145.3428577363019</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-149.3140707494749</v>
+        <v>-149.27088638764</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-161.4843323682604</v>
+        <v>-161.2582274257589</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-154.1388960791004</v>
+        <v>-154.2494415619881</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-146.8082897887221</v>
+        <v>-146.8505822318809</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-143.6715034435242</v>
+        <v>-143.6925450873176</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-142.3984491765349</v>
+        <v>-142.4062048324431</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-142.5348027704644</v>
+        <v>-142.5306156027552</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-144.1956101661873</v>
+        <v>-144.1765784008263</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-148.3093049956243</v>
+        <v>-148.2613013626576</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-161.8370786657289</v>
+        <v>-161.5711362800309</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-152.1019920129779</v>
+        <v>-152.1915700431349</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-145.1540647066386</v>
+        <v>-145.1862064997954</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-142.1303124912041</v>
+        <v>-142.142751575159</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-140.9297565691849</v>
+        <v>-140.9288093267363</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-141.144480408254</v>
+        <v>-141.1302374683757</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-142.9335705135202</v>
+        <v>-142.900783381588</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-147.3749183241685</v>
+        <v>-147.3006963217531</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-164.572320058853</v>
+        <v>-163.9883177709359</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-149.4021773486281</v>
+        <v>-149.5107321416168</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-143.0559242988909</v>
+        <v>-143.1003464134296</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-140.2210904985759</v>
+        <v>-140.2430080885559</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-139.1378266789611</v>
+        <v>-139.145339696702</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-139.4714396472309</v>
+        <v>-139.4656653864553</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-141.4491955521128</v>
+        <v>-141.4258285275888</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-146.3936446153281</v>
+        <v>-146.3300944450537</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-179.8811659184193</v>
+        <v>-176.8861325101224</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-146.1687073501274</v>
+        <v>-146.2437227366863</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-140.4710950642577</v>
+        <v>-140.5034843090862</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-137.8558187092273</v>
+        <v>-137.8706354886741</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-136.9114982662333</v>
+        <v>-136.91377143424</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-137.392099234823</v>
+        <v>-137.3815787528009</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-139.624131411492</v>
+        <v>-139.5947747117083</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-145.3545421482234</v>
+        <v>-145.2743962619069</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-160.1710623536603</v>
+        <v>-160.7025052995818</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-142.186632953594</v>
+        <v>-142.250219039137</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-137.1302150932139</v>
+        <v>-137.1589840461176</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-134.7347483679004</v>
+        <v>-134.7473629334875</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-133.9237218672785</v>
+        <v>-133.9240134328789</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-134.5562414195384</v>
+        <v>-134.5430774359205</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-137.1083220570862</v>
+        <v>-137.0733024850416</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-144.1503964985837</v>
+        <v>-144.0407858767676</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-148.7454329166112</v>
+        <v>-148.9652829115117</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-136.8982953983649</v>
+        <v>-136.9537502741631</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-132.3666820815091</v>
+        <v>-132.3940475151863</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-130.09896382064</v>
+        <v>-130.1116673888083</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-129.3238139679877</v>
+        <v>-129.3244960291691</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-130.0362314230611</v>
+        <v>-130.0225673517377</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-133.0115229955733</v>
+        <v>-132.9704602593604</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-143.5976057533686</v>
+        <v>-143.3893839571992</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-136.3640341299413</v>
+        <v>-136.4829631849893</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-127.5789842733208</v>
+        <v>-127.6288161085234</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-122.9422774476992</v>
+        <v>-122.9731828269105</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-119.8877451337122</v>
+        <v>-119.9088862374896</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-117.7644452804324</v>
+        <v>-117.7790989408566</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-116.308865335771</v>
+        <v>-116.318543866956</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-115.3930626394428</v>
+        <v>-115.3985401313142</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-114.9522998220991</v>
+        <v>-114.9539603415644</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-114.9589743219369</v>
+        <v>-114.9569434466639</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-115.4134886906247</v>
+        <v>-115.4076693934433</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-116.344375416401</v>
+        <v>-116.3344148779162</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-117.8177717387443</v>
+        <v>-117.8029330905403</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-119.964269370862</v>
+        <v>-119.9430891199211</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-123.0537240380197</v>
+        <v>-123.0229955322893</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-127.7583364636026</v>
+        <v>-127.7089840873456</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-136.7945626246064</v>
+        <v>-136.6754234683039</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-142.8821147500248</v>
+        <v>-143.0699305546441</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-132.8679313766484</v>
+        <v>-132.9062817035877</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-129.9887898562382</v>
+        <v>-130.0013502213363</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-129.3268098001085</v>
+        <v>-129.3258141187284</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-130.1441424765879</v>
+        <v>-130.1318281918116</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-132.463213883357</v>
+        <v>-132.4371395345043</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-137.0934066320739</v>
+        <v>-137.0408507474223</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-149.5330875552069</v>
+        <v>-149.3169447161419</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-143.7791706695662</v>
+        <v>-143.8754187440722</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-136.9900175396918</v>
+        <v>-137.0206600499103</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-134.5131418790517</v>
+        <v>-134.5240029689262</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-133.9272233209903</v>
+        <v>-133.9257711414004</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-134.7811632059535</v>
+        <v>-134.7683413986773</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-137.233231947244</v>
+        <v>-137.2053649827614</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-142.4127729199953</v>
+        <v>-142.3519629826769</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-162.1797398056893</v>
+        <v>-161.6062096963761</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-145.0783539429459</v>
+        <v>-145.1499461894394</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-139.5229705685971</v>
+        <v>-139.5489656950371</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-137.356374234353</v>
+        <v>-137.3650990110132</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-136.9204712967133</v>
+        <v>-136.9172413827863</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-137.9090432017085</v>
+        <v>-137.8937501975999</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-140.5872881096509</v>
+        <v>-140.5543927679622</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-146.4411644940236</v>
+        <v>-146.363250475541</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-171.8799764274609</v>
+        <v>-173.5430069235663</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-146.1564166724826</v>
+        <v>-146.22681283053</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-141.3538325912592</v>
+        <v>-141.3849544275784</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-139.4363311084381</v>
+        <v>-139.4515225369201</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-139.1459283575836</v>
+        <v>-139.1506066728922</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-140.2732579467533</v>
+        <v>-140.2683753443871</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-143.1730599899586</v>
+        <v>-143.1558275156529</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-149.6969950079817</v>
+        <v>-149.6498452875104</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-163.0549139611909</v>
+        <v>-163.285078841058</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-147.1848009945682</v>
+        <v>-147.2099706480954</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-142.8584727388258</v>
+        <v>-142.863416130902</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-141.1244097940593</v>
+        <v>-141.1179231719844</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-140.9527117469146</v>
+        <v>-140.9355657331364</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-142.2009621718638</v>
+        <v>-142.1700137293905</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-145.3016270147829</v>
+        <v>-145.2455904459193</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-152.4912969490802</v>
+        <v>-152.3495211342027</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-160.7432898335714</v>
+        <v>-161.1237709937014</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-148.0993644293169</v>
+        <v>-148.1779616177193</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-144.1015142548222</v>
+        <v>-144.1414514117079</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-142.496564133561</v>
+        <v>-142.5194917135973</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-142.4021720764187</v>
+        <v>-142.4139233738459</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-143.7191965297391</v>
+        <v>-143.7210260414774</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-146.923493467152</v>
+        <v>-146.9125202593719</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-154.466713427584</v>
+        <v>-154.420976732171</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-160.7668942851392</v>
+        <v>-160.8878824805282</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-149.1645791237558</v>
+        <v>-149.1910620321419</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-145.2982686222535</v>
+        <v>-145.3087211221213</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-143.740512475326</v>
+        <v>-143.7415617591371</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-143.6684095022715</v>
+        <v>-143.6608135600005</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-145.000147532393</v>
+        <v>-144.9815388705625</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-148.2269016599136</v>
+        <v>-148.1881265413382</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-155.8744218376864</v>
+        <v>-155.7615620504152</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-161.5918354588842</v>
+        <v>-161.8325700836585</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-150.2438759046883</v>
+        <v>-150.3084499287793</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-146.3893473887069</v>
+        <v>-146.4281878676031</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-144.8109174020018</v>
+        <v>-144.8400537775328</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-144.6976231447009</v>
+        <v>-144.7232385774599</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-145.9597376164987</v>
+        <v>-145.9871214074662</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-149.049205195608</v>
+        <v>-149.0887021934309</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-156.214938667174</v>
+        <v>-156.31713386416</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-164.3693071319903</v>
+        <v>-164.0650171393112</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-151.6972208643297</v>
+        <v>-151.6054115485505</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-147.6292103613868</v>
+        <v>-147.5567135248635</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-145.9342045595571</v>
+        <v>-145.8611088992983</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-145.7233491692678</v>
+        <v>-145.639075587184</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-146.8776845231578</v>
+        <v>-146.7684190241304</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-149.8069263598933</v>
+        <v>-149.6400686030281</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-156.534552767965</v>
+        <v>-156.1579252563516</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-167.2481399168626</v>
+        <v>-168.7150246474992</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-152.9391689264107</v>
+        <v>-153.1981916435129</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-148.6106907229353</v>
+        <v>-148.7601132446563</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-146.7414748743773</v>
+        <v>-146.8535330925519</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-146.3507322356104</v>
+        <v>-146.4486575316724</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-147.2642652629592</v>
+        <v>-147.3628421513863</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-149.7706517523992</v>
+        <v>-149.8902940159521</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-155.25712409437</v>
+        <v>-155.4659965515199</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-201.5898534757167</v>
+        <v>-187.763263677155</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-155.4935736018895</v>
+        <v>-155.2959455063041</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-150.2413884458613</v>
+        <v>-150.1301246433472</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-147.9699763282149</v>
+        <v>-147.8795118420317</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-147.2928770935832</v>
+        <v>-147.203254908387</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-147.9250213176834</v>
+        <v>-147.82157844015</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-150.0524886099265</v>
+        <v>-149.9118696154929</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-154.711107316964</v>
+        <v>-154.4607627044915</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-170.4148073894436</v>
+        <v>-169.1072543799437</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-157.9194285551344</v>
+        <v>-158.3501732494798</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-151.6064685557866</v>
+        <v>-151.8128014507737</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-148.8757762836419</v>
+        <v>-149.0273785110687</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-147.8372215976188</v>
+        <v>-147.9728355734151</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-148.072794642841</v>
+        <v>-148.213756235223</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-149.6254135994698</v>
+        <v>-149.7970644455282</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-153.0747261535217</v>
+        <v>-153.3376100058555</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-161.2969377318453</v>
+        <v>-162.0166197082106</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-164.7012867107917</v>
+        <v>-163.7208650191029</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-154.3998828910716</v>
+        <v>-154.0742169659152</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-150.6539353235247</v>
+        <v>-150.4330620599428</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-149.0457035294378</v>
+        <v>-148.8561219034551</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-148.8188939264194</v>
+        <v>-148.6302285952586</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-149.867043721333</v>
+        <v>-149.6526070326003</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-152.5390230338301</v>
+        <v>-152.2505915801549</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-158.4370940512147</v>
+        <v>-157.8948103218204</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-176.7197220167247</v>
+        <v>-186.4668718001832</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-157.0242295065513</v>
+        <v>-157.509511131049</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-152.0736163167557</v>
+        <v>-152.3279110000855</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-149.815368077781</v>
+        <v>-149.9991281804794</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-149.0330796412347</v>
+        <v>-149.1909955682915</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-149.4425334893959</v>
+        <v>-149.5991615538569</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-151.1420540219418</v>
+        <v>-151.3242699149571</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-154.7758298494082</v>
+        <v>-155.0451457954456</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-163.6081318644343</v>
+        <v>-164.3584024375645</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-164.9649082488526</v>
+        <v>-164.1585842336962</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-155.4586458682649</v>
+        <v>-155.1785323906008</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-151.8267367721782</v>
+        <v>-151.6386532240925</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-150.2222672263971</v>
+        <v>-150.0632376965617</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-149.9351372759152</v>
+        <v>-149.7796779387982</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-150.8480587549081</v>
+        <v>-150.6756197510757</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-153.2375956632841</v>
+        <v>-153.0152156188605</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-158.3182901883637</v>
+        <v>-157.9436360894843</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-177.1511137286147</v>
+        <v>-176.2728522569289</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-159.8013025616584</v>
+        <v>-160.2993850539555</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-154.0044316434378</v>
+        <v>-154.2306550189094</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-151.3576611672442</v>
+        <v>-151.5086303238467</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-150.2638903641473</v>
+        <v>-150.3835251167955</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-150.3337131891431</v>
+        <v>-150.4406985118603</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-151.5656839154079</v>
+        <v>-151.6732195907983</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-154.3465205312188</v>
+        <v>-154.4727981534445</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-160.2793272440917</v>
+        <v>-160.4850510061793</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-181.4026315177712</v>
+        <v>-179.4658500893481</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-159.0969165295168</v>
+        <v>-158.9940132521075</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-154.0607593666826</v>
+        <v>-154.0274208592593</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-151.713421635908</v>
+        <v>-151.7076182647326</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-150.8004064906214</v>
+        <v>-150.8139855828523</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-151.0072536057959</v>
+        <v>-151.0414048165381</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-152.3674335997983</v>
+        <v>-152.4317321935193</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-155.3119467838337</v>
+        <v>-155.4363816265714</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-161.633320444411</v>
+        <v>-161.9613594623564</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-176.5815581920445</v>
+        <v>-174.7669737104042</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-159.3145086800306</v>
+        <v>-158.9966627207408</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-154.5447031334007</v>
+        <v>-154.3458954907217</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-152.2925183366868</v>
+        <v>-152.1340411702541</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-151.422375577107</v>
+        <v>-151.2804917224668</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-151.6445347910069</v>
+        <v>-151.5066695195364</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-152.9984627702777</v>
+        <v>-152.8529537694325</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-155.91012349401</v>
+        <v>-155.7361426098059</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-162.1261617376198</v>
+        <v>-161.8414873887252</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-178.2658463907561</v>
+        <v>-179.4887274929961</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-160.0250436728255</v>
+        <v>-160.1289222110381</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-155.1365201745052</v>
+        <v>-155.1657797782017</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-152.7827944301358</v>
+        <v>-152.7869662793424</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-151.7914871817273</v>
+        <v>-151.7847291248294</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-151.8485265757224</v>
+        <v>-151.8379510232138</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-152.9490676151143</v>
+        <v>-152.9409529214516</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-155.3926360739341</v>
+        <v>-155.3975298130315</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-160.3013759164537</v>
+        <v>-160.3530284022503</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-177.2450238374148</v>
+        <v>-177.7985064851916</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-163.129975472998</v>
+        <v>-162.8732741074255</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-156.8369713484189</v>
+        <v>-156.6672595221453</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-153.9340616386578</v>
+        <v>-153.780275241158</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-152.5756872609925</v>
+        <v>-152.4194191994351</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-152.2992478820132</v>
+        <v>-152.1286555331298</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-153.0159296348878</v>
+        <v>-152.8167416638181</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-154.8963436116975</v>
+        <v>-154.6425841755873</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-158.6088956160269</v>
+        <v>-158.2339347225297</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-167.2217453909508</v>
+        <v>-166.4600994934102</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-168.0650940838291</v>
+        <v>-169.8276603471264</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-158.9593986224991</v>
+        <v>-159.4144495486053</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-155.1476910381098</v>
+        <v>-155.4074218410258</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-153.2105936036122</v>
+        <v>-153.3988199777751</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-152.4176525180587</v>
+        <v>-152.5752734269495</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-152.5540082981775</v>
+        <v>-152.7035109235894</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-153.6341996939045</v>
+        <v>-153.7962151418325</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-155.9202161438703</v>
+        <v>-156.1278828097074</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-160.3107317154169</v>
+        <v>-160.6601406744884</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-172.1549743327122</v>
+        <v>-173.5976155234713</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-166.147363386236</v>
+        <v>-165.4535560336107</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-158.6916771359563</v>
+        <v>-158.381377071016</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-155.3641294642393</v>
+        <v>-155.1479532543974</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-153.6868662614085</v>
+        <v>-153.5101645785986</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-153.0743407057895</v>
+        <v>-152.9177151301164</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-153.3594287168206</v>
+        <v>-153.2144363753281</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-154.585616922911</v>
+        <v>-154.4497508006457</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-157.0537308024382</v>
+        <v>-156.9336271500577</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-161.7736549196698</v>
+        <v>-161.7260674606275</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-173.9570272062084</v>
+        <v>-176.3887633706814</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-165.176536244418</v>
+        <v>-165.2898496413471</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-158.7901993162945</v>
+        <v>-158.6698155973454</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-155.7161059643428</v>
+        <v>-155.5431347745263</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-154.135807495281</v>
+        <v>-153.9264536943601</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-153.5555484794037</v>
+        <v>-153.306108703309</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-153.8315733233665</v>
+        <v>-153.5279497921505</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-155.010104771478</v>
+        <v>-154.6225474005001</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-157.3770195540254</v>
+        <v>-156.8368717005104</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-161.8772700213338</v>
+        <v>-160.9686996721292</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-173.9771450182869</v>
+        <v>-171.1178731098609</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-166.6383089835155</v>
+        <v>-168.5812496217318</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-159.5367554156053</v>
+        <v>-160.2833796160241</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-156.1801273039493</v>
+        <v>-156.6377879987285</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-154.367251348187</v>
+        <v>-154.6978232279193</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-153.5327809394818</v>
+        <v>-153.7948297968377</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-153.4871596245861</v>
+        <v>-153.7105410137774</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-154.2083166596791</v>
+        <v>-154.4141020842031</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-155.8230231815552</v>
+        <v>-156.0348508934131</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-158.7298254351492</v>
+        <v>-158.9970605372207</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-164.2288515057104</v>
+        <v>-164.7855004583759</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-176.0579310479347</v>
+        <v>-183.1979094127532</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-164.3727073974351</v>
+        <v>-164.368925183159</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-159.0157740603975</v>
+        <v>-158.9468057291592</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-156.2454267068168</v>
+        <v>-156.1688265986695</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-154.7584384788599</v>
+        <v>-154.672497443312</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-154.1522334210731</v>
+        <v>-154.0509469259126</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-154.2943562898331</v>
+        <v>-154.1692408131302</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-155.19758961334</v>
+        <v>-155.0347590363646</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-157.032711150775</v>
+        <v>-156.804307876329</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-160.3127125467494</v>
+        <v>-159.9445696017521</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-166.9771179864625</v>
+        <v>-166.1122227696906</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-179.7144190832941</v>
+        <v>-180.5400732081367</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-163.8843906370403</v>
+        <v>-164.4344328802785</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-158.9887263754947</v>
+        <v>-159.3066209958574</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-156.3759605412473</v>
+        <v>-156.6040644449712</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-154.9258822858876</v>
+        <v>-155.1084243896031</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-154.2803316018383</v>
+        <v>-154.4380264118722</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-154.3114304833514</v>
+        <v>-154.4576626971511</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-155.0103677151643</v>
+        <v>-155.1576152274246</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-156.4813338065994</v>
+        <v>-156.6472252601941</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-159.027273377745</v>
+        <v>-159.249631415714</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-163.5340534768262</v>
+        <v>-163.9478956276843</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-173.9458631912877</v>
+        <v>-176.2598620749506</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-168.7117106552432</v>
+        <v>-168.3840494750593</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-161.7137013368841</v>
+        <v>-161.4439714795797</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-158.2872783000425</v>
+        <v>-158.0541818923749</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-156.347006648415</v>
+        <v>-156.1195465956329</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-155.31863030599</v>
+        <v>-155.0775413160961</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-154.9904448919164</v>
+        <v>-154.7184947438552</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-155.2986993433286</v>
+        <v>-154.9745485716165</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-156.2815609226027</v>
+        <v>-155.8717159874078</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-158.1080673260395</v>
+        <v>-157.5482913976143</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-161.2399665610466</v>
+        <v>-160.3729826745488</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-167.2596597886417</v>
+        <v>-165.4819388249147</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6035,7 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-181.5265044188623</v>
+        <v>-179.1645831128052</v>
       </c>
     </row>
     <row r="702">
@@ -6043,7 +6043,7 @@
         <v>2.446178929380262</v>
       </c>
       <c r="B702" t="n">
-        <v>-165.8702701157714</v>
+        <v>-167.8727195011811</v>
       </c>
     </row>
     <row r="703">
@@ -6051,7 +6051,7 @@
         <v>2.449673470707948</v>
       </c>
       <c r="B703" t="n">
-        <v>-160.5492260004266</v>
+        <v>-161.6487184321961</v>
       </c>
     </row>
     <row r="704">
@@ -6059,7 +6059,7 @@
         <v>2.453168012035634</v>
       </c>
       <c r="B704" t="n">
-        <v>-157.6459985279679</v>
+        <v>-158.4460275345361</v>
       </c>
     </row>
     <row r="705">
@@ -6067,7 +6067,7 @@
         <v>2.45666255336332</v>
       </c>
       <c r="B705" t="n">
-        <v>-155.9040174206887</v>
+        <v>-156.566455646027</v>
       </c>
     </row>
     <row r="706">
@@ -6075,7 +6075,7 @@
         <v>2.460157094691006</v>
       </c>
       <c r="B706" t="n">
-        <v>-154.9175515990826</v>
+        <v>-155.5123256284343</v>
       </c>
     </row>
     <row r="707">
@@ -6083,7 +6083,7 @@
         <v>2.463651636018692</v>
       </c>
       <c r="B707" t="n">
-        <v>-154.5201295820663</v>
+        <v>-155.0884703133331</v>
       </c>
     </row>
     <row r="708">
@@ -6091,7 +6091,7 @@
         <v>2.467146177346378</v>
       </c>
       <c r="B708" t="n">
-        <v>-154.6489341163607</v>
+        <v>-155.2234825186629</v>
       </c>
     </row>
     <row r="709">
@@ -6099,7 +6099,7 @@
         <v>2.470640718674064</v>
       </c>
       <c r="B709" t="n">
-        <v>-155.3079399441143</v>
+        <v>-155.9239049135383</v>
       </c>
     </row>
     <row r="710">
@@ -6107,7 +6107,7 @@
         <v>2.47413526000175</v>
       </c>
       <c r="B710" t="n">
-        <v>-156.5704986882932</v>
+        <v>-157.2787253340481</v>
       </c>
     </row>
     <row r="711">
@@ -6115,7 +6115,7 @@
         <v>2.477629801329436</v>
       </c>
       <c r="B711" t="n">
-        <v>-158.62448183307</v>
+        <v>-159.5210609574487</v>
       </c>
     </row>
     <row r="712">
@@ -6123,7 +6123,7 @@
         <v>2.481124342657123</v>
       </c>
       <c r="B712" t="n">
-        <v>-161.9343657287677</v>
+        <v>-163.2666116610752</v>
       </c>
     </row>
     <row r="713">
@@ -6131,7 +6131,7 @@
         <v>2.484618883984809</v>
       </c>
       <c r="B713" t="n">
-        <v>-167.9778616625105</v>
+        <v>-170.8328176428481</v>
       </c>
     </row>
     <row r="714">
@@ -6139,7 +6139,7 @@
         <v>2.488113425312495</v>
       </c>
       <c r="B714" t="n">
-        <v>-177.9498575390292</v>
+        <v>-174.9176702633808</v>
       </c>
     </row>
     <row r="715">
@@ -6147,7 +6147,7 @@
         <v>2.491607966640181</v>
       </c>
       <c r="B715" t="n">
-        <v>-166.6565590005487</v>
+        <v>-164.9339139549612</v>
       </c>
     </row>
     <row r="716">
@@ -6155,7 +6155,7 @@
         <v>2.495102507967867</v>
       </c>
       <c r="B716" t="n">
-        <v>-161.6395276270511</v>
+        <v>-160.5957892651413</v>
       </c>
     </row>
     <row r="717">
@@ -6163,7 +6163,7 @@
         <v>2.498597049295553</v>
       </c>
       <c r="B717" t="n">
-        <v>-158.8809188876881</v>
+        <v>-158.0962392255298</v>
       </c>
     </row>
     <row r="718">
@@ -6171,7 +6171,7 @@
         <v>2.502091590623239</v>
       </c>
       <c r="B718" t="n">
-        <v>-157.2455772854945</v>
+        <v>-156.5802478057842</v>
       </c>
     </row>
     <row r="719">
@@ -6179,7 +6179,7 @@
         <v>2.505586131950925</v>
       </c>
       <c r="B719" t="n">
-        <v>-156.3503896417291</v>
+        <v>-155.737197680781</v>
       </c>
     </row>
     <row r="720">
@@ -6187,7 +6187,7 @@
         <v>2.509080673278612</v>
       </c>
       <c r="B720" t="n">
-        <v>-156.0389959210958</v>
+        <v>-155.4347410355854</v>
       </c>
     </row>
     <row r="721">
@@ -6195,7 +6195,7 @@
         <v>2.512575214606298</v>
       </c>
       <c r="B721" t="n">
-        <v>-156.257699663991</v>
+        <v>-155.6252628785974</v>
       </c>
     </row>
     <row r="722">
@@ -6203,7 +6203,7 @@
         <v>2.516069755933983</v>
       </c>
       <c r="B722" t="n">
-        <v>-157.0237375722205</v>
+        <v>-156.3204617941055</v>
       </c>
     </row>
     <row r="723">
@@ -6211,7 +6211,7 @@
         <v>2.519564297261669</v>
       </c>
       <c r="B723" t="n">
-        <v>-158.4356543457714</v>
+        <v>-157.5979124747805</v>
       </c>
     </row>
     <row r="724">
@@ -6219,7 +6219,7 @@
         <v>2.523058838589356</v>
       </c>
       <c r="B724" t="n">
-        <v>-160.7403930676156</v>
+        <v>-159.6479714985933</v>
       </c>
     </row>
     <row r="725">
@@ -6227,7 +6227,7 @@
         <v>2.526553379917042</v>
       </c>
       <c r="B725" t="n">
-        <v>-164.5820930957538</v>
+        <v>-162.9373295936427</v>
       </c>
     </row>
     <row r="726">
@@ -6235,7 +6235,7 @@
         <v>2.530047921244728</v>
       </c>
       <c r="B726" t="n">
-        <v>-172.1840740444478</v>
+        <v>-168.951709365688</v>
       </c>
     </row>
     <row r="727">
@@ -6243,7 +6243,7 @@
         <v>2.533542462572414</v>
       </c>
       <c r="B727" t="n">
-        <v>-173.3217416004891</v>
+        <v>-178.9097303763481</v>
       </c>
     </row>
     <row r="728">
@@ -6251,7 +6251,7 @@
         <v>2.5370370039001</v>
       </c>
       <c r="B728" t="n">
-        <v>-165.0227153143754</v>
+        <v>-167.4550079965373</v>
       </c>
     </row>
     <row r="729">
@@ -6259,7 +6259,7 @@
         <v>2.540531545227786</v>
       </c>
       <c r="B729" t="n">
-        <v>-160.8890664658188</v>
+        <v>-162.3314782558377</v>
       </c>
     </row>
     <row r="730">
@@ -6267,7 +6267,7 @@
         <v>2.544026086555472</v>
       </c>
       <c r="B730" t="n">
-        <v>-158.3810760692088</v>
+        <v>-159.4384233572795</v>
       </c>
     </row>
     <row r="731">
@@ -6275,7 +6275,7 @@
         <v>2.547520627883158</v>
       </c>
       <c r="B731" t="n">
-        <v>-156.7692920552022</v>
+        <v>-157.6342105353139</v>
       </c>
     </row>
     <row r="732">
@@ -6283,7 +6283,7 @@
         <v>2.551015169210844</v>
       </c>
       <c r="B732" t="n">
-        <v>-155.7673361173306</v>
+        <v>-156.5268101316041</v>
       </c>
     </row>
     <row r="733">
@@ -6291,7 +6291,7 @@
         <v>2.554509710538531</v>
       </c>
       <c r="B733" t="n">
-        <v>-155.2423813938518</v>
+        <v>-155.9458030659053</v>
       </c>
     </row>
     <row r="734">
@@ -6299,7 +6299,7 @@
         <v>2.558004251866217</v>
       </c>
       <c r="B734" t="n">
-        <v>-155.1326934057596</v>
+        <v>-155.8144016690291</v>
       </c>
     </row>
     <row r="735">
@@ -6307,7 +6307,7 @@
         <v>2.561498793193903</v>
       </c>
       <c r="B735" t="n">
-        <v>-155.4197073993816</v>
+        <v>-156.1092613676995</v>
       </c>
     </row>
     <row r="736">
@@ -6315,7 +6315,7 @@
         <v>2.564993334521589</v>
       </c>
       <c r="B736" t="n">
-        <v>-156.1211868739275</v>
+        <v>-156.850541838554</v>
       </c>
     </row>
     <row r="737">
@@ -6323,7 +6323,7 @@
         <v>2.568487875849275</v>
       </c>
       <c r="B737" t="n">
-        <v>-157.2989956060037</v>
+        <v>-158.1112851018372</v>
       </c>
     </row>
     <row r="738">
@@ -6331,7 +6331,7 @@
         <v>2.571982417176961</v>
       </c>
       <c r="B738" t="n">
-        <v>-159.0893829776646</v>
+        <v>-160.0561618922261</v>
       </c>
     </row>
     <row r="739">
@@ -6339,7 +6339,7 @@
         <v>2.575476958504647</v>
       </c>
       <c r="B739" t="n">
-        <v>-161.7950152811328</v>
+        <v>-163.0634016311566</v>
       </c>
     </row>
     <row r="740">
@@ -6347,7 +6347,7 @@
         <v>2.578971499832333</v>
       </c>
       <c r="B740" t="n">
-        <v>-166.2384757225668</v>
+        <v>-168.2029487279494</v>
       </c>
     </row>
     <row r="741">
@@ -6355,7 +6355,7 @@
         <v>2.582466041160019</v>
       </c>
       <c r="B741" t="n">
-        <v>-176.5317451991459</v>
+        <v>-178.2624840298354</v>
       </c>
     </row>
     <row r="742">
@@ -6363,7 +6363,7 @@
         <v>2.585960582487705</v>
       </c>
       <c r="B742" t="n">
-        <v>-174.5048693304874</v>
+        <v>-169.9193866086828</v>
       </c>
     </row>
     <row r="743">
@@ -6371,7 +6371,7 @@
         <v>2.589455123815391</v>
       </c>
       <c r="B743" t="n">
-        <v>-165.8927272104675</v>
+        <v>-164.0986413581765</v>
       </c>
     </row>
     <row r="744">
@@ -6379,7 +6379,7 @@
         <v>2.592949665143077</v>
       </c>
       <c r="B744" t="n">
-        <v>-161.9809088376072</v>
+        <v>-160.862228748123</v>
       </c>
     </row>
     <row r="745">
@@ -6387,7 +6387,7 @@
         <v>2.596444206470764</v>
       </c>
       <c r="B745" t="n">
-        <v>-159.6394758648825</v>
+        <v>-158.8111345698991</v>
       </c>
     </row>
     <row r="746">
@@ -6395,7 +6395,7 @@
         <v>2.59993874779845</v>
       </c>
       <c r="B746" t="n">
-        <v>-158.1535644977472</v>
+        <v>-157.4788171861271</v>
       </c>
     </row>
     <row r="747">
@@ -6403,7 +6403,7 @@
         <v>2.603433289126136</v>
       </c>
       <c r="B747" t="n">
-        <v>-157.2487935053672</v>
+        <v>-156.6625379786623</v>
       </c>
     </row>
     <row r="748">
@@ -6411,7 +6411,7 @@
         <v>2.606927830453822</v>
       </c>
       <c r="B748" t="n">
-        <v>-156.7987892525202</v>
+        <v>-156.2636483620693</v>
       </c>
     </row>
     <row r="749">
@@ -6419,7 +6419,7 @@
         <v>2.610422371781508</v>
       </c>
       <c r="B749" t="n">
-        <v>-156.7453562865165</v>
+        <v>-156.2362820290292</v>
       </c>
     </row>
     <row r="750">
@@ -6427,7 +6427,7 @@
         <v>2.613916913109194</v>
       </c>
       <c r="B750" t="n">
-        <v>-157.0717026127073</v>
+        <v>-156.5691308954221</v>
       </c>
     </row>
     <row r="751">
@@ -6435,7 +6435,7 @@
         <v>2.61741145443688</v>
       </c>
       <c r="B751" t="n">
-        <v>-157.7956964773328</v>
+        <v>-157.2816911971263</v>
       </c>
     </row>
     <row r="752">
@@ -6443,7 +6443,7 @@
         <v>2.620905995764566</v>
       </c>
       <c r="B752" t="n">
-        <v>-158.9763037599396</v>
+        <v>-158.4317669159334</v>
       </c>
     </row>
     <row r="753">
@@ -6451,7 +6451,7 @@
         <v>2.624400537092252</v>
       </c>
       <c r="B753" t="n">
-        <v>-160.7378587014689</v>
+        <v>-160.1407459430407</v>
       </c>
     </row>
     <row r="754">
@@ -6459,7 +6459,7 @@
         <v>2.627895078419938</v>
       </c>
       <c r="B754" t="n">
-        <v>-163.3325038061178</v>
+        <v>-162.6640959283243</v>
       </c>
     </row>
     <row r="755">
@@ -6467,7 +6467,7 @@
         <v>2.631389619747624</v>
       </c>
       <c r="B755" t="n">
-        <v>-167.2754343755125</v>
+        <v>-166.6190618468547</v>
       </c>
     </row>
     <row r="756">
@@ -6475,7 +6475,7 @@
         <v>2.63488416107531</v>
       </c>
       <c r="B756" t="n">
-        <v>-172.6254187000827</v>
+        <v>-173.8003931248534</v>
       </c>
     </row>
     <row r="757">
@@ -6483,7 +6483,7 @@
         <v>2.638378702402997</v>
       </c>
       <c r="B757" t="n">
-        <v>-170.7307819917683</v>
+        <v>-174.7154043979266</v>
       </c>
     </row>
     <row r="758">
@@ -6491,7 +6491,7 @@
         <v>2.641873243730683</v>
       </c>
       <c r="B758" t="n">
-        <v>-165.6896775124125</v>
+        <v>-167.2341017776766</v>
       </c>
     </row>
     <row r="759">
@@ -6499,7 +6499,7 @@
         <v>2.645367785058369</v>
       </c>
       <c r="B759" t="n">
-        <v>-162.3628365478648</v>
+        <v>-163.1966941097973</v>
       </c>
     </row>
     <row r="760">
@@ -6507,7 +6507,7 @@
         <v>2.648862326386055</v>
       </c>
       <c r="B760" t="n">
-        <v>-160.1378798723685</v>
+        <v>-160.6708061858113</v>
       </c>
     </row>
     <row r="761">
@@ -6515,7 +6515,7 @@
         <v>2.652356867713741</v>
       </c>
       <c r="B761" t="n">
-        <v>-158.608604475163</v>
+        <v>-158.9772432161928</v>
       </c>
     </row>
     <row r="762">
@@ -6523,7 +6523,7 @@
         <v>2.655851409041427</v>
       </c>
       <c r="B762" t="n">
-        <v>-157.5725968005336</v>
+        <v>-157.8357551148161</v>
       </c>
     </row>
     <row r="763">
@@ -6531,7 +6531,7 @@
         <v>2.659345950369113</v>
       </c>
       <c r="B763" t="n">
-        <v>-156.9226437661405</v>
+        <v>-157.1092400696451</v>
       </c>
     </row>
     <row r="764">
@@ -6539,7 +6539,7 @@
         <v>2.662840491696799</v>
       </c>
       <c r="B764" t="n">
-        <v>-156.6005531683082</v>
+        <v>-156.725284451161</v>
       </c>
     </row>
     <row r="765">
@@ -6547,7 +6547,7 @@
         <v>2.666335033024485</v>
       </c>
       <c r="B765" t="n">
-        <v>-156.5775336687577</v>
+        <v>-156.6468499018423</v>
       </c>
     </row>
     <row r="766">
@@ -6555,7 +6555,7 @@
         <v>2.669829574352172</v>
       </c>
       <c r="B766" t="n">
-        <v>-156.8461983386636</v>
+        <v>-156.8604630270015</v>
       </c>
     </row>
     <row r="767">
@@ -6563,7 +6563,7 @@
         <v>2.673324115679857</v>
       </c>
       <c r="B767" t="n">
-        <v>-157.4190577291584</v>
+        <v>-157.3725873135919</v>
       </c>
     </row>
     <row r="768">
@@ -6571,7 +6571,7 @@
         <v>2.676818657007543</v>
       </c>
       <c r="B768" t="n">
-        <v>-158.3326766625846</v>
+        <v>-158.2116992946649</v>
       </c>
     </row>
     <row r="769">
@@ -6579,7 +6579,7 @@
         <v>2.68031319833523</v>
       </c>
       <c r="B769" t="n">
-        <v>-159.6605651068271</v>
+        <v>-159.4373277112548</v>
       </c>
     </row>
     <row r="770">
@@ -6587,7 +6587,7 @@
         <v>2.683807739662916</v>
       </c>
       <c r="B770" t="n">
-        <v>-161.5458550344653</v>
+        <v>-161.1627287728201</v>
       </c>
     </row>
     <row r="771">
@@ -6595,7 +6595,7 @@
         <v>2.687302280990602</v>
       </c>
       <c r="B771" t="n">
-        <v>-164.2937929286564</v>
+        <v>-163.6120211002517</v>
       </c>
     </row>
     <row r="772">
@@ -6603,7 +6603,7 @@
         <v>2.690796822318288</v>
       </c>
       <c r="B772" t="n">
-        <v>-168.7212566386211</v>
+        <v>-167.2832455561025</v>
       </c>
     </row>
     <row r="773">
@@ -6611,7 +6611,7 @@
         <v>2.694291363645974</v>
       </c>
       <c r="B773" t="n">
-        <v>-178.8619801653092</v>
+        <v>-173.3374633754472</v>
       </c>
     </row>
     <row r="774">
@@ -6619,7 +6619,7 @@
         <v>2.69778590497366</v>
       </c>
       <c r="B774" t="n">
-        <v>-177.0785060424836</v>
+        <v>-175.8610809798958</v>
       </c>
     </row>
     <row r="775">
@@ -6627,7 +6627,7 @@
         <v>2.701280446301346</v>
       </c>
       <c r="B775" t="n">
-        <v>-168.2369269992551</v>
+        <v>-169.0935627544089</v>
       </c>
     </row>
     <row r="776">
@@ -6635,7 +6635,7 @@
         <v>2.704774987629032</v>
       </c>
       <c r="B776" t="n">
-        <v>-164.1277008132734</v>
+        <v>-164.9179800408729</v>
       </c>
     </row>
     <row r="777">
@@ -6643,7 +6643,7 @@
         <v>2.708269528956718</v>
       </c>
       <c r="B777" t="n">
-        <v>-161.5481556251687</v>
+        <v>-162.2454927340384</v>
       </c>
     </row>
     <row r="778">
@@ -6651,7 +6651,7 @@
         <v>2.711764070284405</v>
       </c>
       <c r="B778" t="n">
-        <v>-159.7690051496618</v>
+        <v>-160.4031692491388</v>
       </c>
     </row>
     <row r="779">
@@ -6659,7 +6659,7 @@
         <v>2.715258611612091</v>
       </c>
       <c r="B779" t="n">
-        <v>-158.504507004502</v>
+        <v>-159.0987726331832</v>
       </c>
     </row>
     <row r="780">
@@ -6667,7 +6667,7 @@
         <v>2.718753152939777</v>
       </c>
       <c r="B780" t="n">
-        <v>-157.6143462023184</v>
+        <v>-158.1855357112707</v>
       </c>
     </row>
     <row r="781">
@@ -6675,7 +6675,7 @@
         <v>2.722247694267463</v>
       </c>
       <c r="B781" t="n">
-        <v>-157.0209636560856</v>
+        <v>-157.5821088626116</v>
       </c>
     </row>
     <row r="782">
@@ -6683,7 +6683,7 @@
         <v>2.725742235595149</v>
       </c>
       <c r="B782" t="n">
-        <v>-156.6790605296933</v>
+        <v>-157.2413455598516</v>
       </c>
     </row>
     <row r="783">
@@ -6691,7 +6691,7 @@
         <v>2.729236776922835</v>
       </c>
       <c r="B783" t="n">
-        <v>-156.5624342494657</v>
+        <v>-157.1365724352613</v>
       </c>
     </row>
     <row r="784">
@@ -6699,7 +6699,7 @@
         <v>2.732731318250521</v>
       </c>
       <c r="B784" t="n">
-        <v>-156.6578633288035</v>
+        <v>-157.2552784553713</v>
       </c>
     </row>
     <row r="785">
@@ -6707,7 +6707,7 @@
         <v>2.736225859578207</v>
       </c>
       <c r="B785" t="n">
-        <v>-156.9624392066154</v>
+        <v>-157.5965445149361</v>
       </c>
     </row>
     <row r="786">
@@ -6715,7 +6715,7 @@
         <v>2.739720400905893</v>
       </c>
       <c r="B786" t="n">
-        <v>-157.4830707001558</v>
+        <v>-158.1710196342018</v>
       </c>
     </row>
     <row r="787">
@@ -6723,7 +6723,7 @@
         <v>2.743214942233579</v>
       </c>
       <c r="B787" t="n">
-        <v>-158.2378528254868</v>
+        <v>-159.003355589046</v>
       </c>
     </row>
     <row r="788">
@@ -6731,7 +6731,7 @@
         <v>2.746709483561265</v>
       </c>
       <c r="B788" t="n">
-        <v>-159.2598988840665</v>
+        <v>-160.1382180516869</v>
       </c>
     </row>
     <row r="789">
@@ -6739,7 +6739,7 @@
         <v>2.750204024888951</v>
       </c>
       <c r="B789" t="n">
-        <v>-160.6051410607765</v>
+        <v>-161.6531949177374</v>
       </c>
     </row>
     <row r="790">
@@ -6747,7 +6747,7 @@
         <v>2.753698566216638</v>
       </c>
       <c r="B790" t="n">
-        <v>-162.3680561394965</v>
+        <v>-163.6868776244123</v>
       </c>
     </row>
     <row r="791">
@@ -6755,7 +6755,7 @@
         <v>2.757193107544324</v>
       </c>
       <c r="B791" t="n">
-        <v>-164.7129156455198</v>
+        <v>-166.5039377525625</v>
       </c>
     </row>
     <row r="792">
@@ -6763,7 +6763,7 @@
         <v>2.76068764887201</v>
       </c>
       <c r="B792" t="n">
-        <v>-167.9227825602251</v>
+        <v>-170.6243404095494</v>
       </c>
     </row>
     <row r="793">
@@ -6771,7 +6771,7 @@
         <v>2.764182190199696</v>
       </c>
       <c r="B793" t="n">
-        <v>-172.2016675699936</v>
+        <v>-175.9063776485149</v>
       </c>
     </row>
     <row r="794">
@@ -6779,7 +6779,7 @@
         <v>2.767676731527382</v>
       </c>
       <c r="B794" t="n">
-        <v>-174.2750760599312</v>
+        <v>-173.6991500580068</v>
       </c>
     </row>
     <row r="795">
@@ -6787,7 +6787,7 @@
         <v>2.771171272855068</v>
       </c>
       <c r="B795" t="n">
-        <v>-170.5227998862363</v>
+        <v>-168.7734273686225</v>
       </c>
     </row>
     <row r="796">
@@ -6795,7 +6795,7 @@
         <v>2.774665814182754</v>
       </c>
       <c r="B796" t="n">
-        <v>-166.9030808852828</v>
+        <v>-165.4560150724721</v>
       </c>
     </row>
     <row r="797">
@@ -6803,7 +6803,7 @@
         <v>2.77816035551044</v>
       </c>
       <c r="B797" t="n">
-        <v>-164.3327692010158</v>
+        <v>-163.1562939801711</v>
       </c>
     </row>
     <row r="798">
@@ -6811,7 +6811,7 @@
         <v>2.781654896838126</v>
       </c>
       <c r="B798" t="n">
-        <v>-162.4793759769504</v>
+        <v>-161.4838998736332</v>
       </c>
     </row>
     <row r="799">
@@ -6819,7 +6819,7 @@
         <v>2.785149438165812</v>
       </c>
       <c r="B799" t="n">
-        <v>-161.1139762936527</v>
+        <v>-160.2390456507694</v>
       </c>
     </row>
     <row r="800">
@@ -6827,7 +6827,7 @@
         <v>2.788643979493498</v>
       </c>
       <c r="B800" t="n">
-        <v>-160.104665875175</v>
+        <v>-159.3109309823163</v>
       </c>
     </row>
     <row r="801">
@@ -6835,7 +6835,7 @@
         <v>2.792138520821184</v>
       </c>
       <c r="B801" t="n">
-        <v>-159.3726893635548</v>
+        <v>-158.6332659840439</v>
       </c>
     </row>
     <row r="802">
@@ -6843,7 +6843,7 @@
         <v>2.795633062148871</v>
       </c>
       <c r="B802" t="n">
-        <v>-158.8689913615925</v>
+        <v>-158.1643081685714</v>
       </c>
     </row>
     <row r="803">
@@ -6851,7 +6851,7 @@
         <v>2.799127603476557</v>
       </c>
       <c r="B803" t="n">
-        <v>-158.5623242992691</v>
+        <v>-157.8771225861362</v>
       </c>
     </row>
     <row r="804">
@@ -6859,7 +6859,7 @@
         <v>2.802622144804243</v>
       </c>
       <c r="B804" t="n">
-        <v>-158.4330121200618</v>
+        <v>-157.7544891742571</v>
       </c>
     </row>
     <row r="805">
@@ -6867,7 +6867,7 @@
         <v>2.806116686131929</v>
       </c>
       <c r="B805" t="n">
-        <v>-158.4696350614093</v>
+        <v>-157.7862234750494</v>
       </c>
     </row>
     <row r="806">
@@ -6875,7 +6875,7 @@
         <v>2.809611227459615</v>
       </c>
       <c r="B806" t="n">
-        <v>-158.6673203134113</v>
+        <v>-157.9677309386641</v>
       </c>
     </row>
     <row r="807">
@@ -6883,7 +6883,7 @@
         <v>2.813105768787301</v>
       </c>
       <c r="B807" t="n">
-        <v>-159.0271050512482</v>
+        <v>-158.2994800100615</v>
       </c>
     </row>
     <row r="808">
@@ -6891,7 +6891,7 @@
         <v>2.816600310114987</v>
       </c>
       <c r="B808" t="n">
-        <v>-159.5561136795528</v>
+        <v>-158.787134943286</v>
       </c>
     </row>
     <row r="809">
@@ -6899,7 +6899,7 @@
         <v>2.820094851442673</v>
       </c>
       <c r="B809" t="n">
-        <v>-160.2685924828452</v>
+        <v>-159.4424110945176</v>
       </c>
     </row>
     <row r="810">
@@ -6907,7 +6907,7 @@
         <v>2.823589392770359</v>
       </c>
       <c r="B810" t="n">
-        <v>-161.188061335234</v>
+        <v>-160.284892303815</v>
       </c>
     </row>
     <row r="811">
@@ -6915,7 +6915,7 @@
         <v>2.827083934098045</v>
       </c>
       <c r="B811" t="n">
-        <v>-162.3510780578634</v>
+        <v>-161.3453625208633</v>
       </c>
     </row>
     <row r="812">
@@ -6923,7 +6923,7 @@
         <v>2.830578475425731</v>
       </c>
       <c r="B812" t="n">
-        <v>-163.8132535712332</v>
+        <v>-162.6718256512179</v>
       </c>
     </row>
     <row r="813">
@@ -6931,7 +6931,7 @@
         <v>2.834073016753417</v>
       </c>
       <c r="B813" t="n">
-        <v>-165.6570514119853</v>
+        <v>-164.3403402722896</v>
       </c>
     </row>
     <row r="814">
@@ -6939,7 +6939,7 @@
         <v>2.837567558081104</v>
       </c>
       <c r="B814" t="n">
-        <v>-167.9888729071292</v>
+        <v>-166.4742255471687</v>
       </c>
     </row>
     <row r="815">
@@ -6947,7 +6947,7 @@
         <v>2.84106209940879</v>
       </c>
       <c r="B815" t="n">
-        <v>-170.8251204648765</v>
+        <v>-169.2668218214087</v>
       </c>
     </row>
     <row r="816">
@@ -6955,7 +6955,7 @@
         <v>2.844556640736476</v>
       </c>
       <c r="B816" t="n">
-        <v>-173.316505677421</v>
+        <v>-172.8666064730648</v>
       </c>
     </row>
     <row r="817">
@@ -6963,7 +6963,7 @@
         <v>2.848051182064162</v>
       </c>
       <c r="B817" t="n">
-        <v>-172.8881312911952</v>
+        <v>-175.7577362627172</v>
       </c>
     </row>
     <row r="818">
@@ -6971,7 +6971,7 @@
         <v>2.851545723391848</v>
       </c>
       <c r="B818" t="n">
-        <v>-170.1934496082445</v>
+        <v>-173.7572693634212</v>
       </c>
     </row>
     <row r="819">
@@ -6979,7 +6979,7 @@
         <v>2.855040264719534</v>
       </c>
       <c r="B819" t="n">
-        <v>-167.5546520977915</v>
+        <v>-170.2122490748704</v>
       </c>
     </row>
     <row r="820">
@@ -6987,7 +6987,7 @@
         <v>2.85853480604722</v>
       </c>
       <c r="B820" t="n">
-        <v>-165.4371968319689</v>
+        <v>-167.4208192059081</v>
       </c>
     </row>
     <row r="821">
@@ -6995,7 +6995,7 @@
         <v>2.862029347374906</v>
       </c>
       <c r="B821" t="n">
-        <v>-163.7674272441151</v>
+        <v>-165.3240102625508</v>
       </c>
     </row>
     <row r="822">
@@ -7003,7 +7003,7 @@
         <v>2.865523888702592</v>
       </c>
       <c r="B822" t="n">
-        <v>-162.4388086333149</v>
+        <v>-163.7131478422104</v>
       </c>
     </row>
     <row r="823">
@@ -7011,7 +7011,7 @@
         <v>2.869018430030279</v>
       </c>
       <c r="B823" t="n">
-        <v>-161.3724520065471</v>
+        <v>-162.4495441079668</v>
       </c>
     </row>
     <row r="824">
@@ -7019,7 +7019,7 @@
         <v>2.872512971357965</v>
       </c>
       <c r="B824" t="n">
-        <v>-160.5138507420805</v>
+        <v>-161.4462544922775</v>
       </c>
     </row>
     <row r="825">
@@ -7027,7 +7027,7 @@
         <v>2.876007512685651</v>
       </c>
       <c r="B825" t="n">
-        <v>-159.8250453516482</v>
+        <v>-160.6469949758116</v>
       </c>
     </row>
     <row r="826">
@@ -7035,7 +7035,7 @@
         <v>2.879502054013336</v>
       </c>
       <c r="B826" t="n">
-        <v>-159.2790298774977</v>
+        <v>-160.013768761898</v>
       </c>
     </row>
     <row r="827">
@@ -7043,7 +7043,7 @@
         <v>2.882996595341023</v>
       </c>
       <c r="B827" t="n">
-        <v>-158.8561533008234</v>
+        <v>-159.5200303266138</v>
       </c>
     </row>
     <row r="828">
@@ -7051,7 +7051,7 @@
         <v>2.886491136668709</v>
       </c>
       <c r="B828" t="n">
-        <v>-158.5418912909711</v>
+        <v>-159.1466477179223</v>
       </c>
     </row>
     <row r="829">
@@ -7059,7 +7059,7 @@
         <v>2.889985677996395</v>
       </c>
       <c r="B829" t="n">
-        <v>-158.3253778306834</v>
+        <v>-158.8796041557154</v>
       </c>
     </row>
     <row r="830">
@@ -7067,7 +7067,7 @@
         <v>2.893480219324081</v>
       </c>
       <c r="B830" t="n">
-        <v>-158.1984684573274</v>
+        <v>-158.7084677886078</v>
       </c>
     </row>
     <row r="831">
@@ -7075,7 +7075,7 @@
         <v>2.896974760651767</v>
       </c>
       <c r="B831" t="n">
-        <v>-158.1551183397169</v>
+        <v>-158.6254795263795</v>
       </c>
     </row>
     <row r="832">
@@ -7083,7 +7083,7 @@
         <v>2.900469301979453</v>
       </c>
       <c r="B832" t="n">
-        <v>-158.190987181111</v>
+        <v>-158.624934671492</v>
       </c>
     </row>
     <row r="833">
@@ -7091,7 +7091,7 @@
         <v>2.903963843307139</v>
       </c>
       <c r="B833" t="n">
-        <v>-158.3031580548749</v>
+        <v>-158.702792231949</v>
       </c>
     </row>
     <row r="834">
@@ -7099,7 +7099,7 @@
         <v>2.907458384634825</v>
       </c>
       <c r="B834" t="n">
-        <v>-158.4899939436016</v>
+        <v>-158.8564003957748</v>
       </c>
     </row>
     <row r="835">
@@ -7107,7 +7107,7 @@
         <v>2.910952925962512</v>
       </c>
       <c r="B835" t="n">
-        <v>-158.7510674931974</v>
+        <v>-159.0843723780364</v>
       </c>
     </row>
     <row r="836">
@@ -7115,7 +7115,7 @@
         <v>2.914447467290198</v>
       </c>
       <c r="B836" t="n">
-        <v>-159.0871721389241</v>
+        <v>-159.3865080113802</v>
       </c>
     </row>
     <row r="837">
@@ -7123,7 +7123,7 @@
         <v>2.917942008617884</v>
       </c>
       <c r="B837" t="n">
-        <v>-159.5004155751101</v>
+        <v>-159.7638003780036</v>
       </c>
     </row>
     <row r="838">
@@ -7131,7 +7131,7 @@
         <v>2.92143654994557</v>
       </c>
       <c r="B838" t="n">
-        <v>-159.9943999992078</v>
+        <v>-160.2185182707267</v>
       </c>
     </row>
     <row r="839">
@@ -7139,7 +7139,7 @@
         <v>2.924931091273256</v>
       </c>
       <c r="B839" t="n">
-        <v>-160.5745274529637</v>
+        <v>-160.7543712749737</v>
       </c>
     </row>
     <row r="840">
@@ -7147,7 +7147,7 @@
         <v>2.928425632600942</v>
       </c>
       <c r="B840" t="n">
-        <v>-161.2484931095539</v>
+        <v>-161.3767674893379</v>
       </c>
     </row>
     <row r="841">
@@ -7155,7 +7155,7 @@
         <v>2.931920173928628</v>
       </c>
       <c r="B841" t="n">
-        <v>-162.0270138117684</v>
+        <v>-162.0931671696915</v>
       </c>
     </row>
     <row r="842">
@@ -7163,7 +7163,7 @@
         <v>2.935414715256314</v>
       </c>
       <c r="B842" t="n">
-        <v>-162.9249762539256</v>
+        <v>-162.9136495506134</v>
       </c>
     </row>
     <row r="843">
@@ -7171,7 +7171,7 @@
         <v>2.938909256584</v>
       </c>
       <c r="B843" t="n">
-        <v>-163.9632825572971</v>
+        <v>-163.8515925343214</v>
       </c>
     </row>
     <row r="844">
@@ -7179,7 +7179,7 @@
         <v>2.942403797911686</v>
       </c>
       <c r="B844" t="n">
-        <v>-165.1718666938585</v>
+        <v>-164.9245898799564</v>
       </c>
     </row>
     <row r="845">
@@ -7187,7 +7187,7 @@
         <v>2.945898339239372</v>
       </c>
       <c r="B845" t="n">
-        <v>-166.5948764771177</v>
+        <v>-166.1552951577345</v>
       </c>
     </row>
     <row r="846">
@@ -7195,7 +7195,7 @@
         <v>2.949392880567058</v>
       </c>
       <c r="B846" t="n">
-        <v>-168.2999967887551</v>
+        <v>-167.5713799257598</v>
       </c>
     </row>
     <row r="847">
@@ -7203,7 +7203,7 @@
         <v>2.952887421894745</v>
       </c>
       <c r="B847" t="n">
-        <v>-170.3955140235486</v>
+        <v>-169.2010905674918</v>
       </c>
     </row>
     <row r="848">
@@ -7211,7 +7211,7 @@
         <v>2.956381963222431</v>
       </c>
       <c r="B848" t="n">
-        <v>-173.0589841440227</v>
+        <v>-171.0520889605916</v>
       </c>
     </row>
     <row r="849">
@@ -7219,7 +7219,7 @@
         <v>2.959876504550117</v>
       </c>
       <c r="B849" t="n">
-        <v>-176.5366635026434</v>
+        <v>-173.0331411885216</v>
       </c>
     </row>
     <row r="850">
@@ -7227,7 +7227,7 @@
         <v>2.963371045877803</v>
       </c>
       <c r="B850" t="n">
-        <v>-180.431240656016</v>
+        <v>-174.7417520342646</v>
       </c>
     </row>
     <row r="851">
@@ -7235,7 +7235,7 @@
         <v>2.966865587205489</v>
       </c>
       <c r="B851" t="n">
-        <v>-180.3623299448176</v>
+        <v>-175.3342316869689</v>
       </c>
     </row>
     <row r="852">
@@ -7243,7 +7243,7 @@
         <v>2.970360128533175</v>
       </c>
       <c r="B852" t="n">
-        <v>-176.6592202117074</v>
+        <v>-174.4371696653853</v>
       </c>
     </row>
     <row r="853">
@@ -7251,7 +7251,7 @@
         <v>2.973854669860861</v>
       </c>
       <c r="B853" t="n">
-        <v>-173.4714323265827</v>
+        <v>-172.7868642989946</v>
       </c>
     </row>
     <row r="854">
@@ -7259,7 +7259,7 @@
         <v>2.977349211188547</v>
       </c>
       <c r="B854" t="n">
-        <v>-171.0802748616746</v>
+        <v>-171.0787096487266</v>
       </c>
     </row>
     <row r="855">
@@ -7267,7 +7267,7 @@
         <v>2.980843752516233</v>
       </c>
       <c r="B855" t="n">
-        <v>-169.2378914263091</v>
+        <v>-169.5536640254912</v>
       </c>
     </row>
     <row r="856">
@@ -7275,7 +7275,7 @@
         <v>2.984338293843919</v>
       </c>
       <c r="B856" t="n">
-        <v>-167.7702856894908</v>
+        <v>-168.2452966799398</v>
       </c>
     </row>
     <row r="857">
@@ -7283,7 +7283,7 @@
         <v>2.987832835171605</v>
       </c>
       <c r="B857" t="n">
-        <v>-166.5706614316139</v>
+        <v>-167.1311842214093</v>
       </c>
     </row>
     <row r="858">
@@ -7291,7 +7291,7 @@
         <v>2.991327376499291</v>
       </c>
       <c r="B858" t="n">
-        <v>-165.5713984158831</v>
+        <v>-166.1803918682487</v>
       </c>
     </row>
     <row r="859">
@@ -7299,7 +7299,7 @@
         <v>2.994821917826977</v>
       </c>
       <c r="B859" t="n">
-        <v>-164.7276023170214</v>
+        <v>-165.3652159087095</v>
       </c>
     </row>
     <row r="860">
@@ -7307,7 +7307,7 @@
         <v>2.998316459154664</v>
       </c>
       <c r="B860" t="n">
-        <v>-164.0080748834359</v>
+        <v>-164.6631435811917</v>
       </c>
     </row>
     <row r="861">
@@ -7315,7 +7315,7 @@
         <v>3.00181100048235</v>
       </c>
       <c r="B861" t="n">
-        <v>-163.3902948779487</v>
+        <v>-164.0562972174532</v>
       </c>
     </row>
     <row r="862">
@@ -7323,7 +7323,7 @@
         <v>3.005305541810036</v>
       </c>
       <c r="B862" t="n">
-        <v>-162.8575013106069</v>
+        <v>-163.5305029080495</v>
       </c>
     </row>
     <row r="863">
@@ -7331,7 +7331,7 @@
         <v>3.008800083137722</v>
       </c>
       <c r="B863" t="n">
-        <v>-162.3968261758335</v>
+        <v>-163.0744100104648</v>
       </c>
     </row>
     <row r="864">
@@ -7339,7 +7339,7 @@
         <v>3.012294624465408</v>
       </c>
       <c r="B864" t="n">
-        <v>-161.9981979294834</v>
+        <v>-162.6788383343559</v>
       </c>
     </row>
     <row r="865">
@@ -7347,7 +7347,7 @@
         <v>3.015789165793094</v>
       </c>
       <c r="B865" t="n">
-        <v>-161.6535454477929</v>
+        <v>-162.3362699905941</v>
       </c>
     </row>
     <row r="866">
@@ -7355,7 +7355,7 @@
         <v>3.01928370712078</v>
       </c>
       <c r="B866" t="n">
-        <v>-161.3563013821323</v>
+        <v>-162.0404701530026</v>
       </c>
     </row>
     <row r="867">
@@ -7363,7 +7363,7 @@
         <v>3.022778248448466</v>
       </c>
       <c r="B867" t="n">
-        <v>-161.1010265071616</v>
+        <v>-161.7862062664745</v>
       </c>
     </row>
     <row r="868">
@@ -7371,7 +7371,7 @@
         <v>3.026272789776153</v>
       </c>
       <c r="B868" t="n">
-        <v>-160.8831588109137</v>
+        <v>-161.5690378688861</v>
       </c>
     </row>
     <row r="869">
@@ -7379,7 +7379,7 @@
         <v>3.029767331103839</v>
       </c>
       <c r="B869" t="n">
-        <v>-160.6988279916112</v>
+        <v>-161.3851557962879</v>
       </c>
     </row>
     <row r="870">
@@ -7387,7 +7387,7 @@
         <v>3.033261872431525</v>
       </c>
       <c r="B870" t="n">
-        <v>-160.5447033423531</v>
+        <v>-161.2312655144397</v>
       </c>
     </row>
     <row r="871">
@@ -7395,7 +7395,7 @@
         <v>3.03675641375921</v>
       </c>
       <c r="B871" t="n">
-        <v>-160.4179055750067</v>
+        <v>-161.1044904550981</v>
       </c>
     </row>
     <row r="872">
@@ -7403,7 +7403,7 @@
         <v>3.040250955086897</v>
       </c>
       <c r="B872" t="n">
-        <v>-160.315915209979</v>
+        <v>-161.0022994605954</v>
       </c>
     </row>
     <row r="873">
@@ -7411,7 +7411,7 @@
         <v>3.043745496414583</v>
       </c>
       <c r="B873" t="n">
-        <v>-160.2365113916977</v>
+        <v>-160.9224506737244</v>
       </c>
     </row>
     <row r="874">
@@ -7419,7 +7419,7 @@
         <v>3.047240037742269</v>
       </c>
       <c r="B874" t="n">
-        <v>-160.1777239941839</v>
+        <v>-160.8629408374974</v>
       </c>
     </row>
     <row r="875">
@@ -7427,7 +7427,7 @@
         <v>3.050734579069955</v>
       </c>
       <c r="B875" t="n">
-        <v>-160.1378011631453</v>
+        <v>-160.8219763795896</v>
       </c>
     </row>
     <row r="876">
@@ -7435,7 +7435,7 @@
         <v>3.054229120397641</v>
       </c>
       <c r="B876" t="n">
-        <v>-160.1151669382328</v>
+        <v>-160.7979436216851</v>
       </c>
     </row>
     <row r="877">
@@ -7443,7 +7443,7 @@
         <v>3.057723661725327</v>
       </c>
       <c r="B877" t="n">
-        <v>-160.1084138972215</v>
+        <v>-160.7893882673859</v>
       </c>
     </row>
     <row r="878">
@@ -7451,7 +7451,7 @@
         <v>3.061218203053013</v>
       </c>
       <c r="B878" t="n">
-        <v>-160.1162663963914</v>
+        <v>-160.794985643807</v>
       </c>
     </row>
     <row r="879">
@@ -7459,7 +7459,7 @@
         <v>3.064712744380699</v>
       </c>
       <c r="B879" t="n">
-        <v>-160.137588967672</v>
+        <v>-160.8135433023557</v>
       </c>
     </row>
     <row r="880">
@@ -7467,7 +7467,7 @@
         <v>3.068207285708386</v>
       </c>
       <c r="B880" t="n">
-        <v>-160.1713531918793</v>
+        <v>-160.843980666718</v>
       </c>
     </row>
     <row r="881">
@@ -7475,7 +7475,7 @@
         <v>3.071701827036072</v>
       </c>
       <c r="B881" t="n">
-        <v>-160.216644348499</v>
+        <v>-160.8853315557235</v>
       </c>
     </row>
     <row r="882">
@@ -7483,7 +7483,7 @@
         <v>3.075196368363758</v>
       </c>
       <c r="B882" t="n">
-        <v>-160.2726576078744</v>
+        <v>-160.9367254149393</v>
       </c>
     </row>
     <row r="883">
@@ -7491,7 +7491,7 @@
         <v>3.078690909691444</v>
       </c>
       <c r="B883" t="n">
-        <v>-160.3386827042675</v>
+        <v>-160.9973975100265</v>
       </c>
     </row>
     <row r="884">
@@ -7499,7 +7499,7 @@
         <v>3.08218545101913</v>
       </c>
       <c r="B884" t="n">
-        <v>-160.4141374540763</v>
+        <v>-161.0666912261133</v>
       </c>
     </row>
     <row r="885">
@@ -7507,7 +7507,7 @@
         <v>3.085679992346816</v>
       </c>
       <c r="B885" t="n">
-        <v>-160.4985331224506</v>
+        <v>-161.1440580711922</v>
       </c>
     </row>
     <row r="886">
@@ -7515,7 +7515,7 @@
         <v>3.089174533674502</v>
       </c>
       <c r="B886" t="n">
-        <v>-160.5915257981354</v>
+        <v>-161.2290639633457</v>
       </c>
     </row>
     <row r="887">
@@ -7523,7 +7523,7 @@
         <v>3.092669075002188</v>
       </c>
       <c r="B887" t="n">
-        <v>-160.6928994364134</v>
+        <v>-161.3214193135925</v>
       </c>
     </row>
     <row r="888">
@@ -7531,7 +7531,7 @@
         <v>3.096163616329874</v>
       </c>
       <c r="B888" t="n">
-        <v>-160.80262600846</v>
+        <v>-161.4209819188821</v>
       </c>
     </row>
     <row r="889">
@@ -7539,7 +7539,7 @@
         <v>3.09965815765756</v>
       </c>
       <c r="B889" t="n">
-        <v>-160.920874463755</v>
+        <v>-161.5277985838781</v>
       </c>
     </row>
     <row r="890">
@@ -7547,7 +7547,7 @@
         <v>3.103152698985246</v>
       </c>
       <c r="B890" t="n">
-        <v>-161.0480955253077</v>
+        <v>-161.6421610958906</v>
       </c>
     </row>
     <row r="891">
@@ -7555,7 +7555,7 @@
         <v>3.106647240312932</v>
       </c>
       <c r="B891" t="n">
-        <v>-161.1850918280882</v>
+        <v>-161.7646527006228</v>
       </c>
     </row>
     <row r="892">
@@ -7563,7 +7563,7 @@
         <v>3.110141781640618</v>
       </c>
       <c r="B892" t="n">
-        <v>-161.3331608054179</v>
+        <v>-161.8962862875944</v>
       </c>
     </row>
     <row r="893">
@@ -7571,7 +7571,7 @@
         <v>3.113636322968305</v>
       </c>
       <c r="B893" t="n">
-        <v>-161.494354949891</v>
+        <v>-162.0386515037744</v>
       </c>
     </row>
     <row r="894">
@@ -7579,7 +7579,7 @@
         <v>3.117130864295991</v>
       </c>
       <c r="B894" t="n">
-        <v>-161.6718288988327</v>
+        <v>-162.1942257348404</v>
       </c>
     </row>
     <row r="895">
@@ -7587,7 +7587,7 @@
         <v>3.120625405623677</v>
       </c>
       <c r="B895" t="n">
-        <v>-161.8706068409087</v>
+        <v>-162.3668755621587</v>
       </c>
     </row>
     <row r="896">
@@ -7595,7 +7595,7 @@
         <v>3.124119946951363</v>
       </c>
       <c r="B896" t="n">
-        <v>-162.0990184298547</v>
+        <v>-162.5628572755231</v>
       </c>
     </row>
     <row r="897">
@@ -7603,7 +7603,7 @@
         <v>3.127614488279049</v>
       </c>
       <c r="B897" t="n">
-        <v>-162.3719872249156</v>
+        <v>-162.7929255599281</v>
       </c>
     </row>
     <row r="898">
@@ -7611,7 +7611,7 @@
         <v>3.131109029606735</v>
       </c>
       <c r="B898" t="n">
-        <v>-162.7197474885123</v>
+        <v>-163.0775454626871</v>
       </c>
     </row>
     <row r="899">
@@ -7619,7 +7619,7 @@
         <v>3.134603570934421</v>
       </c>
       <c r="B899" t="n">
-        <v>-163.2182216422572</v>
+        <v>-163.4630749990026</v>
       </c>
     </row>
     <row r="900">
@@ -7627,7 +7627,7 @@
         <v>3.138098112262107</v>
       </c>
       <c r="B900" t="n">
-        <v>-164.1692197180718</v>
+        <v>-164.0983497390802</v>
       </c>
     </row>
     <row r="901">
@@ -7635,7 +7635,7 @@
         <v>3.141592653589793</v>
       </c>
       <c r="B901" t="n">
-        <v>-151.5446671119458</v>
+        <v>-175.6404043184873</v>
       </c>
     </row>
   </sheetData>

--- a/RT_radpat_0deg.xlsx
+++ b/RT_radpat_0deg.xlsx
@@ -442,8 +442,10 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>-166.1769118310538</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -451,7 +453,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-164.0807789888402</v>
+        <v>-137.0559721126147</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +461,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-163.4510640045305</v>
+        <v>-136.5044016463815</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +469,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-163.0674823317793</v>
+        <v>-136.2024061472791</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +477,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-162.7839440350784</v>
+        <v>-136.0024545178003</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +485,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-162.554642544588</v>
+        <v>-135.858344581059</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +493,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-162.3592965769012</v>
+        <v>-135.7495078258241</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +501,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-162.1872237603711</v>
+        <v>-135.6649704000346</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +509,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-162.0322121818704</v>
+        <v>-135.5981669193525</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +517,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-161.8904178872357</v>
+        <v>-135.5448387142899</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +525,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-161.7593753164295</v>
+        <v>-135.5020452713545</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +533,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-161.6374992148434</v>
+        <v>-135.4676496673497</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +541,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-161.5237924988261</v>
+        <v>-135.4400274481563</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +549,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-161.4176593437901</v>
+        <v>-135.4178953614592</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +557,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-161.3188289490288</v>
+        <v>-135.4001995216075</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +565,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-161.2272482648898</v>
+        <v>-135.3860484768829</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +573,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-161.1430604613168</v>
+        <v>-135.3746637488918</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +581,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-161.0665630070106</v>
+        <v>-135.3653505286075</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +589,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-160.9981847421632</v>
+        <v>-135.3574749259745</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +597,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-160.9384832365118</v>
+        <v>-135.3504518522998</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +605,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-160.8881136572886</v>
+        <v>-135.3437367974413</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +613,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-160.8478420010342</v>
+        <v>-135.3368217281491</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +621,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-160.8185475017797</v>
+        <v>-135.3292333960935</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +629,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-160.8011966099229</v>
+        <v>-135.3205374328078</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +637,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-160.7968776273825</v>
+        <v>-135.3103395912849</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +645,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-160.8067859308139</v>
+        <v>-135.298292879729</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +653,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-160.8322513927329</v>
+        <v>-135.2841035547101</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +661,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-160.874738095027</v>
+        <v>-135.2675363562178</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +669,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-160.9358700158434</v>
+        <v>-135.2484242562203</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +677,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-161.0174516766251</v>
+        <v>-135.2266732836927</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +685,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-161.1215010897624</v>
+        <v>-135.2022705926553</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +693,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-161.2502703735139</v>
+        <v>-135.1752862235522</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +701,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-161.4063235331324</v>
+        <v>-135.1458804429268</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +709,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-161.5925488774635</v>
+        <v>-135.1143014751711</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +717,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-161.8122749106599</v>
+        <v>-135.0808900040803</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +725,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-162.0693536486839</v>
+        <v>-135.0460718135074</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +733,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-162.3682659779861</v>
+        <v>-135.0103590266419</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +741,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-162.7143070897508</v>
+        <v>-134.9743402145589</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +749,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-163.1137978074885</v>
+        <v>-134.9386745679469</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +757,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-163.5743453909872</v>
+        <v>-134.9040825468529</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +765,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-164.1052710531332</v>
+        <v>-134.8713349448153</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +773,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-164.7180928205212</v>
+        <v>-134.8412425449046</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +781,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-165.4272356066246</v>
+        <v>-134.8146406509128</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +789,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-166.2508899145313</v>
+        <v>-134.7923816840279</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +797,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-167.2119847233399</v>
+        <v>-134.7753132807802</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +805,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-168.3386827080378</v>
+        <v>-134.7642718578835</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +813,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-169.662207758271</v>
+        <v>-134.7600603724015</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +821,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-171.2040074212481</v>
+        <v>-134.7634353521896</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +829,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-172.9243373046587</v>
+        <v>-134.7750857399938</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +837,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-174.5605115373888</v>
+        <v>-134.7956127964309</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +845,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-175.3836206927662</v>
+        <v>-134.8255068654542</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +853,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-174.693013590482</v>
+        <v>-134.8651171011713</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +861,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-172.937457459453</v>
+        <v>-134.9146199726137</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +869,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-170.9514386890322</v>
+        <v>-134.9739843863079</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +877,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-169.1096540575186</v>
+        <v>-135.0429226815859</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +885,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-167.4916563499015</v>
+        <v>-135.1208479586634</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +893,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-166.0865055432241</v>
+        <v>-135.2068149053744</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +901,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-164.8653170356949</v>
+        <v>-135.29946447184</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +909,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-163.8004758980583</v>
+        <v>-135.39696658297</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +917,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-162.8695676129208</v>
+        <v>-135.496972124364</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +925,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-162.0552242854853</v>
+        <v>-135.5965816411743</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +933,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-161.3442663901065</v>
+        <v>-135.6923418643439</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +941,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-160.7267694021177</v>
+        <v>-135.780296400561</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +949,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-160.195395311638</v>
+        <v>-135.8560906605844</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +957,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-159.7448342327206</v>
+        <v>-135.9151660626425</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +965,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-159.3714640399791</v>
+        <v>-135.9530285979851</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +973,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-159.0730865813706</v>
+        <v>-135.9655945570344</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +981,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-158.8487696066983</v>
+        <v>-135.9495718223504</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +989,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-158.6987705383438</v>
+        <v>-135.9028312799395</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +997,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-158.6245431685875</v>
+        <v>-135.8246970580027</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1005,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-158.6287902243475</v>
+        <v>-135.716107613168</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1013,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-158.715622070482</v>
+        <v>-135.5796027485135</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1021,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-158.890832650398</v>
+        <v>-135.4191576578534</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1029,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-159.1622707960129</v>
+        <v>-135.2398819258337</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1037,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-159.5405021182638</v>
+        <v>-135.0476565554467</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1045,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-160.0397395890091</v>
+        <v>-134.8487688088064</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1053,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-160.6793572412035</v>
+        <v>-134.6495909276829</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1061,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-161.4863027485993</v>
+        <v>-134.4563376989165</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1069,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-162.4992036069744</v>
+        <v>-134.2749073423822</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1077,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-163.7753979754391</v>
+        <v>-134.1107913093019</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1085,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-165.4036765623721</v>
+        <v>-133.969064798214</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1093,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-167.526072846454</v>
+        <v>-133.8544006456147</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1101,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-170.355650195027</v>
+        <v>-133.7711242605944</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1109,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-173.9317870346257</v>
+        <v>-133.7232752443759</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1117,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-175.7740688599559</v>
+        <v>-133.7146668773385</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1125,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-172.7421912985723</v>
+        <v>-133.7489374663536</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1133,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-169.1560477691928</v>
+        <v>-133.8295742962169</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1141,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-166.3887350498502</v>
+        <v>-133.9598848707778</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1149,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-164.2740079509878</v>
+        <v>-134.142901463308</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1157,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-162.6195842431405</v>
+        <v>-134.3811524302514</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1165,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-161.3039233622079</v>
+        <v>-134.6762249587931</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1173,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-160.252118828346</v>
+        <v>-135.027979666373</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1181,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-159.4169115782773</v>
+        <v>-135.4331988408408</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1189,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-158.7679837061059</v>
+        <v>-135.8833939277859</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1197,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-158.2860762097331</v>
+        <v>-136.3614386954748</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1205,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-157.9597097570689</v>
+        <v>-136.8371181269366</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1213,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-157.7834185009573</v>
+        <v>-137.2628406760468</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1221,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-157.7569050729223</v>
+        <v>-137.5734564568597</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1229,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-157.8849407698446</v>
+        <v>-137.6967478963259</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1237,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-158.1779324963888</v>
+        <v>-137.5776196952483</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1245,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-158.6533567127169</v>
+        <v>-137.2045634050899</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1253,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-159.3385533749557</v>
+        <v>-136.6162795883912</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1261,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-160.2759052307187</v>
+        <v>-135.8819621651091</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1269,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-161.5328060924915</v>
+        <v>-135.0735723775989</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1277,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-163.2222091406027</v>
+        <v>-134.2487209359082</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1285,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-165.5485705372066</v>
+        <v>-133.4467657611909</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1293,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-168.9132075526847</v>
+        <v>-132.6919004716721</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1301,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-173.9085195039642</v>
+        <v>-131.9978493370436</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1309,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-175.8390030040683</v>
+        <v>-131.3718204943117</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1317,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-170.4850886886584</v>
+        <v>-130.8172480076504</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1325,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-166.4072454924178</v>
+        <v>-130.3355394101966</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1333,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-163.6180873374047</v>
+        <v>-129.9271432863533</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1341,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-161.6025056644071</v>
+        <v>-129.5921845218043</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1349,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-160.1003945433159</v>
+        <v>-129.3308477045988</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1357,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-158.9754519114391</v>
+        <v>-129.1436113051529</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1365,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-158.1513081985807</v>
+        <v>-129.0313898956445</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1373,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-157.5840077821007</v>
+        <v>-128.9956372176933</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1381,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-157.2493712931426</v>
+        <v>-129.0384149937491</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1389,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-157.1371147321118</v>
+        <v>-129.1624381147897</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1397,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-157.2484703259081</v>
+        <v>-129.3710837379477</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1405,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-157.5963144250009</v>
+        <v>-129.6683359889914</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1413,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-158.2078037561909</v>
+        <v>-130.0585890750829</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1421,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-159.1308299911251</v>
+        <v>-130.5461514256089</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1429,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-160.448069449344</v>
+        <v>-131.1341597159098</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1437,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-162.3090813222285</v>
+        <v>-131.8222692811254</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1445,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-165.0130056294271</v>
+        <v>-132.6020090905672</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1453,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-169.2534290897689</v>
+        <v>-133.4479738687622</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1461,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-176.0965685000833</v>
+        <v>-134.3031589639876</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1469,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-173.1604499443045</v>
+        <v>-135.0616319852126</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1477,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-167.1675148217841</v>
+        <v>-135.5683694223744</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1485,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-163.5368581773299</v>
+        <v>-135.6735830270522</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1493,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-161.1105761334709</v>
+        <v>-135.3331658667597</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1501,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-159.400328983876</v>
+        <v>-134.6460362664726</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1509,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-158.1859306642528</v>
+        <v>-133.7759063004267</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1517,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-157.3559522036828</v>
+        <v>-132.8612759914173</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1525,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-156.851850950101</v>
+        <v>-131.9871521675167</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1533,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-156.6457979076936</v>
+        <v>-131.1961265224564</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1541,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-156.7318400323345</v>
+        <v>-130.5057071615455</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1549,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-157.12398757553</v>
+        <v>-129.9204663991971</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1557,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-157.8599939821421</v>
+        <v>-129.4388441910915</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1565,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-159.0134742714014</v>
+        <v>-129.0565795154573</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1573,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-160.7239313773964</v>
+        <v>-128.7683206530692</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1581,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-163.2776004395945</v>
+        <v>-128.5683010007644</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1589,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-167.373216362754</v>
+        <v>-128.4505520912952</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1597,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-175.0023643591801</v>
+        <v>-128.4088911194592</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1605,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-173.5945777200628</v>
+        <v>-128.4368220967485</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1613,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-166.5017535985959</v>
+        <v>-128.5274392842751</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1621,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-162.592112738814</v>
+        <v>-128.6734150820741</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1629,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-160.0926801714161</v>
+        <v>-128.8671548719416</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1637,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-158.3991463154715</v>
+        <v>-129.1012052179282</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1645,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-157.2605531111531</v>
+        <v>-129.3689837845801</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1653,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-156.5575046963318</v>
+        <v>-129.6658314515889</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1661,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-156.2332830381438</v>
+        <v>-129.9903128718073</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1669,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-156.2691578120841</v>
+        <v>-130.3455756379258</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1677,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-156.6771634447986</v>
+        <v>-130.7405370645983</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1685,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-157.5041234915768</v>
+        <v>-131.1907113872856</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1693,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-158.8503736062094</v>
+        <v>-131.7186075014424</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1701,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-160.9223863250277</v>
+        <v>-132.3536719711609</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1709,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-164.1976514127351</v>
+        <v>-133.1313396531978</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1717,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-170.1239657935346</v>
+        <v>-134.0889600753094</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1725,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-178.177941722185</v>
+        <v>-135.2500228044657</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1733,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-168.0534198999414</v>
+        <v>-136.5683007618236</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1741,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-162.9814029493851</v>
+        <v>-137.7672143381986</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1749,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-160.0043127416619</v>
+        <v>-138.1429747467228</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1757,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-158.0773559744184</v>
+        <v>-137.1006976985582</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1765,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-156.8293976307342</v>
+        <v>-135.1033383135863</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1773,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-156.0985162925034</v>
+        <v>-132.9179822422561</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1781,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-155.813089744969</v>
+        <v>-130.8938387060801</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1789,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-155.9539280106032</v>
+        <v>-129.1109112357599</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1797,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-156.5453748046575</v>
+        <v>-127.5627258536052</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1805,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-157.665691810145</v>
+        <v>-126.2239426461356</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1813,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-159.4882756462289</v>
+        <v>-125.0692928002049</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1821,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-162.4133905049708</v>
+        <v>-124.0777904099227</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1829,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-167.6175725632267</v>
+        <v>-123.232943849297</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1837,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-179.2075607084477</v>
+        <v>-122.5220524031819</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1845,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-168.7789779546843</v>
+        <v>-121.9354292005661</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1853,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-162.8511855358826</v>
+        <v>-121.4657536028552</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1861,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-159.5957688019633</v>
+        <v>-121.1075674322661</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1869,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-157.5649167983189</v>
+        <v>-120.8568913272648</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1877,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-156.3009512177513</v>
+        <v>-120.7109262445019</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1885,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-155.6167382945569</v>
+        <v>-120.6678106630355</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1893,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-155.436343679769</v>
+        <v>-120.7264063796213</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1901,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-155.7492564708637</v>
+        <v>-120.8860875213551</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1909,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-156.6044563471082</v>
+        <v>-121.1465058545735</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1917,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-158.136679063654</v>
+        <v>-121.5073020196072</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1925,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-160.6624688661981</v>
+        <v>-121.9677319935967</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1933,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-165.0590688946527</v>
+        <v>-122.5261749658161</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1941,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-175.3078774335629</v>
+        <v>-123.1795073877654</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1949,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-170.6104914828975</v>
+        <v>-123.9223771426452</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1957,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-163.1707090142592</v>
+        <v>-124.7465274789515</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1965,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-159.4658417437733</v>
+        <v>-125.6405433902086</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1973,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-157.2448743495238</v>
+        <v>-126.590713002714</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1981,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-155.9045538900706</v>
+        <v>-127.5839707636097</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1989,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-155.2158327075268</v>
+        <v>-128.6137585865793</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1997,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-155.0916471413178</v>
+        <v>-129.6887510806033</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2005,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-155.5269066990384</v>
+        <v>-130.8431259712626</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2013,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-156.594792274468</v>
+        <v>-132.1471806603519</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2021,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-158.4940036213099</v>
+        <v>-133.7203121380383</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2029,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-161.7325920158606</v>
+        <v>-135.7534204265517</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2037,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-168.0640324326666</v>
+        <v>-138.533070876099</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2045,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-178.8350939490413</v>
+        <v>-142.1272295130952</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2053,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-165.3485337355243</v>
+        <v>-143.2076869537811</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2061,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-160.3049427556045</v>
+        <v>-139.2249150371364</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2069,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-157.5080596151042</v>
+        <v>-135.3297398054563</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2077,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-155.8485348323962</v>
+        <v>-132.3869744322165</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2085,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-154.964319517261</v>
+        <v>-130.1382139327783</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2093,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-154.7198235747664</v>
+        <v>-128.3849971457567</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2101,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-155.0907789483603</v>
+        <v>-127.0098012940583</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2109,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-156.1470262834357</v>
+        <v>-125.9424317022086</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2117,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-158.102085588193</v>
+        <v>-125.1401512958331</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2125,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-161.5303114854059</v>
+        <v>-124.5773531607178</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2133,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-168.5986071271383</v>
+        <v>-124.24023462548</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2141,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-175.8630371506766</v>
+        <v>-124.1241812116099</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2149,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-163.8305698334448</v>
+        <v>-124.2328203197634</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2157,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-159.1888718647895</v>
+        <v>-124.5783183877163</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2165,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-156.6119643927429</v>
+        <v>-125.1828409564612</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2173,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-155.1386696615373</v>
+        <v>-126.0811627308647</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2181,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-154.4516496072966</v>
+        <v>-127.3236576593941</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2189,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-154.4441348934364</v>
+        <v>-128.9740530965589</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2197,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-155.1278285691783</v>
+        <v>-131.070078492798</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2205,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-156.6408257227122</v>
+        <v>-133.3928778455064</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2213,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-159.3720641814131</v>
+        <v>-134.7584725159359</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2221,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-164.5720596083051</v>
+        <v>-133.7393486656686</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2229,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-181.2402634589197</v>
+        <v>-131.5183161504183</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2237,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-165.9518367958663</v>
+        <v>-129.4496114263905</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2245,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-159.8721335387872</v>
+        <v>-127.8361674960238</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2253,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-156.7637068139248</v>
+        <v>-126.6593015760944</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2261,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-155.0127090350359</v>
+        <v>-125.8618875073046</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2269,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-154.161160389653</v>
+        <v>-125.4000526745988</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2277,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-154.0555682430987</v>
+        <v>-125.2481459854161</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2285,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-154.6908068024539</v>
+        <v>-125.3969472279896</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2293,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-156.2049061419158</v>
+        <v>-125.8523882624098</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2301,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-159.0125136710334</v>
+        <v>-126.6357698397039</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2309,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-164.5125259045294</v>
+        <v>-127.7845353910882</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2317,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-183.6970860825637</v>
+        <v>-129.3480809399506</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2325,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-164.6407097381247</v>
+        <v>-131.3513107121445</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2333,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-158.9304407665699</v>
+        <v>-133.6058509174726</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2341,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-155.998032497462</v>
+        <v>-135.1433117334547</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2349,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-154.3952705246655</v>
+        <v>-134.5961047618127</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2357,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-153.7057371236408</v>
+        <v>-132.7255521339045</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2365,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-153.8033214392021</v>
+        <v>-130.8787432592705</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2373,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-154.721462106392</v>
+        <v>-129.4636080824782</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2381,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-156.6828150989263</v>
+        <v>-128.505475849533</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2389,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-160.3699153775709</v>
+        <v>-127.9658800566854</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2397,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-168.8366372188274</v>
+        <v>-127.814351232843</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2405,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-170.8079753801293</v>
+        <v>-128.040821615724</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2413,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-160.8742389751552</v>
+        <v>-128.6582000082891</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2421,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-156.788177791776</v>
+        <v>-129.7055699482098</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2429,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-154.5964977681301</v>
+        <v>-131.2522233243618</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2437,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-153.5176769977863</v>
+        <v>-133.3853993384744</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2445,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-153.3096402350107</v>
+        <v>-136.0598606929809</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2453,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-153.9446830116273</v>
+        <v>-138.2668361428979</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2461,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-155.5807141295724</v>
+        <v>-137.677913336798</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2469,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-158.7414511556919</v>
+        <v>-135.2864123852039</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2477,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-165.4688912580924</v>
+        <v>-133.1160765037866</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2485,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-175.8370042941535</v>
+        <v>-131.5658189727384</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2493,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-161.6154205647052</v>
+        <v>-130.5868029392066</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2501,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-156.8797982739262</v>
+        <v>-130.1056890782155</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2509,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-154.4212146504332</v>
+        <v>-130.0825750473839</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2517,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-153.2027047966084</v>
+        <v>-130.5154312467541</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2525,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-152.9203209735348</v>
+        <v>-131.4456775447514</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2533,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-153.527863501449</v>
+        <v>-132.9801468468514</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2541,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-155.1855020839312</v>
+        <v>-135.3581321068973</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2549,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-158.4543814188077</v>
+        <v>-139.1881409302204</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2557,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-165.6459980645841</v>
+        <v>-146.8354137677303</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2565,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-173.1477710848963</v>
+        <v>-154.0566845291959</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2573,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-160.558168638324</v>
+        <v>-141.915017639871</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2581,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-156.0779305990898</v>
+        <v>-137.4112692041108</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2589,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-153.7704723464227</v>
+        <v>-134.8509753927499</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2597,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-152.6943982583556</v>
+        <v>-133.2380141190372</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2605,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-152.5808578240277</v>
+        <v>-132.184174323477</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2613,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-153.4206076761652</v>
+        <v>-131.4637951102455</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2621,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-155.4520582814176</v>
+        <v>-130.901773284444</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2629,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-159.5057095211527</v>
+        <v>-130.3483165819978</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2637,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-170.1737700026466</v>
+        <v>-129.6970313688165</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2645,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-166.2414837715337</v>
+        <v>-128.913726457165</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2653,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-158.156770894789</v>
+        <v>-128.0354855474696</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2661,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-154.6032940360036</v>
+        <v>-127.1336749575059</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2669,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-152.7981853027784</v>
+        <v>-126.2737167034199</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2677,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-152.1259045880264</v>
+        <v>-125.4952920099185</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2685,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-152.4320333542523</v>
+        <v>-124.8101643521678</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2693,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-153.8117963239386</v>
+        <v>-124.2072356746592</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2701,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-156.7301989819813</v>
+        <v>-123.6594823722568</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2709,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-163.0280444541417</v>
+        <v>-123.1323397789693</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2717,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-177.027803295515</v>
+        <v>-122.5941318222412</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2725,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-160.2426235292593</v>
+        <v>-122.0269362471168</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2733,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-155.3460860517232</v>
+        <v>-121.4335613115067</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2741,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-152.9152601782113</v>
+        <v>-120.8370073345507</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2749,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-151.8296733055717</v>
+        <v>-120.2734175719222</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2757,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-151.7919718679526</v>
+        <v>-119.78334286315</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2765,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-152.8118324187413</v>
+        <v>-119.4056328026535</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2773,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-155.2171438543155</v>
+        <v>-119.1752667533659</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2781,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-160.2434099028786</v>
+        <v>-119.1243077592376</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2789,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-180.7183715785721</v>
+        <v>-119.2848200555752</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2797,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-161.6996478775984</v>
+        <v>-119.6932485207471</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2805,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-155.6762812955294</v>
+        <v>-120.3968087972831</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2813,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-152.8230237829347</v>
+        <v>-121.4639862717447</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2821,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-151.4954955340786</v>
+        <v>-123.0045557370302</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2829,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-151.2852593160859</v>
+        <v>-125.2135217809544</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2837,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-152.1562476401775</v>
+        <v>-128.4783802396114</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2845,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-154.3933928524678</v>
+        <v>-133.5420428676834</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2853,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-159.1011441116345</v>
+        <v>-137.3267445913253</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2861,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-175.5101477203426</v>
+        <v>-132.0214185553427</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2869,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-161.8082254278772</v>
+        <v>-127.8878434304936</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2877,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-155.3744714707458</v>
+        <v>-125.3188786745214</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2885,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-152.4011351722365</v>
+        <v>-123.6941598329666</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2893,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-151.0300687980202</v>
+        <v>-122.7234732892573</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2901,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-150.8189332810854</v>
+        <v>-122.2705432255781</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2909,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-151.7304769135929</v>
+        <v>-122.2757813081078</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2917,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-154.0767167433279</v>
+        <v>-122.7282892545135</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2925,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-159.1059033423573</v>
+        <v>-123.6603243792946</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2933,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-180.8702375289155</v>
+        <v>-125.1590023004596</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2941,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-160.3488428304603</v>
+        <v>-127.4038720639252</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2949,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-154.4156328062934</v>
+        <v>-130.7522510721356</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2957,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-151.6454693021266</v>
+        <v>-135.661671036358</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2965,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-150.4318146392404</v>
+        <v>-137.9359079283016</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2973,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-150.3912153776335</v>
+        <v>-133.4470885094102</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2981,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-151.5354304413547</v>
+        <v>-129.990495909385</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2989,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-154.2878188396859</v>
+        <v>-127.900276822082</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2997,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-160.442275651894</v>
+        <v>-126.7268487955674</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3005,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-175.4092106009901</v>
+        <v>-126.245010062055</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3013,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-157.8381847659117</v>
+        <v>-126.361872658359</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3021,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-152.9675055666101</v>
+        <v>-127.0685367331169</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3029,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-150.6535152765648</v>
+        <v>-128.4360302229476</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3037,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-149.775577177401</v>
+        <v>-130.6561618284343</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3045,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-150.0762527640186</v>
+        <v>-134.1765447185828</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3053,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-151.6732926352391</v>
+        <v>-139.9141998689914</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3061,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-155.2530081457004</v>
+        <v>-142.4087958374423</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3069,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-164.4071860779806</v>
+        <v>-136.5963413797264</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3077,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-164.110585440944</v>
+        <v>-132.984344598685</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3085,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-154.969287681497</v>
+        <v>-130.9683438780565</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3093,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-151.288133270686</v>
+        <v>-129.9621912222758</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3101,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-149.584725697465</v>
+        <v>-129.731210078979</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3109,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-149.1938895006206</v>
+        <v>-130.2076901016905</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3117,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-150.0205528728442</v>
+        <v>-131.443988234252</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3125,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-152.3765025859315</v>
+        <v>-133.6527109489848</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3133,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-157.6242479454876</v>
+        <v>-137.4156563637643</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3141,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-190.8005174973454</v>
+        <v>-144.5195167859219</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3149,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-157.7722638294024</v>
+        <v>-146.3137039380843</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3157,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-152.198485019451</v>
+        <v>-138.8400207960505</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3165,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-149.6284903930844</v>
+        <v>-135.1569539858103</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3173,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-148.6249809189425</v>
+        <v>-133.2189376239853</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3181,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-148.8684728781815</v>
+        <v>-132.354466125888</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3189,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-150.4675596966793</v>
+        <v>-132.3411661115629</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3197,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-154.150086089245</v>
+        <v>-133.1570988645133</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3205,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-163.9948932113821</v>
+        <v>-134.9624426644706</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3213,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-161.797227894297</v>
+        <v>-138.2807796491186</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3221,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-153.2665881599056</v>
+        <v>-145.114026203865</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3229,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-149.7636159626761</v>
+        <v>-153.990982009359</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3237,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-148.2016465950609</v>
+        <v>-141.3448067930383</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3245,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-147.9784293148369</v>
+        <v>-136.7688627185823</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3253,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-149.0528723478932</v>
+        <v>-134.3865008217506</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3261,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-151.8700307546962</v>
+        <v>-133.1851851229009</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3269,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-158.5030412149404</v>
+        <v>-132.8371636615754</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3277,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-168.5741789452348</v>
+        <v>-133.2305249915224</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3285,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-154.3674901497629</v>
+        <v>-134.3583639425406</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3293,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-149.8696424396009</v>
+        <v>-136.2724627663708</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3301,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-147.8037622948139</v>
+        <v>-138.9580982712641</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3309,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-147.2037594171917</v>
+        <v>-141.6713747862389</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3317,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-147.8989276636055</v>
+        <v>-142.1573987492593</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3325,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-150.1767209818702</v>
+        <v>-140.6603585136875</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3333,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-155.408268109427</v>
+        <v>-139.19521742742</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3341,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-195.635950879389</v>
+        <v>-137.8096291186732</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3349,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-155.3475762658423</v>
+        <v>-135.6360930756466</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3357,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-149.8401980022894</v>
+        <v>-132.5374853521476</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3365,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-147.3404364911764</v>
+        <v>-129.2584344586277</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3373,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-146.4453920197946</v>
+        <v>-126.3000558323264</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3381,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-146.8688077895645</v>
+        <v>-123.7898492758343</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3389,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-148.8002608996184</v>
+        <v>-121.7160045600189</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3397,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-153.2915591863537</v>
+        <v>-120.0374380325307</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3405,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-169.3731479032056</v>
+        <v>-118.715524273145</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3413,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-156.0140636579322</v>
+        <v>-117.7211298497922</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3421,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-149.5836255206813</v>
+        <v>-117.0352894519695</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3429,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-146.7426362895444</v>
+        <v>-116.648804123892</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3437,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-145.6332101851193</v>
+        <v>-116.5623174122157</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3445,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-145.8737182750525</v>
+        <v>-116.7875533099513</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3453,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-147.5930686993497</v>
+        <v>-117.3505105099708</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3461,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-151.6892850769352</v>
+        <v>-118.2982730327083</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3469,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-164.4836947903423</v>
+        <v>-119.7135256572749</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3477,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-156.1526126704145</v>
+        <v>-121.7482996305758</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3485,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-149.028002964848</v>
+        <v>-124.7162338573501</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3493,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-145.9592227147399</v>
+        <v>-129.4246254219269</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3501,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-144.7158329897858</v>
+        <v>-139.0176550937248</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3509,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-144.851196951347</v>
+        <v>-136.8292446982356</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3517,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-146.4626646591778</v>
+        <v>-129.757427558094</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3525,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-150.3883068925999</v>
+        <v>-126.5158143628276</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3533,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-162.1939081451114</v>
+        <v>-124.8331156863676</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3541,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-155.5869723969099</v>
+        <v>-124.0965066574843</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3549,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-148.1256139565179</v>
+        <v>-124.088635357631</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3557,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-144.952778882626</v>
+        <v>-124.7519320727516</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3565,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-143.6528323808228</v>
+        <v>-126.1411293379283</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3573,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-143.7522564290825</v>
+        <v>-128.4628534756748</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3581,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-145.3428577363019</v>
+        <v>-132.2881796419717</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3589,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-149.27088638764</v>
+        <v>-139.7618456306674</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3597,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-161.2582274257589</v>
+        <v>-147.0719798874999</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3605,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-154.2494415619881</v>
+        <v>-135.9109913365307</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3613,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-146.8505822318809</v>
+        <v>-131.8411376286125</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3621,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-143.6925450873176</v>
+        <v>-129.8769923972609</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3629,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-142.4062048324431</v>
+        <v>-129.0922694600787</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3637,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-142.5306156027552</v>
+        <v>-129.2085786191313</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3645,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-144.1765784008263</v>
+        <v>-130.188795289488</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3653,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-148.2613013626576</v>
+        <v>-132.1956250814368</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3661,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-161.5711362800309</v>
+        <v>-135.7838393792744</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3669,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-152.1915700431349</v>
+        <v>-143.1940555459948</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3677,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-145.1862064997954</v>
+        <v>-151.3572671721311</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3685,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-142.142751575159</v>
+        <v>-139.0067684640047</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3693,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-140.9288093267363</v>
+        <v>-134.8096548604712</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3701,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-141.1302374683757</v>
+        <v>-132.8021467948348</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3709,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-142.900783381588</v>
+        <v>-132.0383430014399</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3717,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-147.3006963217531</v>
+        <v>-132.2584452101076</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3725,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-163.9883177709359</v>
+        <v>-133.4780398377063</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3733,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-149.5107321416168</v>
+        <v>-136.005338519793</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3741,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-143.1003464134296</v>
+        <v>-140.9592864737324</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3749,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-140.2430080885559</v>
+        <v>-157.6156438339092</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3757,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-139.145339696702</v>
+        <v>-143.9697498355677</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3765,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-139.4656653864553</v>
+        <v>-137.6658949266318</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3773,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-141.4258285275888</v>
+        <v>-134.7671659247157</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3781,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-146.3300944450537</v>
+        <v>-133.4181901639077</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3789,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-176.8861325101224</v>
+        <v>-133.1642170127695</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3797,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-146.2437227366863</v>
+        <v>-133.9367106370568</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3805,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-140.5034843090862</v>
+        <v>-135.9591589781676</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3813,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-137.8706354886741</v>
+        <v>-140.0997018463731</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3821,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-136.91377143424</v>
+        <v>-151.594703732131</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3829,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-137.3815787528009</v>
+        <v>-145.9305664422503</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3837,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-139.5947747117083</v>
+        <v>-138.1923644738858</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3845,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-145.2743962619069</v>
+        <v>-134.7393476217134</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3853,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-160.7025052995818</v>
+        <v>-133.0090005297333</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3861,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-142.250219039137</v>
+        <v>-132.4335036501348</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3869,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-137.1589840461176</v>
+        <v>-132.9058863172954</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3877,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-134.7473629334875</v>
+        <v>-134.625224301168</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3885,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-133.9240134328789</v>
+        <v>-138.4152374583666</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3893,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-134.5430774359205</v>
+        <v>-149.0676140729177</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3901,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-137.0733024850416</v>
+        <v>-144.3688604768329</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3909,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-144.0407858767676</v>
+        <v>-136.0882251621705</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3917,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-148.9652829115117</v>
+        <v>-132.2880116976088</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3925,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-136.9537502741631</v>
+        <v>-130.2360183534391</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3933,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-132.3940475151863</v>
+        <v>-129.3419220897798</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3941,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-130.1116673888083</v>
+        <v>-129.4985494957918</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3949,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-129.3244960291691</v>
+        <v>-130.9288701306943</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3957,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-130.0225673517377</v>
+        <v>-134.5827498807191</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3965,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-132.9704602593604</v>
+        <v>-147.1179600975973</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3973,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-143.3893839571992</v>
+        <v>-137.1995419275302</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3981,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-136.4829631849893</v>
+        <v>-129.1009955174285</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3989,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-127.6288161085234</v>
+        <v>-124.6973444737343</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3997,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-122.9731828269105</v>
+        <v>-121.734134377386</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4005,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-119.9088862374896</v>
+        <v>-119.6077206040834</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4013,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-117.7790989408566</v>
+        <v>-118.0671739393584</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4021,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-116.318543866956</v>
+        <v>-116.9863457461629</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4029,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-115.3985401313142</v>
+        <v>-116.2962672161846</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4037,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-114.9539603415644</v>
+        <v>-115.9595405927234</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4045,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-114.9569434466639</v>
+        <v>-115.9595365742231</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4053,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-115.4076693934433</v>
+        <v>-116.2962550046191</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4061,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-116.3344148779162</v>
+        <v>-116.9863246976452</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4069,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-117.8029330905403</v>
+        <v>-118.0671427845588</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4077,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-119.9430891199211</v>
+        <v>-119.6076772462091</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4085,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-123.0229955322893</v>
+        <v>-121.7340747252428</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4093,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-127.7089840873456</v>
+        <v>-124.6972606486921</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4101,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-136.6754234683039</v>
+        <v>-129.1008656055131</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4109,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-143.0699305546441</v>
+        <v>-137.1992574081447</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4117,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-132.9062817035877</v>
+        <v>-147.1186815512372</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4125,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-130.0013502213363</v>
+        <v>-134.5828566690437</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4133,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-129.3258141187284</v>
+        <v>-130.9288963929153</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4141,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-130.1318281918116</v>
+        <v>-129.4985311316003</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4149,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-132.4371395345043</v>
+        <v>-129.3418640629525</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4157,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-137.0408507474223</v>
+        <v>-130.2359071549498</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4165,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-149.3169447161419</v>
+        <v>-132.2878033134979</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4173,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-143.8754187440722</v>
+        <v>-136.0877375765108</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4181,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-137.0206600499103</v>
+        <v>-144.366028228314</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4189,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-134.5240029689262</v>
+        <v>-149.060772752234</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4197,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-133.9257711414004</v>
+        <v>-138.4147152024979</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4205,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-134.7683413986773</v>
+        <v>-134.6249858032216</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4213,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-137.2053649827614</v>
+        <v>-132.9056786586088</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4221,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-142.3519629826769</v>
+        <v>-132.4332535478005</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4229,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-161.6062096963761</v>
+        <v>-133.008637554786</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4237,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-145.1499461894394</v>
+        <v>-134.7387160549155</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4245,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-139.5489656950371</v>
+        <v>-138.1908521923798</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4253,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-137.3650990110132</v>
+        <v>-145.9215222098283</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4261,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-136.9172413827863</v>
+        <v>-151.5624473839514</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4269,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-137.8937501975999</v>
+        <v>-140.0974609616739</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4277,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-140.5543927679622</v>
+        <v>-135.9582669168037</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4285,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-146.363250475541</v>
+        <v>-133.9360842629831</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4293,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-173.5430069235663</v>
+        <v>-133.1635896657869</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4301,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-146.22681283053</v>
+        <v>-133.4173789159233</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4309,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-141.3849544275784</v>
+        <v>-134.7658413072371</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4317,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-139.4515225369201</v>
+        <v>-137.6629156343359</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4325,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-139.1506066728922</v>
+        <v>-143.9556900058088</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4333,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-140.2683753443871</v>
+        <v>-157.2794617812044</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4341,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-143.1558275156529</v>
+        <v>-140.9513123356791</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4349,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-149.6498452875104</v>
+        <v>-136.0026159255172</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4357,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-163.285078841058</v>
+        <v>-133.4763628283592</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4365,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-147.2099706480954</v>
+        <v>-132.2569941749224</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4373,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-142.863416130902</v>
+        <v>-132.0367170442963</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4381,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-141.1179231719844</v>
+        <v>-132.799838142472</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4389,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-140.9355657331364</v>
+        <v>-134.8053438584321</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4397,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-142.1700137293905</v>
+        <v>-138.9937544130441</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4405,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-145.2455904459193</v>
+        <v>-151.1140311853875</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4413,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-152.3495211342027</v>
+        <v>-143.1526306008892</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4421,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-161.1237709937014</v>
+        <v>-135.7757228390391</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4429,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-148.1779616177193</v>
+        <v>-132.191789244623</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4437,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-144.1414514117079</v>
+        <v>-130.1861305005943</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4445,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-142.5194917135973</v>
+        <v>-129.2061523783489</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4453,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-142.4139233738459</v>
+        <v>-129.0894817476517</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4461,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-143.7210260414774</v>
+        <v>-129.8729695280244</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4469,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-146.9125202593719</v>
+        <v>-131.8335015539247</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4477,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-154.420976732171</v>
+        <v>-135.8877871247162</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4485,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-160.8878824805282</v>
+        <v>-146.7315779775883</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4493,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-149.1910620321419</v>
+        <v>-139.6879675217681</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4501,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-145.3087211221213</v>
+        <v>-132.2735072805394</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4509,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-143.7415617591371</v>
+        <v>-128.4562781003619</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4517,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-143.6608135600005</v>
+        <v>-126.1370021998891</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4525,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-144.9815388705625</v>
+        <v>-124.7486967151188</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4533,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-148.1881265413382</v>
+        <v>-124.0855652232349</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4541,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-155.7615620504152</v>
+        <v>-124.0929894885253</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4549,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-161.8325700836585</v>
+        <v>-124.8281944649101</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4557,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-150.3084499287793</v>
+        <v>-126.5070827623526</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4565,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-146.4281878676031</v>
+        <v>-129.7352211957746</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4573,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-144.8400537775328</v>
+        <v>-136.6963276964477</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4581,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-144.7232385774599</v>
+        <v>-138.7667514732407</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4589,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-145.9871214074662</v>
+        <v>-129.3932151076043</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4597,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-149.0887021934309</v>
+        <v>-124.7049722278164</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4605,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-156.31713386416</v>
+        <v>-121.7426357899425</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4613,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-164.0650171393112</v>
+        <v>-119.7102582728496</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4621,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-151.6054115485505</v>
+        <v>-118.2963235136693</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4629,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-147.5567135248635</v>
+        <v>-117.3494356326254</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4637,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-145.8611088992983</v>
+        <v>-116.7871615282577</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4645,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-145.639075587184</v>
+        <v>-116.5625455758653</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4653,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-146.7684190241304</v>
+        <v>-116.6496739863222</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4661,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-149.6400686030281</v>
+        <v>-117.0368999203607</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4669,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-156.1579252563516</v>
+        <v>-117.7236722037515</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4677,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-168.7150246474992</v>
+        <v>-118.7193236191732</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4685,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-153.1981916435129</v>
+        <v>-120.0430348799116</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4693,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-148.7601132446563</v>
+        <v>-121.7243132637854</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4701,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-146.8535330925519</v>
+        <v>-123.8024638553407</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4709,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-146.4486575316724</v>
+        <v>-126.3198175387175</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4717,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-147.3628421513863</v>
+        <v>-129.2902456713265</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4725,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-149.8902940159521</v>
+        <v>-132.5877243566842</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4733,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-155.4659965515199</v>
+        <v>-135.7027131382536</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4741,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-187.763263677155</v>
+        <v>-137.8653776555734</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4749,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-155.2959455063041</v>
+        <v>-139.2108600546941</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4757,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-150.1301246433472</v>
+        <v>-140.62041788073</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4765,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-147.8795118420317</v>
+        <v>-142.0478987462227</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4773,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-147.203254908387</v>
+        <v>-141.5519944206231</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4781,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-147.82157844015</v>
+        <v>-138.8931832960129</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4789,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-149.9118696154929</v>
+        <v>-136.2409509149618</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4797,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-154.4607627044915</v>
+        <v>-134.3416063192298</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4805,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-169.1072543799437</v>
+        <v>-133.2204713385067</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4813,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-158.3501732494798</v>
+        <v>-132.830233433786</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4821,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-151.8128014507737</v>
+        <v>-133.1794513517526</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4829,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-149.0273785110687</v>
+        <v>-134.380375971244</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4837,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-147.9728355734151</v>
+        <v>-136.7594862096329</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4845,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-148.213756235223</v>
+        <v>-141.3190953299523</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4853,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-149.7970644455282</v>
+        <v>-153.5382231012969</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4861,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-153.3376100058555</v>
+        <v>-145.0506097515814</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4869,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-162.0166197082106</v>
+        <v>-138.2667729133564</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4877,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-163.7208650191029</v>
+        <v>-134.9552815699485</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4885,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-154.0742169659152</v>
+        <v>-133.1516958510652</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4893,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-150.4330620599428</v>
+        <v>-132.335868600986</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4901,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-148.8561219034551</v>
+        <v>-132.3480847576988</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4909,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-148.6302285952586</v>
+        <v>-133.2096451795596</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4917,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-149.6526070326003</v>
+        <v>-135.1400196440387</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4925,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-152.2505915801549</v>
+        <v>-138.7954174794708</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4933,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-157.8948103218204</v>
+        <v>-146.0477336138628</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4941,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-186.4668718001832</v>
+        <v>-144.3308330718841</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4949,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-157.509511131049</v>
+        <v>-137.3767220297145</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4957,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-152.3279110000855</v>
+        <v>-133.6357444112736</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4965,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-149.9991281804794</v>
+        <v>-131.4333370775896</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4973,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-149.1909955682915</v>
+        <v>-130.1991334023968</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4981,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-149.5991615538569</v>
+        <v>-129.7227767327335</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4989,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-151.3242699149571</v>
+        <v>-129.9521605853981</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4997,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-155.0451457954456</v>
+        <v>-130.9538960316927</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5005,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-164.3584024375645</v>
+        <v>-132.9581364637235</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5013,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-164.1585842336962</v>
+        <v>-136.5288110736063</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5021,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-155.1785323906008</v>
+        <v>-142.1313610371661</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5029,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-151.6386532240925</v>
+        <v>-139.7436522501038</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5037,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-150.0632376965617</v>
+        <v>-134.1278683936079</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5045,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-149.7796779387982</v>
+        <v>-130.6336443090162</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5053,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-150.6756197510757</v>
+        <v>-128.4221083823867</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5061,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-153.0152156188605</v>
+        <v>-127.0580191631032</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5069,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-157.9436360894843</v>
+        <v>-126.3524694519877</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5077,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-176.2728522569289</v>
+        <v>-126.2351451990062</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5085,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-160.2993850539555</v>
+        <v>-126.7146759412609</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5093,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-154.2306550189094</v>
+        <v>-127.8823593227998</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5101,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-151.5086303238467</v>
+        <v>-129.9577732097466</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5109,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-150.3835251167955</v>
+        <v>-133.366068732705</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5117,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-150.4406985118603</v>
+        <v>-137.6890745215873</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5125,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-151.6732195907983</v>
+        <v>-135.5023365940648</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5133,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-154.4727981534445</v>
+        <v>-130.697632529073</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5141,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-160.4850510061793</v>
+        <v>-127.3780619533119</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5149,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-179.4658500893481</v>
+        <v>-125.1437497020019</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5157,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-158.9940132521075</v>
+        <v>-123.6498797099843</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5165,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-154.0274208592593</v>
+        <v>-122.7202629337288</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5173,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-151.7076182647326</v>
+        <v>-122.2689013275566</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5181,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-150.8139855828523</v>
+        <v>-122.2638941948318</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5189,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-151.0414048165381</v>
+        <v>-122.7160850050827</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5197,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-152.4317321935193</v>
+        <v>-123.6845064715596</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5205,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-155.4363816265714</v>
+        <v>-125.3036615366237</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5213,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-161.9613594623564</v>
+        <v>-127.8574579395012</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5221,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-174.7669737104042</v>
+        <v>-131.9349986924413</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5229,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-158.9966627207408</v>
+        <v>-137.0181321671647</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5237,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-154.3458954907217</v>
+        <v>-133.4056023948998</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5245,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-152.1340411702541</v>
+        <v>-128.4365119832318</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5253,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-151.2804917224668</v>
+        <v>-125.195894258877</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5261,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-151.5066695195364</v>
+        <v>-122.9963998499026</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5269,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-152.8529537694325</v>
+        <v>-121.4608195981674</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5277,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-155.7361426098059</v>
+        <v>-120.3969281843443</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5285,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-161.8414873887252</v>
+        <v>-119.6959536638271</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5293,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-179.4887274929961</v>
+        <v>-119.289856134348</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5301,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-160.1289222110381</v>
+        <v>-119.1316516992416</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5309,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-155.1657797782017</v>
+        <v>-119.1850225786329</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5317,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-152.7869662793424</v>
+        <v>-119.4179576133775</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5325,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-151.7847291248294</v>
+        <v>-119.7983640611348</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5333,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-151.8379510232138</v>
+        <v>-120.29112056946</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5341,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-152.9409529214516</v>
+        <v>-120.8570911940294</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5349,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-155.3975298130315</v>
+        <v>-121.4552961306195</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5357,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-160.3530284022503</v>
+        <v>-122.0491046673273</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5365,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-177.7985064851916</v>
+        <v>-122.6151321298076</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5373,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-162.8732741074255</v>
+        <v>-123.1504476337418</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5381,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-156.6672595221453</v>
+        <v>-123.6731340700581</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5389,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-153.780275241158</v>
+        <v>-124.2151805454877</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5397,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-152.4194191994351</v>
+        <v>-124.8114400808276</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5405,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-152.1286555331298</v>
+        <v>-125.4891111251674</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5413,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-152.8167416638181</v>
+        <v>-126.2593928573269</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5421,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-154.6425841755873</v>
+        <v>-127.1107156042294</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5429,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-158.2339347225297</v>
+        <v>-128.0039688098497</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5437,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-166.4600994934102</v>
+        <v>-128.8749208306831</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5445,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-169.8276603471264</v>
+        <v>-129.6538401007629</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5453,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-159.4144495486053</v>
+        <v>-130.3047904643063</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5461,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-155.4074218410258</v>
+        <v>-130.8616383372712</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5469,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-153.3988199777751</v>
+        <v>-131.4291885886704</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5477,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-152.5752734269495</v>
+        <v>-132.1555210082951</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5485,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-152.7035109235894</v>
+        <v>-133.2146365098546</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5493,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-153.7962151418325</v>
+        <v>-134.8316178239911</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5501,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-156.1278828097074</v>
+        <v>-137.3939324360573</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5509,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-160.6601406744884</v>
+        <v>-141.8929041372093</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5517,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-173.5976155234713</v>
+        <v>-153.8241082090333</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5525,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-165.4535560336107</v>
+        <v>-146.7681190660401</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5533,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-158.381377071016</v>
+        <v>-139.1670588243999</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5541,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-155.1479532543974</v>
+        <v>-135.34396043739</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5549,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-153.5101645785986</v>
+        <v>-132.9682524152244</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5557,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-152.9177151301164</v>
+        <v>-131.434481754805</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5565,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-153.2144363753281</v>
+        <v>-130.5039609381063</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5573,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-154.4497508006457</v>
+        <v>-130.069891836636</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5581,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-156.9336271500577</v>
+        <v>-130.0905526249069</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5589,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-161.7260674606275</v>
+        <v>-130.5672003491126</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5597,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-176.3887633706814</v>
+        <v>-131.5379605068689</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5605,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-165.2898496413471</v>
+        <v>-133.0718835170353</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5613,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-158.6698155973454</v>
+        <v>-135.2073444954575</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5621,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-155.5431347745263</v>
+        <v>-137.5325392843915</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5629,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-153.9264536943601</v>
+        <v>-138.0929112279151</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5637,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-153.306108703309</v>
+        <v>-135.9512057126205</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5645,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-153.5279497921505</v>
+        <v>-133.3253774443328</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5653,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-154.6225474005001</v>
+        <v>-131.2150974964044</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5661,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-156.8368717005104</v>
+        <v>-129.6793838494561</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5669,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-160.9686996721292</v>
+        <v>-128.6374016313046</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5677,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-171.1178731098609</v>
+        <v>-128.0223900493358</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5685,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-168.5812496217318</v>
+        <v>-127.7962081321884</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5693,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-160.2833796160241</v>
+        <v>-127.9460794611551</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5701,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-156.6377879987285</v>
+        <v>-128.4815230774351</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5709,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-154.6978232279193</v>
+        <v>-129.4314383117763</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5717,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-153.7948297968377</v>
+        <v>-130.8306830890634</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5725,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-153.7105410137774</v>
+        <v>-132.646723130845</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5733,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-154.4141020842031</v>
+        <v>-134.4676261811339</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5741,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-156.0348508934131</v>
+        <v>-134.9905462285245</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5749,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-158.9970605372207</v>
+        <v>-133.4943898291359</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5757,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-164.7855004583759</v>
+        <v>-131.2835013440341</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5765,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-183.1979094127532</v>
+        <v>-129.3051750328409</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5773,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-164.368925183159</v>
+        <v>-127.7549644517318</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5781,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-158.9468057291592</v>
+        <v>-126.6136055000006</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5789,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-156.1688265986695</v>
+        <v>-125.8344292214241</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5797,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-154.672497443312</v>
+        <v>-125.3812469159202</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5805,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-154.0509469259126</v>
+        <v>-125.2333031525536</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5813,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-154.1692408131302</v>
+        <v>-125.3848013116723</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5821,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-155.0347590363646</v>
+        <v>-125.8447490573705</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5829,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-156.804307876329</v>
+        <v>-126.6381113372381</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5837,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-159.9445696017521</v>
+        <v>-127.8071604337855</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5845,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-166.1122227696906</v>
+        <v>-129.4053831656207</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5853,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-180.5400732081367</v>
+        <v>-131.4435500160968</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5861,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-164.4344328802785</v>
+        <v>-133.6098433432139</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5869,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-159.3066209958574</v>
+        <v>-134.5906270687299</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5877,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-156.6040644449712</v>
+        <v>-133.2687679007045</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5885,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-155.1084243896031</v>
+        <v>-130.998389407135</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5893,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-154.4380264118722</v>
+        <v>-128.931980001295</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5901,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-154.4576626971511</v>
+        <v>-127.2974390835337</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5909,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-155.1576152274246</v>
+        <v>-126.0641276397135</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5917,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-156.6472252601941</v>
+        <v>-125.1716576358535</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5925,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-159.249631415714</v>
+        <v>-124.5712222310231</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5933,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-163.9478956276843</v>
+        <v>-124.2288434165146</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5941,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-176.2598620749506</v>
+        <v>-124.1227992857995</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5949,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-168.3840494750593</v>
+        <v>-124.2412039418955</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5957,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-161.4439714795797</v>
+        <v>-124.5806375459163</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5965,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-158.0541818923749</v>
+        <v>-125.1459061751291</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5973,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-156.1195465956329</v>
+        <v>-125.951039137994</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5981,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-155.0775413160961</v>
+        <v>-127.0219785541941</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5989,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-154.7184947438552</v>
+        <v>-128.4020513099456</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5997,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-154.9745485716165</v>
+        <v>-130.1626764621276</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6005,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-155.8717159874078</v>
+        <v>-132.4243650193341</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6013,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-157.5482913976143</v>
+        <v>-135.3944322105194</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6021,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-160.3729826745488</v>
+        <v>-139.3629355171308</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6029,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-165.4819388249147</v>
+        <v>-143.5187130867632</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6037,7 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-179.1645831128052</v>
+        <v>-142.3560018630551</v>
       </c>
     </row>
     <row r="702">
@@ -6043,7 +6045,7 @@
         <v>2.446178929380262</v>
       </c>
       <c r="B702" t="n">
-        <v>-167.8727195011811</v>
+        <v>-138.6384220967596</v>
       </c>
     </row>
     <row r="703">
@@ -6051,7 +6053,7 @@
         <v>2.449673470707948</v>
       </c>
       <c r="B703" t="n">
-        <v>-161.6487184321961</v>
+        <v>-135.8193475946962</v>
       </c>
     </row>
     <row r="704">
@@ -6059,7 +6061,7 @@
         <v>2.453168012035634</v>
       </c>
       <c r="B704" t="n">
-        <v>-158.4460275345361</v>
+        <v>-133.7727516952726</v>
       </c>
     </row>
     <row r="705">
@@ -6067,7 +6069,7 @@
         <v>2.45666255336332</v>
       </c>
       <c r="B705" t="n">
-        <v>-156.566455646027</v>
+        <v>-132.194441037927</v>
       </c>
     </row>
     <row r="706">
@@ -6075,7 +6077,7 @@
         <v>2.460157094691006</v>
       </c>
       <c r="B706" t="n">
-        <v>-155.5123256284343</v>
+        <v>-130.8879188703759</v>
       </c>
     </row>
     <row r="707">
@@ -6083,7 +6085,7 @@
         <v>2.463651636018692</v>
       </c>
       <c r="B707" t="n">
-        <v>-155.0884703133331</v>
+        <v>-129.7315521716511</v>
       </c>
     </row>
     <row r="708">
@@ -6091,7 +6093,7 @@
         <v>2.467146177346378</v>
       </c>
       <c r="B708" t="n">
-        <v>-155.2234825186629</v>
+        <v>-128.6541071917351</v>
       </c>
     </row>
     <row r="709">
@@ -6099,7 +6101,7 @@
         <v>2.470640718674064</v>
       </c>
       <c r="B709" t="n">
-        <v>-155.9239049135383</v>
+        <v>-127.6211540332971</v>
       </c>
     </row>
     <row r="710">
@@ -6107,7 +6109,7 @@
         <v>2.47413526000175</v>
       </c>
       <c r="B710" t="n">
-        <v>-157.2787253340481</v>
+        <v>-126.6241636460234</v>
       </c>
     </row>
     <row r="711">
@@ -6115,7 +6117,7 @@
         <v>2.477629801329436</v>
       </c>
       <c r="B711" t="n">
-        <v>-159.5210609574487</v>
+        <v>-125.669994182965</v>
       </c>
     </row>
     <row r="712">
@@ -6123,7 +6125,7 @@
         <v>2.481124342657123</v>
       </c>
       <c r="B712" t="n">
-        <v>-163.2666116610752</v>
+        <v>-124.7720067372943</v>
       </c>
     </row>
     <row r="713">
@@ -6131,7 +6133,7 @@
         <v>2.484618883984809</v>
       </c>
       <c r="B713" t="n">
-        <v>-170.8328176428481</v>
+        <v>-123.9441229608421</v>
       </c>
     </row>
     <row r="714">
@@ -6139,7 +6141,7 @@
         <v>2.488113425312495</v>
       </c>
       <c r="B714" t="n">
-        <v>-174.9176702633808</v>
+        <v>-123.1978692056408</v>
       </c>
     </row>
     <row r="715">
@@ -6147,7 +6149,7 @@
         <v>2.491607966640181</v>
       </c>
       <c r="B715" t="n">
-        <v>-164.9339139549612</v>
+        <v>-122.5415401525561</v>
       </c>
     </row>
     <row r="716">
@@ -6155,7 +6157,7 @@
         <v>2.495102507967867</v>
       </c>
       <c r="B716" t="n">
-        <v>-160.5957892651413</v>
+        <v>-121.9804793769966</v>
       </c>
     </row>
     <row r="717">
@@ -6163,7 +6165,7 @@
         <v>2.498597049295553</v>
       </c>
       <c r="B717" t="n">
-        <v>-158.0962392255298</v>
+        <v>-121.5177769032163</v>
       </c>
     </row>
     <row r="718">
@@ -6171,7 +6173,7 @@
         <v>2.502091590623239</v>
       </c>
       <c r="B718" t="n">
-        <v>-156.5802478057842</v>
+        <v>-121.1550120713355</v>
       </c>
     </row>
     <row r="719">
@@ -6179,7 +6181,7 @@
         <v>2.505586131950925</v>
       </c>
       <c r="B719" t="n">
-        <v>-155.737197680781</v>
+        <v>-120.8928870529998</v>
       </c>
     </row>
     <row r="720">
@@ -6187,7 +6189,7 @@
         <v>2.509080673278612</v>
       </c>
       <c r="B720" t="n">
-        <v>-155.4347410355854</v>
+        <v>-120.7317225058584</v>
       </c>
     </row>
     <row r="721">
@@ -6195,7 +6197,7 @@
         <v>2.512575214606298</v>
       </c>
       <c r="B721" t="n">
-        <v>-155.6252628785974</v>
+        <v>-120.6718354658636</v>
       </c>
     </row>
     <row r="722">
@@ -6203,7 +6205,7 @@
         <v>2.516069755933983</v>
       </c>
       <c r="B722" t="n">
-        <v>-156.3204617941055</v>
+        <v>-120.7138272114433</v>
       </c>
     </row>
     <row r="723">
@@ -6211,7 +6213,7 @@
         <v>2.519564297261669</v>
       </c>
       <c r="B723" t="n">
-        <v>-157.5979124747805</v>
+        <v>-120.8588183903101</v>
       </c>
     </row>
     <row r="724">
@@ -6219,7 +6221,7 @@
         <v>2.523058838589356</v>
       </c>
       <c r="B724" t="n">
-        <v>-159.6479714985933</v>
+        <v>-121.1086619830447</v>
       </c>
     </row>
     <row r="725">
@@ -6227,7 +6229,7 @@
         <v>2.526553379917042</v>
       </c>
       <c r="B725" t="n">
-        <v>-162.9373295936427</v>
+        <v>-121.4661581279535</v>
       </c>
     </row>
     <row r="726">
@@ -6235,7 +6237,7 @@
         <v>2.530047921244728</v>
       </c>
       <c r="B726" t="n">
-        <v>-168.951709365688</v>
+        <v>-121.9352999404964</v>
       </c>
     </row>
     <row r="727">
@@ -6243,7 +6245,7 @@
         <v>2.533542462572414</v>
       </c>
       <c r="B727" t="n">
-        <v>-178.9097303763481</v>
+        <v>-122.521576148388</v>
       </c>
     </row>
     <row r="728">
@@ -6251,7 +6253,7 @@
         <v>2.5370370039001</v>
       </c>
       <c r="B728" t="n">
-        <v>-167.4550079965373</v>
+        <v>-123.2323646699585</v>
       </c>
     </row>
     <row r="729">
@@ -6259,7 +6261,7 @@
         <v>2.540531545227786</v>
       </c>
       <c r="B729" t="n">
-        <v>-162.3314782558377</v>
+        <v>-124.0774498157521</v>
       </c>
     </row>
     <row r="730">
@@ -6267,7 +6269,7 @@
         <v>2.544026086555472</v>
       </c>
       <c r="B730" t="n">
-        <v>-159.4384233572795</v>
+        <v>-125.0696997948619</v>
       </c>
     </row>
     <row r="731">
@@ -6275,7 +6277,7 @@
         <v>2.547520627883158</v>
       </c>
       <c r="B731" t="n">
-        <v>-157.6342105353139</v>
+        <v>-126.2258939504396</v>
       </c>
     </row>
     <row r="732">
@@ -6283,7 +6285,7 @@
         <v>2.551015169210844</v>
       </c>
       <c r="B732" t="n">
-        <v>-156.5268101316041</v>
+        <v>-127.56752824641</v>
       </c>
     </row>
     <row r="733">
@@ -6291,7 +6293,7 @@
         <v>2.554509710538531</v>
       </c>
       <c r="B733" t="n">
-        <v>-155.9458030659053</v>
+        <v>-129.1208014219007</v>
       </c>
     </row>
     <row r="734">
@@ -6299,7 +6301,7 @@
         <v>2.558004251866217</v>
       </c>
       <c r="B734" t="n">
-        <v>-155.8144016690291</v>
+        <v>-130.9127954875042</v>
       </c>
     </row>
     <row r="735">
@@ -6307,7 +6309,7 @@
         <v>2.561498793193903</v>
       </c>
       <c r="B735" t="n">
-        <v>-156.1092613676995</v>
+        <v>-132.9531686278391</v>
       </c>
     </row>
     <row r="736">
@@ -6315,7 +6317,7 @@
         <v>2.564993334521589</v>
       </c>
       <c r="B736" t="n">
-        <v>-156.850541838554</v>
+        <v>-135.1665061171471</v>
       </c>
     </row>
     <row r="737">
@@ -6323,7 +6325,7 @@
         <v>2.568487875849275</v>
       </c>
       <c r="B737" t="n">
-        <v>-158.1112851018372</v>
+        <v>-137.2024968631166</v>
       </c>
     </row>
     <row r="738">
@@ -6331,7 +6333,7 @@
         <v>2.571982417176961</v>
       </c>
       <c r="B738" t="n">
-        <v>-160.0561618922261</v>
+        <v>-138.265725459686</v>
       </c>
     </row>
     <row r="739">
@@ -6339,7 +6341,7 @@
         <v>2.575476958504647</v>
       </c>
       <c r="B739" t="n">
-        <v>-163.0634016311566</v>
+        <v>-137.8652034878004</v>
       </c>
     </row>
     <row r="740">
@@ -6347,7 +6349,7 @@
         <v>2.578971499832333</v>
       </c>
       <c r="B740" t="n">
-        <v>-168.2029487279494</v>
+        <v>-136.6259461025667</v>
       </c>
     </row>
     <row r="741">
@@ -6355,7 +6357,7 @@
         <v>2.582466041160019</v>
       </c>
       <c r="B741" t="n">
-        <v>-178.2624840298354</v>
+        <v>-135.2767999721063</v>
       </c>
     </row>
     <row r="742">
@@ -6363,7 +6365,7 @@
         <v>2.585960582487705</v>
       </c>
       <c r="B742" t="n">
-        <v>-169.9193866086828</v>
+        <v>-134.0952748567626</v>
       </c>
     </row>
     <row r="743">
@@ -6371,7 +6373,7 @@
         <v>2.589455123815391</v>
       </c>
       <c r="B743" t="n">
-        <v>-164.0986413581765</v>
+        <v>-133.12382813807</v>
       </c>
     </row>
     <row r="744">
@@ -6379,7 +6381,7 @@
         <v>2.592949665143077</v>
       </c>
       <c r="B744" t="n">
-        <v>-160.862228748123</v>
+        <v>-132.3363248768964</v>
       </c>
     </row>
     <row r="745">
@@ -6387,7 +6389,7 @@
         <v>2.596444206470764</v>
       </c>
       <c r="B745" t="n">
-        <v>-158.8111345698991</v>
+        <v>-131.6939797435022</v>
       </c>
     </row>
     <row r="746">
@@ -6395,7 +6397,7 @@
         <v>2.59993874779845</v>
       </c>
       <c r="B746" t="n">
-        <v>-157.4788171861271</v>
+        <v>-131.160629574393</v>
       </c>
     </row>
     <row r="747">
@@ -6403,7 +6405,7 @@
         <v>2.603433289126136</v>
       </c>
       <c r="B747" t="n">
-        <v>-156.6625379786623</v>
+        <v>-130.7064695291314</v>
       </c>
     </row>
     <row r="748">
@@ -6411,7 +6413,7 @@
         <v>2.606927830453822</v>
       </c>
       <c r="B748" t="n">
-        <v>-156.2636483620693</v>
+        <v>-130.3087974501992</v>
       </c>
     </row>
     <row r="749">
@@ -6419,7 +6421,7 @@
         <v>2.610422371781508</v>
       </c>
       <c r="B749" t="n">
-        <v>-156.2362820290292</v>
+        <v>-129.9519587330533</v>
       </c>
     </row>
     <row r="750">
@@ -6427,7 +6429,7 @@
         <v>2.613916913109194</v>
       </c>
       <c r="B750" t="n">
-        <v>-156.5691308954221</v>
+        <v>-129.6268903746398</v>
       </c>
     </row>
     <row r="751">
@@ -6435,7 +6437,7 @@
         <v>2.61741145443688</v>
       </c>
       <c r="B751" t="n">
-        <v>-157.2816911971263</v>
+        <v>-129.3302696101101</v>
       </c>
     </row>
     <row r="752">
@@ -6443,7 +6445,7 @@
         <v>2.620905995764566</v>
       </c>
       <c r="B752" t="n">
-        <v>-158.4317669159334</v>
+        <v>-129.0633318304936</v>
       </c>
     </row>
     <row r="753">
@@ -6451,7 +6453,7 @@
         <v>2.624400537092252</v>
       </c>
       <c r="B753" t="n">
-        <v>-160.1407459430407</v>
+        <v>-128.8305288545723</v>
       </c>
     </row>
     <row r="754">
@@ -6459,7 +6461,7 @@
         <v>2.627895078419938</v>
       </c>
       <c r="B754" t="n">
-        <v>-162.6640959283243</v>
+        <v>-128.6382488251182</v>
       </c>
     </row>
     <row r="755">
@@ -6467,7 +6469,7 @@
         <v>2.631389619747624</v>
       </c>
       <c r="B755" t="n">
-        <v>-166.6190618468547</v>
+        <v>-128.4937744917497</v>
       </c>
     </row>
     <row r="756">
@@ -6475,7 +6477,7 @@
         <v>2.63488416107531</v>
       </c>
       <c r="B756" t="n">
-        <v>-173.8003931248534</v>
+        <v>-128.4045566364352</v>
       </c>
     </row>
     <row r="757">
@@ -6483,7 +6485,7 @@
         <v>2.638378702402997</v>
       </c>
       <c r="B757" t="n">
-        <v>-174.7154043979266</v>
+        <v>-128.3778073788519</v>
       </c>
     </row>
     <row r="758">
@@ -6491,7 +6493,7 @@
         <v>2.641873243730683</v>
       </c>
       <c r="B758" t="n">
-        <v>-167.2341017776766</v>
+        <v>-128.4203331727292</v>
       </c>
     </row>
     <row r="759">
@@ -6499,7 +6501,7 @@
         <v>2.645367785058369</v>
       </c>
       <c r="B759" t="n">
-        <v>-163.1966941097973</v>
+        <v>-128.5385399404588</v>
       </c>
     </row>
     <row r="760">
@@ -6507,7 +6509,7 @@
         <v>2.648862326386055</v>
       </c>
       <c r="B760" t="n">
-        <v>-160.6708061858113</v>
+        <v>-128.7385123906559</v>
       </c>
     </row>
     <row r="761">
@@ -6515,7 +6517,7 @@
         <v>2.652356867713741</v>
       </c>
       <c r="B761" t="n">
-        <v>-158.9772432161928</v>
+        <v>-129.0261020732643</v>
       </c>
     </row>
     <row r="762">
@@ -6523,7 +6525,7 @@
         <v>2.655851409041427</v>
       </c>
       <c r="B762" t="n">
-        <v>-157.8357551148161</v>
+        <v>-129.4069184370867</v>
       </c>
     </row>
     <row r="763">
@@ -6531,7 +6533,7 @@
         <v>2.659345950369113</v>
       </c>
       <c r="B763" t="n">
-        <v>-157.1092400696451</v>
+        <v>-129.8860943277436</v>
       </c>
     </row>
     <row r="764">
@@ -6539,7 +6541,7 @@
         <v>2.662840491696799</v>
       </c>
       <c r="B764" t="n">
-        <v>-156.725284451161</v>
+        <v>-130.4675795113959</v>
       </c>
     </row>
     <row r="765">
@@ -6547,7 +6549,7 @@
         <v>2.666335033024485</v>
       </c>
       <c r="B765" t="n">
-        <v>-156.6468499018423</v>
+        <v>-131.1524976756633</v>
       </c>
     </row>
     <row r="766">
@@ -6555,7 +6557,7 @@
         <v>2.669829574352172</v>
       </c>
       <c r="B766" t="n">
-        <v>-156.8604630270015</v>
+        <v>-131.9356974188105</v>
       </c>
     </row>
     <row r="767">
@@ -6563,7 +6565,7 @@
         <v>2.673324115679857</v>
       </c>
       <c r="B767" t="n">
-        <v>-157.3725873135919</v>
+        <v>-132.7990150658081</v>
       </c>
     </row>
     <row r="768">
@@ -6571,7 +6573,7 @@
         <v>2.676818657007543</v>
       </c>
       <c r="B768" t="n">
-        <v>-158.2116992946649</v>
+        <v>-133.6994444440934</v>
       </c>
     </row>
     <row r="769">
@@ -6579,7 +6581,7 @@
         <v>2.68031319833523</v>
       </c>
       <c r="B769" t="n">
-        <v>-159.4373277112548</v>
+        <v>-134.5526996871945</v>
       </c>
     </row>
     <row r="770">
@@ -6587,7 +6589,7 @@
         <v>2.683807739662916</v>
       </c>
       <c r="B770" t="n">
-        <v>-161.1627287728201</v>
+        <v>-135.2235994893259</v>
       </c>
     </row>
     <row r="771">
@@ -6595,7 +6597,7 @@
         <v>2.687302280990602</v>
       </c>
       <c r="B771" t="n">
-        <v>-163.6120211002517</v>
+        <v>-135.5545741536369</v>
       </c>
     </row>
     <row r="772">
@@ -6603,7 +6605,7 @@
         <v>2.690796822318288</v>
       </c>
       <c r="B772" t="n">
-        <v>-167.2832455561025</v>
+        <v>-135.4515624703279</v>
       </c>
     </row>
     <row r="773">
@@ -6611,7 +6613,7 @@
         <v>2.694291363645974</v>
       </c>
       <c r="B773" t="n">
-        <v>-173.3374633754472</v>
+        <v>-134.9571301487003</v>
       </c>
     </row>
     <row r="774">
@@ -6619,7 +6621,7 @@
         <v>2.69778590497366</v>
       </c>
       <c r="B774" t="n">
-        <v>-175.8610809798958</v>
+        <v>-134.2150960748504</v>
       </c>
     </row>
     <row r="775">
@@ -6627,7 +6629,7 @@
         <v>2.701280446301346</v>
       </c>
       <c r="B775" t="n">
-        <v>-169.0935627544089</v>
+        <v>-133.3756308365367</v>
       </c>
     </row>
     <row r="776">
@@ -6635,7 +6637,7 @@
         <v>2.704774987629032</v>
       </c>
       <c r="B776" t="n">
-        <v>-164.9179800408729</v>
+        <v>-132.5426872796365</v>
       </c>
     </row>
     <row r="777">
@@ -6643,7 +6645,7 @@
         <v>2.708269528956718</v>
       </c>
       <c r="B777" t="n">
-        <v>-162.2454927340384</v>
+        <v>-131.7730827125092</v>
       </c>
     </row>
     <row r="778">
@@ -6651,7 +6653,7 @@
         <v>2.711764070284405</v>
       </c>
       <c r="B778" t="n">
-        <v>-160.4031692491388</v>
+        <v>-131.0926814288571</v>
       </c>
     </row>
     <row r="779">
@@ -6659,7 +6661,7 @@
         <v>2.715258611612091</v>
       </c>
       <c r="B779" t="n">
-        <v>-159.0987726331832</v>
+        <v>-130.5104976148994</v>
       </c>
     </row>
     <row r="780">
@@ -6667,7 +6669,7 @@
         <v>2.718753152939777</v>
       </c>
       <c r="B780" t="n">
-        <v>-158.1855357112707</v>
+        <v>-130.0273345456635</v>
       </c>
     </row>
     <row r="781">
@@ -6675,7 +6677,7 @@
         <v>2.722247694267463</v>
       </c>
       <c r="B781" t="n">
-        <v>-157.5821088626116</v>
+        <v>-129.6404013087692</v>
       </c>
     </row>
     <row r="782">
@@ -6683,7 +6685,7 @@
         <v>2.725742235595149</v>
       </c>
       <c r="B782" t="n">
-        <v>-157.2413455598516</v>
+        <v>-129.3456340010779</v>
       </c>
     </row>
     <row r="783">
@@ -6691,7 +6693,7 @@
         <v>2.729236776922835</v>
       </c>
       <c r="B783" t="n">
-        <v>-157.1365724352613</v>
+        <v>-129.1388121958116</v>
       </c>
     </row>
     <row r="784">
@@ -6699,7 +6701,7 @@
         <v>2.732731318250521</v>
       </c>
       <c r="B784" t="n">
-        <v>-157.2552784553713</v>
+        <v>-129.0160682474882</v>
       </c>
     </row>
     <row r="785">
@@ -6707,7 +6709,7 @@
         <v>2.736225859578207</v>
       </c>
       <c r="B785" t="n">
-        <v>-157.5965445149361</v>
+        <v>-128.9741008688536</v>
       </c>
     </row>
     <row r="786">
@@ -6715,7 +6717,7 @@
         <v>2.739720400905893</v>
       </c>
       <c r="B786" t="n">
-        <v>-158.1710196342018</v>
+        <v>-129.010239366142</v>
       </c>
     </row>
     <row r="787">
@@ -6723,7 +6725,7 @@
         <v>2.743214942233579</v>
       </c>
       <c r="B787" t="n">
-        <v>-159.003355589046</v>
+        <v>-129.1224397499114</v>
       </c>
     </row>
     <row r="788">
@@ -6731,7 +6733,7 @@
         <v>2.746709483561265</v>
       </c>
       <c r="B788" t="n">
-        <v>-160.1382180516869</v>
+        <v>-129.3092430528727</v>
       </c>
     </row>
     <row r="789">
@@ -6739,7 +6741,7 @@
         <v>2.750204024888951</v>
       </c>
       <c r="B789" t="n">
-        <v>-161.6531949177374</v>
+        <v>-129.5697039360878</v>
       </c>
     </row>
     <row r="790">
@@ -6747,7 +6749,7 @@
         <v>2.753698566216638</v>
       </c>
       <c r="B790" t="n">
-        <v>-163.6868776244123</v>
+        <v>-129.903291215425</v>
       </c>
     </row>
     <row r="791">
@@ -6755,7 +6757,7 @@
         <v>2.757193107544324</v>
       </c>
       <c r="B791" t="n">
-        <v>-166.5039377525625</v>
+        <v>-130.3097357687065</v>
       </c>
     </row>
     <row r="792">
@@ -6763,7 +6765,7 @@
         <v>2.76068764887201</v>
       </c>
       <c r="B792" t="n">
-        <v>-170.6243404095494</v>
+        <v>-130.7887936473401</v>
       </c>
     </row>
     <row r="793">
@@ -6771,7 +6773,7 @@
         <v>2.764182190199696</v>
       </c>
       <c r="B793" t="n">
-        <v>-175.9063776485149</v>
+        <v>-131.339856051657</v>
       </c>
     </row>
     <row r="794">
@@ -6779,7 +6781,7 @@
         <v>2.767676731527382</v>
       </c>
       <c r="B794" t="n">
-        <v>-173.6991500580068</v>
+        <v>-131.9613022306102</v>
       </c>
     </row>
     <row r="795">
@@ -6787,7 +6789,7 @@
         <v>2.771171272855068</v>
       </c>
       <c r="B795" t="n">
-        <v>-168.7734273686225</v>
+        <v>-132.6494365102775</v>
       </c>
     </row>
     <row r="796">
@@ -6795,7 +6797,7 @@
         <v>2.774665814182754</v>
       </c>
       <c r="B796" t="n">
-        <v>-165.4560150724721</v>
+        <v>-133.3967561349197</v>
       </c>
     </row>
     <row r="797">
@@ -6803,7 +6805,7 @@
         <v>2.77816035551044</v>
       </c>
       <c r="B797" t="n">
-        <v>-163.1562939801711</v>
+        <v>-134.1892612612982</v>
       </c>
     </row>
     <row r="798">
@@ -6811,7 +6813,7 @@
         <v>2.781654896838126</v>
       </c>
       <c r="B798" t="n">
-        <v>-161.4838998736332</v>
+        <v>-135.002658889021</v>
       </c>
     </row>
     <row r="799">
@@ -6819,7 +6821,7 @@
         <v>2.785149438165812</v>
       </c>
       <c r="B799" t="n">
-        <v>-160.2390456507694</v>
+        <v>-135.7979661902613</v>
       </c>
     </row>
     <row r="800">
@@ -6827,7 +6829,7 @@
         <v>2.788643979493498</v>
       </c>
       <c r="B800" t="n">
-        <v>-159.3109309823163</v>
+        <v>-136.5188346784594</v>
       </c>
     </row>
     <row r="801">
@@ -6835,7 +6837,7 @@
         <v>2.792138520821184</v>
       </c>
       <c r="B801" t="n">
-        <v>-158.6332659840439</v>
+        <v>-137.095724913157</v>
       </c>
     </row>
     <row r="802">
@@ -6843,7 +6845,7 @@
         <v>2.795633062148871</v>
       </c>
       <c r="B802" t="n">
-        <v>-158.1643081685714</v>
+        <v>-137.4624806513177</v>
       </c>
     </row>
     <row r="803">
@@ -6851,7 +6853,7 @@
         <v>2.799127603476557</v>
       </c>
       <c r="B803" t="n">
-        <v>-157.8771225861362</v>
+        <v>-137.5824744886116</v>
       </c>
     </row>
     <row r="804">
@@ -6859,7 +6861,7 @@
         <v>2.802622144804243</v>
       </c>
       <c r="B804" t="n">
-        <v>-157.7544891742571</v>
+        <v>-137.4668650974193</v>
       </c>
     </row>
     <row r="805">
@@ -6867,7 +6869,7 @@
         <v>2.806116686131929</v>
       </c>
       <c r="B805" t="n">
-        <v>-157.7862234750494</v>
+        <v>-137.1683160334657</v>
       </c>
     </row>
     <row r="806">
@@ -6875,7 +6877,7 @@
         <v>2.809611227459615</v>
       </c>
       <c r="B806" t="n">
-        <v>-157.9677309386641</v>
+        <v>-136.7561968442481</v>
       </c>
     </row>
     <row r="807">
@@ -6883,7 +6885,7 @@
         <v>2.813105768787301</v>
       </c>
       <c r="B807" t="n">
-        <v>-158.2994800100615</v>
+        <v>-136.2936439334496</v>
       </c>
     </row>
     <row r="808">
@@ -6891,7 +6893,7 @@
         <v>2.816600310114987</v>
       </c>
       <c r="B808" t="n">
-        <v>-158.787134943286</v>
+        <v>-135.8272857323657</v>
       </c>
     </row>
     <row r="809">
@@ -6899,7 +6901,7 @@
         <v>2.820094851442673</v>
       </c>
       <c r="B809" t="n">
-        <v>-159.4424110945176</v>
+        <v>-135.3870885810703</v>
       </c>
     </row>
     <row r="810">
@@ -6907,7 +6909,7 @@
         <v>2.823589392770359</v>
       </c>
       <c r="B810" t="n">
-        <v>-160.284892303815</v>
+        <v>-134.990288259682</v>
       </c>
     </row>
     <row r="811">
@@ -6915,7 +6917,7 @@
         <v>2.827083934098045</v>
       </c>
       <c r="B811" t="n">
-        <v>-161.3453625208633</v>
+        <v>-134.6456203291073</v>
       </c>
     </row>
     <row r="812">
@@ -6923,7 +6925,7 @@
         <v>2.830578475425731</v>
       </c>
       <c r="B812" t="n">
-        <v>-162.6718256512179</v>
+        <v>-134.3565611217904</v>
       </c>
     </row>
     <row r="813">
@@ -6931,7 +6933,7 @@
         <v>2.834073016753417</v>
       </c>
       <c r="B813" t="n">
-        <v>-164.3403402722896</v>
+        <v>-134.1234845495476</v>
       </c>
     </row>
     <row r="814">
@@ -6939,7 +6941,7 @@
         <v>2.837567558081104</v>
       </c>
       <c r="B814" t="n">
-        <v>-166.4742255471687</v>
+        <v>-133.9450027956676</v>
       </c>
     </row>
     <row r="815">
@@ -6947,7 +6949,7 @@
         <v>2.84106209940879</v>
       </c>
       <c r="B815" t="n">
-        <v>-169.2668218214087</v>
+        <v>-133.8187461321965</v>
       </c>
     </row>
     <row r="816">
@@ -6955,7 +6957,7 @@
         <v>2.844556640736476</v>
       </c>
       <c r="B816" t="n">
-        <v>-172.8666064730648</v>
+        <v>-133.7418078470473</v>
       </c>
     </row>
     <row r="817">
@@ -6963,7 +6965,7 @@
         <v>2.848051182064162</v>
       </c>
       <c r="B817" t="n">
-        <v>-175.7577362627172</v>
+        <v>-133.7109844080434</v>
       </c>
     </row>
     <row r="818">
@@ -6971,7 +6973,7 @@
         <v>2.851545723391848</v>
       </c>
       <c r="B818" t="n">
-        <v>-173.7572693634212</v>
+        <v>-133.7228710594682</v>
       </c>
     </row>
     <row r="819">
@@ -6979,7 +6981,7 @@
         <v>2.855040264719534</v>
       </c>
       <c r="B819" t="n">
-        <v>-170.2122490748704</v>
+        <v>-133.7738936132912</v>
       </c>
     </row>
     <row r="820">
@@ -6987,7 +6989,7 @@
         <v>2.85853480604722</v>
       </c>
       <c r="B820" t="n">
-        <v>-167.4208192059081</v>
+        <v>-133.8602890373492</v>
       </c>
     </row>
     <row r="821">
@@ -6995,7 +6997,7 @@
         <v>2.862029347374906</v>
       </c>
       <c r="B821" t="n">
-        <v>-165.3240102625508</v>
+        <v>-133.9780557853475</v>
       </c>
     </row>
     <row r="822">
@@ -7003,7 +7005,7 @@
         <v>2.865523888702592</v>
       </c>
       <c r="B822" t="n">
-        <v>-163.7131478422104</v>
+        <v>-134.1228934090505</v>
       </c>
     </row>
     <row r="823">
@@ -7011,7 +7013,7 @@
         <v>2.869018430030279</v>
       </c>
       <c r="B823" t="n">
-        <v>-162.4495441079668</v>
+        <v>-134.2901408938463</v>
       </c>
     </row>
     <row r="824">
@@ -7019,7 +7021,7 @@
         <v>2.872512971357965</v>
       </c>
       <c r="B824" t="n">
-        <v>-161.4462544922775</v>
+        <v>-134.4747201202845</v>
       </c>
     </row>
     <row r="825">
@@ -7027,7 +7029,7 @@
         <v>2.876007512685651</v>
       </c>
       <c r="B825" t="n">
-        <v>-160.6469949758116</v>
+        <v>-134.6711159765935</v>
       </c>
     </row>
     <row r="826">
@@ -7035,7 +7037,7 @@
         <v>2.879502054013336</v>
       </c>
       <c r="B826" t="n">
-        <v>-160.013768761898</v>
+        <v>-134.8733949326199</v>
       </c>
     </row>
     <row r="827">
@@ -7043,7 +7045,7 @@
         <v>2.882996595341023</v>
       </c>
       <c r="B827" t="n">
-        <v>-159.5200303266138</v>
+        <v>-135.0752815991974</v>
       </c>
     </row>
     <row r="828">
@@ -7051,7 +7053,7 @@
         <v>2.886491136668709</v>
       </c>
       <c r="B828" t="n">
-        <v>-159.1466477179223</v>
+        <v>-135.2703276135561</v>
       </c>
     </row>
     <row r="829">
@@ -7059,7 +7061,7 @@
         <v>2.889985677996395</v>
       </c>
       <c r="B829" t="n">
-        <v>-158.8796041557154</v>
+        <v>-135.4521524760881</v>
       </c>
     </row>
     <row r="830">
@@ -7067,7 +7069,7 @@
         <v>2.893480219324081</v>
       </c>
       <c r="B830" t="n">
-        <v>-158.7084677886078</v>
+        <v>-135.614778489702</v>
       </c>
     </row>
     <row r="831">
@@ -7075,7 +7077,7 @@
         <v>2.896974760651767</v>
       </c>
       <c r="B831" t="n">
-        <v>-158.6254795263795</v>
+        <v>-135.7530004815035</v>
       </c>
     </row>
     <row r="832">
@@ -7083,7 +7085,7 @@
         <v>2.900469301979453</v>
       </c>
       <c r="B832" t="n">
-        <v>-158.624934671492</v>
+        <v>-135.8627616374899</v>
       </c>
     </row>
     <row r="833">
@@ -7091,7 +7093,7 @@
         <v>2.903963843307139</v>
       </c>
       <c r="B833" t="n">
-        <v>-158.702792231949</v>
+        <v>-135.9414680162971</v>
       </c>
     </row>
     <row r="834">
@@ -7099,7 +7101,7 @@
         <v>2.907458384634825</v>
       </c>
       <c r="B834" t="n">
-        <v>-158.8564003957748</v>
+        <v>-135.9881608993637</v>
       </c>
     </row>
     <row r="835">
@@ -7107,7 +7109,7 @@
         <v>2.910952925962512</v>
       </c>
       <c r="B835" t="n">
-        <v>-159.0843723780364</v>
+        <v>-136.0035332872342</v>
       </c>
     </row>
     <row r="836">
@@ -7115,7 +7117,7 @@
         <v>2.914447467290198</v>
       </c>
       <c r="B836" t="n">
-        <v>-159.3865080113802</v>
+        <v>-135.989764103124</v>
       </c>
     </row>
     <row r="837">
@@ -7123,7 +7125,7 @@
         <v>2.917942008617884</v>
       </c>
       <c r="B837" t="n">
-        <v>-159.7638003780036</v>
+        <v>-135.9502213348931</v>
       </c>
     </row>
     <row r="838">
@@ -7131,7 +7133,7 @@
         <v>2.92143654994557</v>
       </c>
       <c r="B838" t="n">
-        <v>-160.2185182707267</v>
+        <v>-135.8890777565156</v>
       </c>
     </row>
     <row r="839">
@@ -7139,7 +7141,7 @@
         <v>2.924931091273256</v>
       </c>
       <c r="B839" t="n">
-        <v>-160.7543712749737</v>
+        <v>-135.8109205676594</v>
       </c>
     </row>
     <row r="840">
@@ -7147,7 +7149,7 @@
         <v>2.928425632600942</v>
       </c>
       <c r="B840" t="n">
-        <v>-161.3767674893379</v>
+        <v>-135.7203967181908</v>
       </c>
     </row>
     <row r="841">
@@ -7155,7 +7157,7 @@
         <v>2.931920173928628</v>
       </c>
       <c r="B841" t="n">
-        <v>-162.0931671696915</v>
+        <v>-135.6219373125396</v>
       </c>
     </row>
     <row r="842">
@@ -7163,7 +7165,7 @@
         <v>2.935414715256314</v>
       </c>
       <c r="B842" t="n">
-        <v>-162.9136495506134</v>
+        <v>-135.519561224938</v>
       </c>
     </row>
     <row r="843">
@@ -7171,7 +7173,7 @@
         <v>2.938909256584</v>
       </c>
       <c r="B843" t="n">
-        <v>-163.8515925343214</v>
+        <v>-135.4167696507547</v>
       </c>
     </row>
     <row r="844">
@@ -7179,7 +7181,7 @@
         <v>2.942403797911686</v>
       </c>
       <c r="B844" t="n">
-        <v>-164.9245898799564</v>
+        <v>-135.3164968109503</v>
       </c>
     </row>
     <row r="845">
@@ -7187,7 +7189,7 @@
         <v>2.945898339239372</v>
       </c>
       <c r="B845" t="n">
-        <v>-166.1552951577345</v>
+        <v>-135.2211135116084</v>
       </c>
     </row>
     <row r="846">
@@ -7195,7 +7197,7 @@
         <v>2.949392880567058</v>
       </c>
       <c r="B846" t="n">
-        <v>-167.5713799257598</v>
+        <v>-135.1324621129845</v>
       </c>
     </row>
     <row r="847">
@@ -7203,7 +7205,7 @@
         <v>2.952887421894745</v>
       </c>
       <c r="B847" t="n">
-        <v>-169.2010905674918</v>
+        <v>-135.0519067456184</v>
       </c>
     </row>
     <row r="848">
@@ -7211,7 +7213,7 @@
         <v>2.956381963222431</v>
       </c>
       <c r="B848" t="n">
-        <v>-171.0520889605916</v>
+        <v>-134.9803923019304</v>
       </c>
     </row>
     <row r="849">
@@ -7219,7 +7221,7 @@
         <v>2.959876504550117</v>
       </c>
       <c r="B849" t="n">
-        <v>-173.0331411885216</v>
+        <v>-134.9185043619087</v>
       </c>
     </row>
     <row r="850">
@@ -7227,7 +7229,7 @@
         <v>2.963371045877803</v>
       </c>
       <c r="B850" t="n">
-        <v>-174.7417520342646</v>
+        <v>-134.8665237109345</v>
       </c>
     </row>
     <row r="851">
@@ -7235,7 +7237,7 @@
         <v>2.966865587205489</v>
       </c>
       <c r="B851" t="n">
-        <v>-175.3342316869689</v>
+        <v>-134.8244727237225</v>
       </c>
     </row>
     <row r="852">
@@ -7243,7 +7245,7 @@
         <v>2.970360128533175</v>
       </c>
       <c r="B852" t="n">
-        <v>-174.4371696653853</v>
+        <v>-134.792168220078</v>
       </c>
     </row>
     <row r="853">
@@ -7251,7 +7253,7 @@
         <v>2.973854669860861</v>
       </c>
       <c r="B853" t="n">
-        <v>-172.7868642989946</v>
+        <v>-134.769253234362</v>
       </c>
     </row>
     <row r="854">
@@ -7259,7 +7261,7 @@
         <v>2.977349211188547</v>
       </c>
       <c r="B854" t="n">
-        <v>-171.0787096487266</v>
+        <v>-134.7552308556198</v>
       </c>
     </row>
     <row r="855">
@@ -7267,7 +7269,7 @@
         <v>2.980843752516233</v>
       </c>
       <c r="B855" t="n">
-        <v>-169.5536640254912</v>
+        <v>-134.7494943563608</v>
       </c>
     </row>
     <row r="856">
@@ -7275,7 +7277,7 @@
         <v>2.984338293843919</v>
       </c>
       <c r="B856" t="n">
-        <v>-168.2452966799398</v>
+        <v>-134.7513481548604</v>
       </c>
     </row>
     <row r="857">
@@ -7283,7 +7285,7 @@
         <v>2.987832835171605</v>
       </c>
       <c r="B857" t="n">
-        <v>-167.1311842214093</v>
+        <v>-134.7600331310344</v>
       </c>
     </row>
     <row r="858">
@@ -7291,7 +7293,7 @@
         <v>2.991327376499291</v>
       </c>
       <c r="B858" t="n">
-        <v>-166.1803918682487</v>
+        <v>-134.7747448323306</v>
       </c>
     </row>
     <row r="859">
@@ -7299,7 +7301,7 @@
         <v>2.994821917826977</v>
       </c>
       <c r="B859" t="n">
-        <v>-165.3652159087095</v>
+        <v>-134.7946470861486</v>
       </c>
     </row>
     <row r="860">
@@ -7307,7 +7309,7 @@
         <v>2.998316459154664</v>
       </c>
       <c r="B860" t="n">
-        <v>-164.6631435811917</v>
+        <v>-134.8188914315921</v>
       </c>
     </row>
     <row r="861">
@@ -7315,7 +7317,7 @@
         <v>3.00181100048235</v>
       </c>
       <c r="B861" t="n">
-        <v>-164.0562972174532</v>
+        <v>-134.8466299099968</v>
       </c>
     </row>
     <row r="862">
@@ -7323,7 +7325,7 @@
         <v>3.005305541810036</v>
       </c>
       <c r="B862" t="n">
-        <v>-163.5305029080495</v>
+        <v>-134.8770311544034</v>
       </c>
     </row>
     <row r="863">
@@ -7331,7 +7333,7 @@
         <v>3.008800083137722</v>
       </c>
       <c r="B863" t="n">
-        <v>-163.0744100104648</v>
+        <v>-134.9092913017193</v>
       </c>
     </row>
     <row r="864">
@@ -7339,7 +7341,7 @@
         <v>3.012294624465408</v>
       </c>
       <c r="B864" t="n">
-        <v>-162.6788383343559</v>
+        <v>-134.9426459413014</v>
       </c>
     </row>
     <row r="865">
@@ -7347,7 +7349,7 @@
         <v>3.015789165793094</v>
       </c>
       <c r="B865" t="n">
-        <v>-162.3362699905941</v>
+        <v>-134.9763839419556</v>
       </c>
     </row>
     <row r="866">
@@ -7355,7 +7357,7 @@
         <v>3.01928370712078</v>
       </c>
       <c r="B866" t="n">
-        <v>-162.0404701530026</v>
+        <v>-135.009854880813</v>
       </c>
     </row>
     <row r="867">
@@ -7363,7 +7365,7 @@
         <v>3.022778248448466</v>
       </c>
       <c r="B867" t="n">
-        <v>-161.7862062664745</v>
+        <v>-135.0424794317712</v>
       </c>
     </row>
     <row r="868">
@@ -7371,7 +7373,7 @@
         <v>3.026272789776153</v>
       </c>
       <c r="B868" t="n">
-        <v>-161.5690378688861</v>
+        <v>-135.073757991293</v>
       </c>
     </row>
     <row r="869">
@@ -7379,7 +7381,7 @@
         <v>3.029767331103839</v>
       </c>
       <c r="B869" t="n">
-        <v>-161.3851557962879</v>
+        <v>-135.1032713502861</v>
       </c>
     </row>
     <row r="870">
@@ -7387,7 +7389,7 @@
         <v>3.033261872431525</v>
       </c>
       <c r="B870" t="n">
-        <v>-161.2312655144397</v>
+        <v>-135.1306923243552</v>
       </c>
     </row>
     <row r="871">
@@ -7395,7 +7397,7 @@
         <v>3.03675641375921</v>
       </c>
       <c r="B871" t="n">
-        <v>-161.1044904550981</v>
+        <v>-135.155778655872</v>
       </c>
     </row>
     <row r="872">
@@ -7403,7 +7405,7 @@
         <v>3.040250955086897</v>
       </c>
       <c r="B872" t="n">
-        <v>-161.0022994605954</v>
+        <v>-135.1783803535422</v>
       </c>
     </row>
     <row r="873">
@@ -7411,7 +7413,7 @@
         <v>3.043745496414583</v>
       </c>
       <c r="B873" t="n">
-        <v>-160.9224506737244</v>
+        <v>-135.1984331671943</v>
       </c>
     </row>
     <row r="874">
@@ -7419,7 +7421,7 @@
         <v>3.047240037742269</v>
       </c>
       <c r="B874" t="n">
-        <v>-160.8629408374974</v>
+        <v>-135.2159564039314</v>
       </c>
     </row>
     <row r="875">
@@ -7427,7 +7429,7 @@
         <v>3.050734579069955</v>
       </c>
       <c r="B875" t="n">
-        <v>-160.8219763795896</v>
+        <v>-135.2310487742954</v>
       </c>
     </row>
     <row r="876">
@@ -7435,7 +7437,7 @@
         <v>3.054229120397641</v>
       </c>
       <c r="B876" t="n">
-        <v>-160.7979436216851</v>
+        <v>-135.2438796073625</v>
       </c>
     </row>
     <row r="877">
@@ -7443,7 +7445,7 @@
         <v>3.057723661725327</v>
       </c>
       <c r="B877" t="n">
-        <v>-160.7893882673859</v>
+        <v>-135.2546862162896</v>
       </c>
     </row>
     <row r="878">
@@ -7451,7 +7453,7 @@
         <v>3.061218203053013</v>
       </c>
       <c r="B878" t="n">
-        <v>-160.794985643807</v>
+        <v>-135.2637612749141</v>
       </c>
     </row>
     <row r="879">
@@ -7459,7 +7461,7 @@
         <v>3.064712744380699</v>
       </c>
       <c r="B879" t="n">
-        <v>-160.8135433023557</v>
+        <v>-135.2714523179045</v>
       </c>
     </row>
     <row r="880">
@@ -7467,7 +7469,7 @@
         <v>3.068207285708386</v>
       </c>
       <c r="B880" t="n">
-        <v>-160.843980666718</v>
+        <v>-135.2781495375664</v>
       </c>
     </row>
     <row r="881">
@@ -7475,7 +7477,7 @@
         <v>3.071701827036072</v>
       </c>
       <c r="B881" t="n">
-        <v>-160.8853315557235</v>
+        <v>-135.284286170218</v>
       </c>
     </row>
     <row r="882">
@@ -7483,7 +7485,7 @@
         <v>3.075196368363758</v>
       </c>
       <c r="B882" t="n">
-        <v>-160.9367254149393</v>
+        <v>-135.2903294200873</v>
       </c>
     </row>
     <row r="883">
@@ -7491,7 +7493,7 @@
         <v>3.078690909691444</v>
       </c>
       <c r="B883" t="n">
-        <v>-160.9973975100265</v>
+        <v>-135.296784682142</v>
       </c>
     </row>
     <row r="884">
@@ -7499,7 +7501,7 @@
         <v>3.08218545101913</v>
       </c>
       <c r="B884" t="n">
-        <v>-161.0666912261133</v>
+        <v>-135.3041909045588</v>
       </c>
     </row>
     <row r="885">
@@ -7507,7 +7509,7 @@
         <v>3.085679992346816</v>
       </c>
       <c r="B885" t="n">
-        <v>-161.1440580711922</v>
+        <v>-135.3131282194431</v>
       </c>
     </row>
     <row r="886">
@@ -7515,7 +7517,7 @@
         <v>3.089174533674502</v>
       </c>
       <c r="B886" t="n">
-        <v>-161.2290639633457</v>
+        <v>-135.3242245926011</v>
       </c>
     </row>
     <row r="887">
@@ -7523,7 +7525,7 @@
         <v>3.092669075002188</v>
       </c>
       <c r="B887" t="n">
-        <v>-161.3214193135925</v>
+        <v>-135.3381702351621</v>
       </c>
     </row>
     <row r="888">
@@ -7531,7 +7533,7 @@
         <v>3.096163616329874</v>
       </c>
       <c r="B888" t="n">
-        <v>-161.4209819188821</v>
+        <v>-135.3557377754832</v>
       </c>
     </row>
     <row r="889">
@@ -7539,7 +7541,7 @@
         <v>3.09965815765756</v>
       </c>
       <c r="B889" t="n">
-        <v>-161.5277985838781</v>
+        <v>-135.3778150205904</v>
       </c>
     </row>
     <row r="890">
@@ -7547,7 +7549,7 @@
         <v>3.103152698985246</v>
       </c>
       <c r="B890" t="n">
-        <v>-161.6421610958906</v>
+        <v>-135.4054505749841</v>
       </c>
     </row>
     <row r="891">
@@ -7555,7 +7557,7 @@
         <v>3.106647240312932</v>
       </c>
       <c r="B891" t="n">
-        <v>-161.7646527006228</v>
+        <v>-135.4399236522617</v>
       </c>
     </row>
     <row r="892">
@@ -7563,7 +7565,7 @@
         <v>3.110141781640618</v>
       </c>
       <c r="B892" t="n">
-        <v>-161.8962862875944</v>
+        <v>-135.4828548379363</v>
       </c>
     </row>
     <row r="893">
@@ -7571,7 +7573,7 @@
         <v>3.113636322968305</v>
       </c>
       <c r="B893" t="n">
-        <v>-162.0386515037744</v>
+        <v>-135.5363772330307</v>
       </c>
     </row>
     <row r="894">
@@ -7579,7 +7581,7 @@
         <v>3.117130864295991</v>
       </c>
       <c r="B894" t="n">
-        <v>-162.1942257348404</v>
+        <v>-135.6034292697543</v>
       </c>
     </row>
     <row r="895">
@@ -7587,7 +7589,7 @@
         <v>3.120625405623677</v>
       </c>
       <c r="B895" t="n">
-        <v>-162.3668755621587</v>
+        <v>-135.6882662261224</v>
       </c>
     </row>
     <row r="896">
@@ -7595,7 +7597,7 @@
         <v>3.124119946951363</v>
       </c>
       <c r="B896" t="n">
-        <v>-162.5628572755231</v>
+        <v>-135.7974513658861</v>
       </c>
     </row>
     <row r="897">
@@ -7603,7 +7605,7 @@
         <v>3.127614488279049</v>
       </c>
       <c r="B897" t="n">
-        <v>-162.7929255599281</v>
+        <v>-135.9419565468324</v>
       </c>
     </row>
     <row r="898">
@@ -7611,7 +7613,7 @@
         <v>3.131109029606735</v>
       </c>
       <c r="B898" t="n">
-        <v>-163.0775454626871</v>
+        <v>-136.1423477746619</v>
       </c>
     </row>
     <row r="899">
@@ -7619,7 +7621,7 @@
         <v>3.134603570934421</v>
       </c>
       <c r="B899" t="n">
-        <v>-163.4630749990026</v>
+        <v>-136.4448270810726</v>
       </c>
     </row>
     <row r="900">
@@ -7627,15 +7629,17 @@
         <v>3.138098112262107</v>
       </c>
       <c r="B900" t="n">
-        <v>-164.0983497390802</v>
+        <v>-136.9969215040243</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="1" t="n">
         <v>3.141592653589793</v>
       </c>
-      <c r="B901" t="n">
-        <v>-175.6404043184873</v>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/RT_radpat_0deg.xlsx
+++ b/RT_radpat_0deg.xlsx
@@ -442,10 +442,8 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-169.1048632188489</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-137.0559721126147</v>
+        <v>-164.0831484600418</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-136.5044016463815</v>
+        <v>-163.454260115886</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-136.2024061472791</v>
+        <v>-163.0708940574098</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-136.0024545178003</v>
+        <v>-162.7873887338272</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-135.858344581059</v>
+        <v>-162.5580291189314</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-135.7495078258241</v>
+        <v>-162.3625643097328</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-135.6649704000346</v>
+        <v>-162.1903255814358</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-135.5981669193525</v>
+        <v>-162.0351063514878</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-135.5448387142899</v>
+        <v>-161.8930619745435</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-135.5020452713545</v>
+        <v>-161.7617379991161</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-135.4676496673497</v>
+        <v>-161.6395410297497</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-135.4400274481563</v>
+        <v>-161.5254815031932</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-135.4178953614592</v>
+        <v>-161.4189628471446</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-135.4001995216075</v>
+        <v>-161.3197129631031</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-135.3860484768829</v>
+        <v>-161.2276804291795</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-135.3746637488918</v>
+        <v>-161.1430076711164</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-135.3653505286075</v>
+        <v>-161.0659942090549</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-135.3574749259745</v>
+        <v>-160.9970628908997</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-135.3504518522998</v>
+        <v>-160.9367757447841</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-135.3437367974413</v>
+        <v>-160.8857862938539</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-135.3368217281491</v>
+        <v>-160.8448618855201</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-135.3292333960935</v>
+        <v>-160.8148728804341</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-135.3205374328078</v>
+        <v>-160.7967901909941</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-135.3103395912849</v>
+        <v>-160.7916931526074</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-135.298292879729</v>
+        <v>-160.800785394484</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-135.2841035547101</v>
+        <v>-160.8253805339794</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-135.2675363562178</v>
+        <v>-160.8669470064143</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-135.2484242562203</v>
+        <v>-160.9271025842211</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-135.2266732836927</v>
+        <v>-161.0076406611186</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-135.2022705926553</v>
+        <v>-161.110575989546</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-135.1752862235522</v>
+        <v>-161.2381501318881</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-135.1458804429268</v>
+        <v>-161.3929114106787</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-135.1143014751711</v>
+        <v>-161.5777456367424</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-135.0808900040803</v>
+        <v>-161.7959541513893</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-135.0460718135074</v>
+        <v>-162.0513716584385</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-135.0103590266419</v>
+        <v>-162.3484516475814</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-134.9743402145589</v>
+        <v>-162.6924627443732</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-134.9386745679469</v>
+        <v>-163.0896714367396</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-134.9040825468529</v>
+        <v>-163.5476498350072</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-134.8713349448153</v>
+        <v>-164.0756334173133</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-134.8412425449046</v>
+        <v>-164.6850537565033</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-134.8146406509128</v>
+        <v>-165.3902202008501</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-134.7923816840279</v>
+        <v>-166.2091793372781</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-134.7753132807802</v>
+        <v>-167.1646688455709</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-134.7642718578835</v>
+        <v>-168.2847170886285</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-134.7600603724015</v>
+        <v>-169.6006493910942</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-134.7634353521896</v>
+        <v>-171.1349534059249</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-134.7750857399938</v>
+        <v>-172.8524627112286</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-134.7956127964309</v>
+        <v>-174.5041679843494</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-134.8255068654542</v>
+        <v>-175.3779187582664</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-134.8651171011713</v>
+        <v>-174.7442387406292</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-134.9146199726137</v>
+        <v>-173.0100317292726</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-134.9739843863079</v>
+        <v>-171.0215134356296</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-135.0429226815859</v>
+        <v>-169.1708011374587</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-135.1208479586634</v>
+        <v>-167.5437022001989</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-135.2068149053744</v>
+        <v>-166.1306907897667</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-135.29946447184</v>
+        <v>-164.9029266916291</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-135.39696658297</v>
+        <v>-163.8326020273623</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-135.496972124364</v>
+        <v>-162.8970469028164</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-135.5965816411743</v>
+        <v>-162.0787082638706</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-135.6923418643439</v>
+        <v>-161.3642466354887</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-135.780296400561</v>
+        <v>-160.743632877623</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-135.8560906605844</v>
+        <v>-160.209431425788</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-135.9151660626425</v>
+        <v>-159.7562701585838</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-135.9530285979851</v>
+        <v>-159.3804635491086</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-135.9655945570344</v>
+        <v>-159.07976557923</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-135.9495718223504</v>
+        <v>-158.8532125572455</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-135.9028312799395</v>
+        <v>-158.7010153014012</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-135.8246970580027</v>
+        <v>-158.6245943681445</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-135.716107613168</v>
+        <v>-158.6266152602308</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-135.5796027485135</v>
+        <v>-158.7111544041511</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-135.4191576578534</v>
+        <v>-158.88394415627</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-135.2398819258337</v>
+        <v>-159.1527936393675</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-135.0476565554467</v>
+        <v>-159.5281805876755</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-134.8487688088064</v>
+        <v>-160.0242238745299</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-134.6495909276829</v>
+        <v>-160.6601476343035</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-134.4563376989165</v>
+        <v>-161.4626968393931</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-134.2749073423822</v>
+        <v>-162.470149982596</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-134.1107913093019</v>
+        <v>-163.7393085455404</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-133.969064798214</v>
+        <v>-165.3580456672204</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-133.8544006456147</v>
+        <v>-167.4668744654625</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-133.7711242605944</v>
+        <v>-170.2777557850191</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-133.7232752443759</v>
+        <v>-173.8464863133399</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-133.7146668773385</v>
+        <v>-175.7953331050975</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-133.7489374663536</v>
+        <v>-172.8311341722909</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-133.8295742962169</v>
+        <v>-169.2278787243766</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-133.9598848707778</v>
+        <v>-166.4423072185281</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-134.142901463308</v>
+        <v>-164.3148303909952</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-134.3811524302514</v>
+        <v>-162.651349201705</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-134.6762249587931</v>
+        <v>-161.3288876147222</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-135.027979666373</v>
+        <v>-160.2717102735384</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-135.4331988408408</v>
+        <v>-159.432046392753</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-135.8833939277859</v>
+        <v>-158.7792666652026</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-136.3614386954748</v>
+        <v>-158.293896525575</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-136.8371181269366</v>
+        <v>-157.9643143020956</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-137.2628406760468</v>
+        <v>-157.7849291382614</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-137.5734564568597</v>
+        <v>-157.7553422648654</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-137.6967478963259</v>
+        <v>-157.8802178978979</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-137.5776196952483</v>
+        <v>-158.1698387730796</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-137.2045634050899</v>
+        <v>-158.6415328099444</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-136.6162795883912</v>
+        <v>-159.322416766768</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-135.8819621651091</v>
+        <v>-160.2545247972936</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-135.0735723775989</v>
+        <v>-161.5046598655059</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-134.2487209359082</v>
+        <v>-163.1846448002202</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-133.4467657611909</v>
+        <v>-165.4965765750691</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-132.6919004716721</v>
+        <v>-168.8368409240786</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-131.9978493370436</v>
+        <v>-173.8048114864726</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-131.3718204943117</v>
+        <v>-175.910848099987</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-130.8172480076504</v>
+        <v>-170.574971966544</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-130.3355394101966</v>
+        <v>-166.4665719511101</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-129.9271432863533</v>
+        <v>-163.6594555468185</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-129.5921845218043</v>
+        <v>-161.6326295479847</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-129.3308477045988</v>
+        <v>-160.1226885079665</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-129.1436113051529</v>
+        <v>-158.9917836127752</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-129.0313898956445</v>
+        <v>-158.1627687971018</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-128.9956372176933</v>
+        <v>-157.5912412382431</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-129.0384149937491</v>
+        <v>-157.252731907206</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-129.1624381147897</v>
+        <v>-157.1367329311261</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-129.3710837379477</v>
+        <v>-157.2442937236154</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-129.6683359889914</v>
+        <v>-157.5880897644896</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-130.0585890750829</v>
+        <v>-158.1950030860653</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-130.5461514256089</v>
+        <v>-159.1125166501671</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-131.1341597159098</v>
+        <v>-160.4225919928638</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-131.8222692811254</v>
+        <v>-162.2733131824933</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-132.6020090905672</v>
+        <v>-164.9602944850506</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-133.4479738687622</v>
+        <v>-169.1674186599844</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-134.3031589639876</v>
+        <v>-175.9932370012336</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-135.0616319852126</v>
+        <v>-173.2788772128478</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-135.5683694223744</v>
+        <v>-167.2375659340001</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-135.6735830270522</v>
+        <v>-163.5812631218944</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-135.3331658667597</v>
+        <v>-161.1410165257152</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-134.6460362664726</v>
+        <v>-159.4217556202323</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-133.7759063004267</v>
+        <v>-158.2007624833758</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-132.8612759914173</v>
+        <v>-157.3654740399182</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-131.9871521675167</v>
+        <v>-156.8567433102415</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-131.1961265224564</v>
+        <v>-156.646363429675</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-130.5057071615455</v>
+        <v>-156.7280884393558</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-129.9204663991971</v>
+        <v>-157.1156115626756</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-129.4388441910915</v>
+        <v>-157.8463047888102</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-129.0565795154573</v>
+        <v>-158.9931292097468</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-128.7683206530692</v>
+        <v>-160.6943000532384</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-128.5683010007644</v>
+        <v>-163.2329376123197</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-128.4505520912952</v>
+        <v>-167.2980310209239</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-128.4088911194592</v>
+        <v>-174.8631431337749</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-128.4368220967485</v>
+        <v>-173.7292262047746</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-128.5274392842751</v>
+        <v>-166.5710483099166</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-128.6734150820741</v>
+        <v>-162.6337362628409</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-128.8671548719416</v>
+        <v>-160.1201846452753</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-129.1012052179282</v>
+        <v>-158.4176789381421</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-129.3689837845801</v>
+        <v>-157.272492566877</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-129.6658314515889</v>
+        <v>-156.5640274873647</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-129.9903128718073</v>
+        <v>-156.2349250321366</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-130.3455756379258</v>
+        <v>-156.2660198405617</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-130.7405370645983</v>
+        <v>-156.668943054226</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-131.1907113872856</v>
+        <v>-157.4899873859455</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-131.7186075014424</v>
+        <v>-158.82858371602</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-132.3536719711609</v>
+        <v>-160.8892196586816</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-133.1313396531978</v>
+        <v>-164.1437252699313</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-134.0889600753094</v>
+        <v>-170.016273851853</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-135.2500228044657</v>
+        <v>-178.2799327226037</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-136.5683007618236</v>
+        <v>-168.1412819920591</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-137.7672143381986</v>
+        <v>-163.0282507530567</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-138.1429747467228</v>
+        <v>-160.0335994153005</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-137.1006976985582</v>
+        <v>-158.0963822789303</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-135.1033383135863</v>
+        <v>-156.8411782452</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-132.9179822422561</v>
+        <v>-156.1044477530379</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-130.8938387060801</v>
+        <v>-155.8137543034485</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-129.1109112357599</v>
+        <v>-155.9493551033155</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-127.5627258536052</v>
+        <v>-156.5350400317141</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-126.2239426461356</v>
+        <v>-157.6482830086996</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-125.0692928002049</v>
+        <v>-159.4608820738123</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-124.0777904099227</v>
+        <v>-162.3687958940149</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-123.232943849297</v>
+        <v>-167.5309091403948</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-122.5220524031819</v>
+        <v>-179.1048275832939</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-121.9354292005661</v>
+        <v>-168.8796450812748</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-121.4657536028552</v>
+        <v>-162.8998705862082</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-121.1075674322661</v>
+        <v>-159.6249650698894</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-120.8568913272648</v>
+        <v>-157.5832516299619</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-120.7109262445019</v>
+        <v>-156.311733942936</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-120.6678106630355</v>
+        <v>-155.6214188169621</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-120.7264063796213</v>
+        <v>-155.4354294540562</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-120.8860875213551</v>
+        <v>-155.7426078587949</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-121.1465058545735</v>
+        <v>-156.5911768132704</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-121.5073020196072</v>
+        <v>-158.1146079653815</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-121.9677319935967</v>
+        <v>-160.6263197312993</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-122.5261749658161</v>
+        <v>-164.9920941849081</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-123.1795073877654</v>
+        <v>-175.1145277096337</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-123.9223771426452</v>
+        <v>-170.7398979992244</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-124.7465274789515</v>
+        <v>-163.2243207689978</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-125.6405433902086</v>
+        <v>-159.496378288232</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-126.590713002714</v>
+        <v>-157.2634795296258</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-127.5839707636097</v>
+        <v>-155.9151283429123</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-128.6137585865793</v>
+        <v>-155.2199740083554</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-129.6887510806033</v>
+        <v>-155.08986911895</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-130.8431259712626</v>
+        <v>-155.5189291114671</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-132.1471806603519</v>
+        <v>-156.5793729789685</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-133.7203121380383</v>
+        <v>-158.4680387465621</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-135.7534204265517</v>
+        <v>-161.6875408629972</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-138.533070876099</v>
+        <v>-167.963300653011</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-142.1272295130952</v>
+        <v>-179.0718300514853</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-143.2076869537811</v>
+        <v>-165.4229293594054</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-139.2249150371364</v>
+        <v>-160.3423335252022</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-135.3297398054563</v>
+        <v>-157.5300212311629</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-132.3869744322165</v>
+        <v>-155.8611268180676</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-130.1382139327783</v>
+        <v>-154.9698409348859</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-128.3849971457567</v>
+        <v>-154.7190655958199</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-127.0098012940583</v>
+        <v>-155.0835891005165</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-125.9424317022086</v>
+        <v>-156.1321851330515</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-125.1401512958331</v>
+        <v>-158.0763353227156</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-124.5773531607178</v>
+        <v>-161.4842224660443</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-124.24023462548</v>
+        <v>-168.4863638234925</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-124.1241812116099</v>
+        <v>-176.1025605426805</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-124.2328203197634</v>
+        <v>-163.8950380876666</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-124.5783183877163</v>
+        <v>-159.221902873869</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-125.1828409564612</v>
+        <v>-156.6310283936546</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-126.0811627308647</v>
+        <v>-155.1488655678864</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-127.3236576593941</v>
+        <v>-154.4548525232628</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-128.9740530965589</v>
+        <v>-154.4408191046727</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-131.070078492798</v>
+        <v>-155.1173901623778</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-133.3928778455064</v>
+        <v>-156.6211406086819</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-134.7584725159359</v>
+        <v>-159.337196242199</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-133.7393486656686</v>
+        <v>-164.4994774744903</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-131.5183161504183</v>
+        <v>-180.9389018578576</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-129.4496114263905</v>
+        <v>-166.0397113683143</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-127.8361674960238</v>
+        <v>-159.9112581270625</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-126.6593015760944</v>
+        <v>-156.7855120501561</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-125.8618875073046</v>
+        <v>-155.0244963341261</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-125.4000526745988</v>
+        <v>-154.1654430715158</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-125.2481459854161</v>
+        <v>-154.0530584216935</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-125.3969472279896</v>
+        <v>-154.6810067227739</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-125.8523882624098</v>
+        <v>-156.1856818288516</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-126.6357698397039</v>
+        <v>-158.9776706692484</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-127.7845353910882</v>
+        <v>-164.4370719880901</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-129.3480809399506</v>
+        <v>-183.5792989416577</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-131.3513107121445</v>
+        <v>-164.7191044953766</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-133.6058509174726</v>
+        <v>-158.9661360192892</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-135.1433117334547</v>
+        <v>-156.0176703356991</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-134.5961047618127</v>
+        <v>-154.4052749558137</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-132.7255521339045</v>
+        <v>-153.7082612282979</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-130.8787432592705</v>
+        <v>-153.7987849010447</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-129.4636080824782</v>
+        <v>-154.708910655007</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-128.505475849533</v>
+        <v>-156.6589994396436</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-127.9658800566854</v>
+        <v>-160.3243598434603</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-127.814351232843</v>
+        <v>-168.704249102963</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-128.040821615724</v>
+        <v>-170.9776762336206</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-128.6582000082891</v>
+        <v>-160.9246562209594</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-129.7055699482098</v>
+        <v>-156.814026824338</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-131.2522233243618</v>
+        <v>-154.610281391768</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-133.3853993384744</v>
+        <v>-153.5230875446026</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-136.0598606929809</v>
+        <v>-153.3077548636543</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-138.2668361428979</v>
+        <v>-153.9350553207347</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-137.677913336798</v>
+        <v>-155.5609301829846</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-135.2864123852039</v>
+        <v>-158.70387095992</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-133.1160765037866</v>
+        <v>-165.3757598726679</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-131.5658189727384</v>
+        <v>-176.1457258258048</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-130.5868029392066</v>
+        <v>-161.6741139121518</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-130.1056890782155</v>
+        <v>-156.9081924831736</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-130.0825750473839</v>
+        <v>-154.4362165124341</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-130.5154312467541</v>
+        <v>-153.2088433689445</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-131.4456775447514</v>
+        <v>-152.9189230830806</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-132.9801468468514</v>
+        <v>-153.5185509533758</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-135.3581321068973</v>
+        <v>-155.1658145107021</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-139.1881409302204</v>
+        <v>-158.4162304284291</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-146.8354137677303</v>
+        <v>-165.5462240952148</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-154.0566845291959</v>
+        <v>-173.391544929245</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-141.915017639871</v>
+        <v>-160.6118482343004</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-137.4112692041108</v>
+        <v>-156.1041083173045</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-134.8509753927499</v>
+        <v>-153.7839223120687</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-133.2380141190372</v>
+        <v>-152.6991288659987</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-132.184174323477</v>
+        <v>-152.577902404501</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-131.4637951102455</v>
+        <v>-153.4091994364812</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-130.901773284444</v>
+        <v>-155.4287578593534</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-130.3483165819978</v>
+        <v>-159.4582470472976</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-129.6970313688165</v>
+        <v>-169.9959159527299</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-128.913726457165</v>
+        <v>-166.3567095860397</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-128.0354855474696</v>
+        <v>-158.1971004710301</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-127.1336749575059</v>
+        <v>-154.6237650770169</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-126.2737167034199</v>
+        <v>-152.8078190634622</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-125.4952920099185</v>
+        <v>-152.127302401583</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-124.8101643521678</v>
+        <v>-152.4254374728497</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-124.2072356746592</v>
+        <v>-153.7953872144788</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-123.6594823722568</v>
+        <v>-156.6975194583379</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-123.1323397789693</v>
+        <v>-162.9480207554979</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-122.5941318222412</v>
+        <v>-177.4454399543568</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-122.0269362471168</v>
+        <v>-160.300139579742</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-121.4335613115067</v>
+        <v>-155.3727987623935</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-120.8370073345507</v>
+        <v>-152.928571056842</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-120.2734175719222</v>
+        <v>-151.8339399915498</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-119.78334286315</v>
+        <v>-151.7881947439652</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-119.4056328026535</v>
+        <v>-152.7989366320314</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-119.1752667533659</v>
+        <v>-155.1905673487693</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-119.1243077592376</v>
+        <v>-160.184331536214</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-119.2848200555752</v>
+        <v>-180.1020174228184</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-119.6932485207471</v>
+        <v>-161.773200766331</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-120.3968087972831</v>
+        <v>-155.707220152048</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-121.4639862717447</v>
+        <v>-152.8384549145527</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-123.0045557370302</v>
+        <v>-151.5012280307892</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-125.2135217809544</v>
+        <v>-151.282762579164</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-128.4783802396114</v>
+        <v>-152.1447599183437</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-133.5420428676834</v>
+        <v>-154.3688839274607</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-137.3267445913253</v>
+        <v>-159.0473521103468</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-132.0214185553427</v>
+        <v>-175.1313456190616</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-127.8878434304936</v>
+        <v>-161.8872616865902</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-125.3188786745214</v>
+        <v>-155.4063336239698</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-123.6941598329666</v>
+        <v>-152.4168462373149</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-122.7234732892573</v>
+        <v>-151.0358586854171</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-122.2705432255781</v>
+        <v>-150.8163455726346</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-122.2757813081078</v>
+        <v>-151.7186866227831</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-122.7282892545135</v>
+        <v>-154.0513552053312</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-123.6603243792946</v>
+        <v>-159.0484531256073</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-125.1590023004596</v>
+        <v>-180.1564773105196</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-127.4038720639252</v>
+        <v>-160.4188058219133</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-130.7522510721356</v>
+        <v>-154.4449361747566</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-135.661671036358</v>
+        <v>-151.6596644757613</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-137.9359079283016</v>
+        <v>-150.4363287972036</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-133.4470885094102</v>
+        <v>-150.3872314284737</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-129.990495909385</v>
+        <v>-151.5216609568479</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-127.900276822082</v>
+        <v>-154.2585091854048</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-126.7268487955674</v>
+        <v>-160.3691152933259</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-126.245010062055</v>
+        <v>-175.8538884175337</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-126.361872658359</v>
+        <v>-157.8920983757016</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-127.0685367331169</v>
+        <v>-152.9918617942174</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-128.4360302229476</v>
+        <v>-150.664768153035</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-130.6561618284343</v>
+        <v>-149.7776245200219</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-134.1765447185828</v>
+        <v>-150.0695533527675</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-139.9141998689914</v>
+        <v>-151.6555496356495</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-142.4087958374423</v>
+        <v>-155.2149234978657</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-136.5963413797264</v>
+        <v>-164.2801116423607</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-132.984344598685</v>
+        <v>-164.2369254099702</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-130.9683438780565</v>
+        <v>-155.0079331990036</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-129.9621912222758</v>
+        <v>-151.3065166065396</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-129.731210078979</v>
+        <v>-149.5920414074346</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-130.2076901016905</v>
+        <v>-149.1923699431184</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-131.443988234252</v>
+        <v>-150.0095891029383</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-133.6527109489848</v>
+        <v>-152.3516960964734</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-137.4156563637643</v>
+        <v>-157.5657199892551</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-144.5195167859219</v>
+        <v>-188.5362238577874</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-146.3137039380843</v>
+        <v>-157.8345347030826</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-138.8400207960505</v>
+        <v>-152.2249479139439</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-135.1569539858103</v>
+        <v>-149.6407185799216</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-133.2189376239853</v>
+        <v>-148.6276157123079</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-132.354466125888</v>
+        <v>-148.862162783628</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-132.3411661115629</v>
+        <v>-150.4499931605427</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-133.1570988645133</v>
+        <v>-154.1114851159548</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-134.9624426644706</v>
+        <v>-163.855261633596</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-138.2807796491186</v>
+        <v>-161.9082182263497</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-145.114026203865</v>
+        <v>-153.3025459754106</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-153.990982009359</v>
+        <v>-149.7805307026278</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-141.3448067930383</v>
+        <v>-148.2077433654194</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-136.7688627185823</v>
+        <v>-147.9755505021828</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-134.3865008217506</v>
+        <v>-149.0399021155264</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-133.1851851229009</v>
+        <v>-151.8409616903558</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-132.8371636615754</v>
+        <v>-158.4253656182716</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-133.2305249915224</v>
+        <v>-168.8418957409606</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-134.3583639425406</v>
+        <v>-154.4146062762992</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-136.2724627663708</v>
+        <v>-149.8909596505631</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-138.9580982712641</v>
+        <v>-147.8127347134281</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-141.6713747862389</v>
+        <v>-147.2034623101532</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-142.1573987492593</v>
+        <v>-147.8890608872352</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-140.6603585136875</v>
+        <v>-150.1530929788045</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-139.19521742742</v>
+        <v>-155.3513130751671</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-137.8096291186732</v>
+        <v>-191.0574304978845</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-135.6360930756466</v>
+        <v>-155.4072387829499</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-132.5374853521476</v>
+        <v>-149.8654406584027</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-129.2584344586277</v>
+        <v>-147.3517052913887</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-126.3000558323264</v>
+        <v>-146.4469964048465</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-123.7898492758343</v>
+        <v>-146.8610505820116</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-121.7160045600189</v>
+        <v>-148.7799337520718</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-120.0374380325307</v>
+        <v>-153.2443013356886</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-118.715524273145</v>
+        <v>-169.0362579927359</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-117.7211298497922</v>
+        <v>-156.0863673001614</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-117.0352894519695</v>
+        <v>-149.6120159294994</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-116.648804123892</v>
+        <v>-146.7555869783185</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-116.5623174122157</v>
+        <v>-145.6361243847279</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-116.7875533099513</v>
+        <v>-145.8673187597187</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-117.3505105099708</v>
+        <v>-147.5746912856545</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-118.2982730327083</v>
+        <v>-151.646901370334</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-119.7135256572749</v>
+        <v>-164.2706457062536</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-121.7482996305758</v>
+        <v>-156.2351090504222</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-124.7162338573501</v>
+        <v>-149.0584811446829</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-129.4246254219269</v>
+        <v>-145.973216225722</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-139.0176550937248</v>
+        <v>-144.71951808176</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-136.8292446982356</v>
+        <v>-144.8455473771464</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-129.757427558094</v>
+        <v>-146.4452596847605</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-126.5158143628276</v>
+        <v>-150.3480105674617</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-124.8331156863676</v>
+        <v>-162.0104519583915</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-124.0965066574843</v>
+        <v>-155.6743455828352</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-124.088635357631</v>
+        <v>-148.1569561660293</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-124.7519320727516</v>
+        <v>-144.9671866388998</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-126.1411293379283</v>
+        <v>-143.6568030817369</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-128.4628534756748</v>
+        <v>-143.7468381444378</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-132.2881796419717</v>
+        <v>-145.3256483009451</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-139.7618456306674</v>
+        <v>-149.2306557655338</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-147.0719798874999</v>
+        <v>-161.0703163605784</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-135.9109913365307</v>
+        <v>-154.3351632144041</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-131.8411376286125</v>
+        <v>-146.8815964845138</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-129.8769923972609</v>
+        <v>-143.7067947990184</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-129.0922694600787</v>
+        <v>-142.4100402866913</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-129.2085786191313</v>
+        <v>-142.5249897225859</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-130.188795289488</v>
+        <v>-144.1588906080894</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-132.1956250814368</v>
+        <v>-148.2193431429431</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-135.7838393792744</v>
+        <v>-161.3438540185658</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-143.1940555459948</v>
+        <v>-152.2704315969313</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-151.3572671721311</v>
+        <v>-145.2159087818522</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-139.0067684640047</v>
+        <v>-142.1563766571485</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-134.8096548604712</v>
+        <v>-140.9321584425107</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-132.8021467948348</v>
+        <v>-141.1240214247698</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-132.0383430014399</v>
+        <v>-142.8819885028887</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-132.2584452101076</v>
+        <v>-147.25505535782</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-133.4780398377063</v>
+        <v>-163.6287233686278</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-136.005338519793</v>
+        <v>-149.5801504010552</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-140.9592864737324</v>
+        <v>-143.1280724849774</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-157.6156438339092</v>
+        <v>-140.2556736022766</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-143.9697498355677</v>
+        <v>-139.1479406539647</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-137.6658949266318</v>
+        <v>-139.4585382802905</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-134.7671659247157</v>
+        <v>-141.405287533377</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-133.4181901639077</v>
+        <v>-146.278160771796</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-133.1642170127695</v>
+        <v>-175.0514003224177</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-133.9367106370568</v>
+        <v>-146.3033511771203</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-135.9591589781676</v>
+        <v>-140.5289079597938</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-140.0997018463731</v>
+        <v>-137.8821669912268</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-151.594703732131</v>
+        <v>-136.9154726064615</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-145.9305664422503</v>
+        <v>-137.3732857376317</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-138.1923644738858</v>
+        <v>-139.5717701545199</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-134.7393476217134</v>
+        <v>-145.2118219825709</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-133.0090005297333</v>
+        <v>-161.1429810533744</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-132.4335036501348</v>
+        <v>-142.3009673603796</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-132.9058863172954</v>
+        <v>-137.1821353154214</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-134.625224301168</v>
+        <v>-134.75782213911</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-138.4152374583666</v>
+        <v>-133.9248572541053</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-149.0676140729177</v>
+        <v>-134.5334877824743</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-144.3688604768329</v>
+        <v>-137.0468751572573</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-136.0882251621705</v>
+        <v>-143.9575742021059</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-132.2880116976088</v>
+        <v>-149.1394393009334</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-130.2360183534391</v>
+        <v>-136.9971986722335</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-129.3419220897798</v>
+        <v>-132.4155530619783</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-129.4985494957918</v>
+        <v>-130.1217163133981</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-130.9288701306943</v>
+        <v>-129.3251194435282</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-134.5827498807191</v>
+        <v>-130.0119035248434</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-147.1179600975973</v>
+        <v>-132.9382341744926</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-137.1995419275302</v>
+        <v>-143.2278848776212</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-129.1009955174285</v>
+        <v>-136.5787356216288</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-124.6973444737343</v>
+        <v>-127.6688299986471</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-121.734134377386</v>
+        <v>-122.998060263064</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-119.6077206040834</v>
+        <v>-119.9259702337016</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-118.0671739393584</v>
+        <v>-117.791003130571</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-116.9863457461629</v>
+        <v>-116.3264684781547</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-116.2962672161846</v>
+        <v>-115.4030946526871</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-115.9595405927234</v>
+        <v>-114.9554418862026</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-115.9595365742231</v>
+        <v>-114.9554414120505</v>
       </c>
     </row>
     <row r="453">
@@ -4053,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-116.2962550046191</v>
+        <v>-115.4030931864174</v>
       </c>
     </row>
     <row r="454">
@@ -4061,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-116.9863246976452</v>
+        <v>-116.3264658244909</v>
       </c>
     </row>
     <row r="455">
@@ -4069,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-118.0671427845588</v>
+        <v>-117.7909989984224</v>
       </c>
     </row>
     <row r="456">
@@ -4077,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-119.6076772462091</v>
+        <v>-119.9259641686388</v>
       </c>
     </row>
     <row r="457">
@@ -4085,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-121.7340747252428</v>
+        <v>-122.9980509705419</v>
       </c>
     </row>
     <row r="458">
@@ -4093,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-124.6972606486921</v>
+        <v>-127.6688157243225</v>
       </c>
     </row>
     <row r="459">
@@ -4101,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-129.1008656055131</v>
+        <v>-136.5787208743432</v>
       </c>
     </row>
     <row r="460">
@@ -4109,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-137.1992574081447</v>
+        <v>-143.2281277729751</v>
       </c>
     </row>
     <row r="461">
@@ -4117,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-147.1186815512372</v>
+        <v>-132.938267218916</v>
       </c>
     </row>
     <row r="462">
@@ -4125,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-134.5828566690437</v>
+        <v>-130.011916586724</v>
       </c>
     </row>
     <row r="463">
@@ -4133,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-130.9288963929153</v>
+        <v>-129.3251227907892</v>
       </c>
     </row>
     <row r="464">
@@ -4141,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-129.4985311316003</v>
+        <v>-130.1217113968781</v>
       </c>
     </row>
     <row r="465">
@@ -4149,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-129.3418640629525</v>
+        <v>-132.41553689029</v>
       </c>
     </row>
     <row r="466">
@@ -4157,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-130.2359071549498</v>
+        <v>-136.997161349792</v>
       </c>
     </row>
     <row r="467">
@@ -4165,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-132.2878033134979</v>
+        <v>-149.1393293904702</v>
       </c>
     </row>
     <row r="468">
@@ -4173,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-136.0877375765108</v>
+        <v>-143.9577020597856</v>
       </c>
     </row>
     <row r="469">
@@ -4181,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-144.366028228314</v>
+        <v>-137.04691786634</v>
       </c>
     </row>
     <row r="470">
@@ -4189,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-149.060772752234</v>
+        <v>-134.533507187023</v>
       </c>
     </row>
     <row r="471">
@@ -4197,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-138.4147152024979</v>
+        <v>-133.9248609925617</v>
       </c>
     </row>
     <row r="472">
@@ -4205,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-134.6249858032216</v>
+        <v>-134.7578103105427</v>
       </c>
     </row>
     <row r="473">
@@ -4213,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-132.9056786586088</v>
+        <v>-137.1821005107128</v>
       </c>
     </row>
     <row r="474">
@@ -4221,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-132.4332535478005</v>
+        <v>-142.3008825292025</v>
       </c>
     </row>
     <row r="475">
@@ -4229,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-133.008637554786</v>
+        <v>-161.1424455601454</v>
       </c>
     </row>
     <row r="476">
@@ -4237,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-134.7387160549155</v>
+        <v>-145.2119709001548</v>
       </c>
     </row>
     <row r="477">
@@ -4245,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-138.1908521923798</v>
+        <v>-139.5718308898116</v>
       </c>
     </row>
     <row r="478">
@@ -4253,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-145.9215222098283</v>
+        <v>-137.3733131268516</v>
       </c>
     </row>
     <row r="479">
@@ -4261,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-151.5624473839514</v>
+        <v>-136.9154748389714</v>
       </c>
     </row>
     <row r="480">
@@ -4269,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-140.0974609616739</v>
+        <v>-137.8821424242252</v>
       </c>
     </row>
     <row r="481">
@@ -4277,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-135.9582669168037</v>
+        <v>-140.5288408045411</v>
       </c>
     </row>
     <row r="482">
@@ -4285,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-133.9360842629831</v>
+        <v>-146.3031742629687</v>
       </c>
     </row>
     <row r="483">
@@ -4293,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-133.1635896657869</v>
+        <v>-175.057939977029</v>
       </c>
     </row>
     <row r="484">
@@ -4301,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-133.4173789159233</v>
+        <v>-146.2783500695048</v>
       </c>
     </row>
     <row r="485">
@@ -4309,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-134.7658413072371</v>
+        <v>-141.4053715452633</v>
       </c>
     </row>
     <row r="486">
@@ -4317,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-137.6629156343359</v>
+        <v>-139.458575331263</v>
       </c>
     </row>
     <row r="487">
@@ -4325,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-143.9556900058088</v>
+        <v>-139.1479398692622</v>
       </c>
     </row>
     <row r="488">
@@ -4333,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-157.2794617812044</v>
+        <v>-140.2556297856285</v>
       </c>
     </row>
     <row r="489">
@@ -4341,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-140.9513123356791</v>
+        <v>-143.1279579103975</v>
       </c>
     </row>
     <row r="490">
@@ -4349,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-136.0026159255172</v>
+        <v>-149.5798291260559</v>
       </c>
     </row>
     <row r="491">
@@ -4357,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-133.4763628283592</v>
+        <v>-163.6302429672253</v>
       </c>
     </row>
     <row r="492">
@@ -4365,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-132.2569941749224</v>
+        <v>-147.2552925156205</v>
       </c>
     </row>
     <row r="493">
@@ -4373,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-132.0367170442963</v>
+        <v>-142.882098304636</v>
       </c>
     </row>
     <row r="494">
@@ -4381,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-132.799838142472</v>
+        <v>-141.1240675549895</v>
       </c>
     </row>
     <row r="495">
@@ -4389,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-134.8053438584321</v>
+        <v>-140.932149728631</v>
       </c>
     </row>
     <row r="496">
@@ -4397,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-138.9937544130441</v>
+        <v>-142.1563060095116</v>
       </c>
     </row>
     <row r="497">
@@ -4405,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-151.1140311853875</v>
+        <v>-145.2157303633681</v>
       </c>
     </row>
     <row r="498">
@@ -4413,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-143.1526306008892</v>
+        <v>-152.2698995675161</v>
       </c>
     </row>
     <row r="499">
@@ -4421,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-135.7757228390391</v>
+        <v>-161.3451635318037</v>
       </c>
     </row>
     <row r="500">
@@ -4429,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-132.191789244623</v>
+        <v>-148.2196421766114</v>
       </c>
     </row>
     <row r="501">
@@ -4437,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-130.1861305005943</v>
+        <v>-144.159031059867</v>
       </c>
     </row>
     <row r="502">
@@ -4445,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-129.2061523783489</v>
+        <v>-142.5250456497502</v>
       </c>
     </row>
     <row r="503">
@@ -4453,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-129.0894817476517</v>
+        <v>-142.4100220291168</v>
       </c>
     </row>
     <row r="504">
@@ -4461,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-129.8729695280244</v>
+        <v>-143.7066904790193</v>
       </c>
     </row>
     <row r="505">
@@ -4469,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-131.8335015539247</v>
+        <v>-146.8813395821819</v>
       </c>
     </row>
     <row r="506">
@@ -4477,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-135.8877871247162</v>
+        <v>-154.3343632394935</v>
       </c>
     </row>
     <row r="507">
@@ -4485,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-146.7315779775883</v>
+        <v>-161.0717335170754</v>
       </c>
     </row>
     <row r="508">
@@ -4493,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-139.6879675217681</v>
+        <v>-149.2310325595533</v>
       </c>
     </row>
     <row r="509">
@@ -4501,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-132.2735072805394</v>
+        <v>-145.3258263446346</v>
       </c>
     </row>
     <row r="510">
@@ -4509,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-128.4562781003619</v>
+        <v>-143.7469076296044</v>
       </c>
     </row>
     <row r="511">
@@ -4517,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-126.1370021998891</v>
+        <v>-143.6567762979234</v>
       </c>
     </row>
     <row r="512">
@@ -4525,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-124.7486967151188</v>
+        <v>-144.9670463367086</v>
       </c>
     </row>
     <row r="513">
@@ -4533,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-124.0855652232349</v>
+        <v>-148.156614993878</v>
       </c>
     </row>
     <row r="514">
@@ -4541,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-124.0929894885253</v>
+        <v>-155.6732678307326</v>
       </c>
     </row>
     <row r="515">
@@ -4549,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-124.8281944649101</v>
+        <v>-162.0121506078268</v>
       </c>
     </row>
     <row r="516">
@@ -4557,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-126.5070827623526</v>
+        <v>-150.3484890414631</v>
       </c>
     </row>
     <row r="517">
@@ -4565,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-129.7352211957746</v>
+        <v>-146.4454878287781</v>
       </c>
     </row>
     <row r="518">
@@ -4573,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-136.6963276964477</v>
+        <v>-144.8456334496644</v>
       </c>
     </row>
     <row r="519">
@@ -4581,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-138.7667514732407</v>
+        <v>-144.7194860635197</v>
       </c>
     </row>
     <row r="520">
@@ -4589,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-129.3932151076043</v>
+        <v>-145.9730412986804</v>
       </c>
     </row>
     <row r="521">
@@ -4597,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-124.7049722278164</v>
+        <v>-149.0580578069993</v>
       </c>
     </row>
     <row r="522">
@@ -4605,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-121.7426357899425</v>
+        <v>-156.2338141107545</v>
       </c>
     </row>
     <row r="523">
@@ -4613,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-119.7102582728496</v>
+        <v>-164.2728876834759</v>
       </c>
     </row>
     <row r="524">
@@ -4621,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-118.2963235136693</v>
+        <v>-151.6475189875997</v>
       </c>
     </row>
     <row r="525">
@@ -4629,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-117.3494356326254</v>
+        <v>-147.5749852738462</v>
       </c>
     </row>
     <row r="526">
@@ -4637,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-116.7871615282577</v>
+        <v>-145.8674370774039</v>
       </c>
     </row>
     <row r="527">
@@ -4645,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-116.5625455758653</v>
+        <v>-145.6360944144539</v>
       </c>
     </row>
     <row r="528">
@@ -4653,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-116.6496739863222</v>
+        <v>-146.7553856003488</v>
       </c>
     </row>
     <row r="529">
@@ -4661,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-117.0368999203607</v>
+        <v>-149.6115268030486</v>
       </c>
     </row>
     <row r="530">
@@ -4669,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-117.7236722037515</v>
+        <v>-156.0849762061614</v>
       </c>
     </row>
     <row r="531">
@@ -4677,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-118.7193236191732</v>
+        <v>-169.0392356554396</v>
       </c>
     </row>
     <row r="532">
@@ -4685,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-120.0430348799116</v>
+        <v>-153.2451249972751</v>
       </c>
     </row>
     <row r="533">
@@ -4693,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-121.7243132637854</v>
+        <v>-148.7803257776114</v>
       </c>
     </row>
     <row r="534">
@@ -4701,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-123.8024638553407</v>
+        <v>-146.8612186915951</v>
       </c>
     </row>
     <row r="535">
@@ -4709,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-126.3198175387175</v>
+        <v>-146.4469860976691</v>
       </c>
     </row>
     <row r="536">
@@ -4717,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-129.2902456713265</v>
+        <v>-147.3514958780733</v>
       </c>
     </row>
     <row r="537">
@@ -4725,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-132.5877243566842</v>
+        <v>-149.8649210814734</v>
       </c>
     </row>
     <row r="538">
@@ -4733,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-135.7027131382536</v>
+        <v>-155.4058767036239</v>
       </c>
     </row>
     <row r="539">
@@ -4741,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-137.8653776555734</v>
+        <v>-190.6239919060082</v>
       </c>
     </row>
     <row r="540">
@@ -4749,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-139.2108600546941</v>
+        <v>-155.3524596567984</v>
       </c>
     </row>
     <row r="541">
@@ -4757,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-140.62041788073</v>
+        <v>-150.1536191955437</v>
       </c>
     </row>
     <row r="542">
@@ -4765,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-142.0478987462227</v>
+        <v>-147.8893001439944</v>
       </c>
     </row>
     <row r="543">
@@ -4773,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-141.5519944206231</v>
+        <v>-147.2034865230641</v>
       </c>
     </row>
     <row r="544">
@@ -4781,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-138.8931832960129</v>
+        <v>-147.8125343702144</v>
       </c>
     </row>
     <row r="545">
@@ -4789,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-136.2409509149618</v>
+        <v>-149.8904352839197</v>
       </c>
     </row>
     <row r="546">
@@ -4797,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-134.3416063192298</v>
+        <v>-154.4133403711398</v>
       </c>
     </row>
     <row r="547">
@@ -4805,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-133.2204713385067</v>
+        <v>-168.8314666058767</v>
       </c>
     </row>
     <row r="548">
@@ -4813,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-132.830233433786</v>
+        <v>-158.4270991999258</v>
       </c>
     </row>
     <row r="549">
@@ -4821,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-133.1794513517526</v>
+        <v>-151.8417071105723</v>
       </c>
     </row>
     <row r="550">
@@ -4829,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-134.380375971244</v>
+        <v>-149.0402652764967</v>
       </c>
     </row>
     <row r="551">
@@ -4837,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-136.7594862096329</v>
+        <v>-147.975649230053</v>
       </c>
     </row>
     <row r="552">
@@ -4845,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-141.3190953299523</v>
+        <v>-148.207590944576</v>
       </c>
     </row>
     <row r="553">
@@ -4853,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-153.5382231012969</v>
+        <v>-149.7800535100097</v>
       </c>
     </row>
     <row r="554">
@@ -4861,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-145.0506097515814</v>
+        <v>-153.3014465567964</v>
       </c>
     </row>
     <row r="555">
@@ -4869,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-138.2667729133564</v>
+        <v>-161.904202151799</v>
       </c>
     </row>
     <row r="556">
@@ -4877,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-134.9552815699485</v>
+        <v>-163.8582248410811</v>
       </c>
     </row>
     <row r="557">
@@ -4885,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-133.1516958510652</v>
+        <v>-154.1125798638278</v>
       </c>
     </row>
     <row r="558">
@@ -4893,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-132.335868600986</v>
+        <v>-150.450528365274</v>
       </c>
     </row>
     <row r="559">
@@ -4901,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-132.3480847576988</v>
+        <v>-148.8623640464286</v>
       </c>
     </row>
     <row r="560">
@@ -4909,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-133.2096451795596</v>
+        <v>-148.6275295880708</v>
       </c>
     </row>
     <row r="561">
@@ -4917,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-135.1400196440387</v>
+        <v>-149.6402994184171</v>
       </c>
     </row>
     <row r="562">
@@ -4925,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-138.7954174794708</v>
+        <v>-152.2239893320474</v>
       </c>
     </row>
     <row r="563">
@@ -4933,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-146.0477336138628</v>
+        <v>-157.8320535775217</v>
       </c>
     </row>
     <row r="564">
@@ -4941,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-144.3308330718841</v>
+        <v>-188.2253221657908</v>
       </c>
     </row>
     <row r="565">
@@ -4949,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-137.3767220297145</v>
+        <v>-157.5675855396392</v>
       </c>
     </row>
     <row r="566">
@@ -4957,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-133.6357444112736</v>
+        <v>-152.3525795898409</v>
       </c>
     </row>
     <row r="567">
@@ -4965,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-131.4333370775896</v>
+        <v>-150.0100117674659</v>
       </c>
     </row>
     <row r="568">
@@ -4973,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-130.1991334023968</v>
+        <v>-149.1924505052251</v>
       </c>
     </row>
     <row r="569">
@@ -4981,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-129.7227767327335</v>
+        <v>-149.5917757263882</v>
       </c>
     </row>
     <row r="570">
@@ -4989,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-129.9521605853981</v>
+        <v>-151.3057886922005</v>
       </c>
     </row>
     <row r="571">
@@ -4997,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-130.9538960316927</v>
+        <v>-155.0062764005033</v>
       </c>
     </row>
     <row r="572">
@@ -5005,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-132.9581364637235</v>
+        <v>-164.2302609453519</v>
       </c>
     </row>
     <row r="573">
@@ -5013,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-136.5288110736063</v>
+        <v>-164.2837838496088</v>
       </c>
     </row>
     <row r="574">
@@ -5021,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-142.1313610371661</v>
+        <v>-155.2163902303666</v>
       </c>
     </row>
     <row r="575">
@@ -5029,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-139.7436522501038</v>
+        <v>-151.6562967347589</v>
       </c>
     </row>
     <row r="576">
@@ -5037,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-134.1278683936079</v>
+        <v>-150.0698664869956</v>
       </c>
     </row>
     <row r="577">
@@ -5045,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-130.6336443090162</v>
+        <v>-149.777566770078</v>
       </c>
     </row>
     <row r="578">
@@ -5053,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-128.4221083823867</v>
+        <v>-150.6642902803095</v>
       </c>
     </row>
     <row r="579">
@@ -5061,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-127.0580191631032</v>
+        <v>-152.9907358676113</v>
       </c>
     </row>
     <row r="580">
@@ -5069,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-126.3524694519877</v>
+        <v>-157.8893505365688</v>
       </c>
     </row>
     <row r="581">
@@ -5077,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-126.2351451990062</v>
+        <v>-175.8085397574526</v>
       </c>
     </row>
     <row r="582">
@@ -5085,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-126.7146759412609</v>
+        <v>-160.3718838556702</v>
       </c>
     </row>
     <row r="583">
@@ -5093,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-127.8823593227998</v>
+        <v>-154.259804349939</v>
       </c>
     </row>
     <row r="584">
@@ -5101,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-129.9577732097466</v>
+        <v>-151.5223143018526</v>
       </c>
     </row>
     <row r="585">
@@ -5109,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-133.366068732705</v>
+        <v>-150.3874413204092</v>
       </c>
     </row>
     <row r="586">
@@ -5117,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-137.6890745215873</v>
+        <v>-150.4361193477748</v>
       </c>
     </row>
     <row r="587">
@@ -5125,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-135.5023365940648</v>
+        <v>-151.658941668094</v>
       </c>
     </row>
     <row r="588">
@@ -5133,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-130.697632529073</v>
+        <v>-154.4433416478511</v>
       </c>
     </row>
     <row r="589">
@@ -5141,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-127.3780619533119</v>
+        <v>-160.4145089241279</v>
       </c>
     </row>
     <row r="590">
@@ -5149,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-125.1437497020019</v>
+        <v>-180.1211391207031</v>
       </c>
     </row>
     <row r="591">
@@ -5157,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-123.6498797099843</v>
+        <v>-159.0510394894677</v>
       </c>
     </row>
     <row r="592">
@@ -5165,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-122.7202629337288</v>
+        <v>-154.052644463667</v>
       </c>
     </row>
     <row r="593">
@@ -5173,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-122.2689013275566</v>
+        <v>-151.7193275242641</v>
       </c>
     </row>
     <row r="594">
@@ -5181,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-122.2638941948318</v>
+        <v>-150.8165073731191</v>
       </c>
     </row>
     <row r="595">
@@ -5189,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-122.7160850050827</v>
+        <v>-151.0355487247935</v>
       </c>
     </row>
     <row r="596">
@@ -5197,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-123.6845064715596</v>
+        <v>-152.4159321514494</v>
       </c>
     </row>
     <row r="597">
@@ -5205,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-125.3036615366237</v>
+        <v>-155.4043464108129</v>
       </c>
     </row>
     <row r="598">
@@ -5213,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-127.8574579395012</v>
+        <v>-161.881610995338</v>
       </c>
     </row>
     <row r="599">
@@ -5221,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-131.9349986924413</v>
+        <v>-175.1292432512707</v>
       </c>
     </row>
     <row r="600">
@@ -5229,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-137.0181321671647</v>
+        <v>-159.0500688625785</v>
       </c>
     </row>
     <row r="601">
@@ -5237,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-133.4056023948998</v>
+        <v>-154.3702699596661</v>
       </c>
     </row>
     <row r="602">
@@ -5245,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-128.4365119832318</v>
+        <v>-152.145451495204</v>
       </c>
     </row>
     <row r="603">
@@ -5253,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-125.195894258877</v>
+        <v>-151.2829237194252</v>
       </c>
     </row>
     <row r="604">
@@ -5261,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-122.9963998499026</v>
+        <v>-151.500870313953</v>
       </c>
     </row>
     <row r="605">
@@ -5269,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-121.4608195981674</v>
+        <v>-152.8374349285264</v>
       </c>
     </row>
     <row r="606">
@@ -5277,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-120.3969281843443</v>
+        <v>-155.70504242863</v>
       </c>
     </row>
     <row r="607">
@@ -5285,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-119.6959536638271</v>
+        <v>-161.7673182688572</v>
       </c>
     </row>
     <row r="608">
@@ -5293,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-119.289856134348</v>
+        <v>-180.0611834342255</v>
       </c>
     </row>
     <row r="609">
@@ -5301,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-119.1316516992416</v>
+        <v>-160.1875543602821</v>
       </c>
     </row>
     <row r="610">
@@ -5309,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-119.1850225786329</v>
+        <v>-155.1922175168235</v>
       </c>
     </row>
     <row r="611">
@@ -5317,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-119.4179576133775</v>
+        <v>-152.7997795698178</v>
       </c>
     </row>
     <row r="612">
@@ -5325,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-119.7983640611348</v>
+        <v>-151.7884432617937</v>
       </c>
     </row>
     <row r="613">
@@ -5333,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-120.29112056946</v>
+        <v>-151.8336220264961</v>
       </c>
     </row>
     <row r="614">
@@ -5341,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-120.8570911940294</v>
+        <v>-152.927560203261</v>
       </c>
     </row>
     <row r="615">
@@ -5349,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-121.4552961306195</v>
+        <v>-155.3706800650291</v>
       </c>
     </row>
     <row r="616">
@@ -5357,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-122.0491046673273</v>
+        <v>-160.2950993621384</v>
       </c>
     </row>
     <row r="617">
@@ -5365,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-122.6151321298076</v>
+        <v>-177.3678321627339</v>
       </c>
     </row>
     <row r="618">
@@ -5373,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-123.1504476337418</v>
+        <v>-162.9525379803804</v>
       </c>
     </row>
     <row r="619">
@@ -5381,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-123.6731340700581</v>
+        <v>-156.6997689224427</v>
       </c>
     </row>
     <row r="620">
@@ -5389,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-124.2151805454877</v>
+        <v>-153.7965973789375</v>
       </c>
     </row>
     <row r="621">
@@ -5397,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-124.8114400808276</v>
+        <v>-152.4259531309692</v>
       </c>
     </row>
     <row r="622">
@@ -5405,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-125.4891111251674</v>
+        <v>-152.127203300058</v>
       </c>
     </row>
     <row r="623">
@@ -5413,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-126.2593928573269</v>
+        <v>-152.8070410287695</v>
       </c>
     </row>
     <row r="624">
@@ -5421,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-127.1107156042294</v>
+        <v>-154.6220159481538</v>
       </c>
     </row>
     <row r="625">
@@ -5429,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-128.0039688098497</v>
+        <v>-158.1933796051972</v>
       </c>
     </row>
     <row r="626">
@@ -5437,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-128.8749208306831</v>
+        <v>-166.3435185940278</v>
       </c>
     </row>
     <row r="627">
@@ -5445,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-129.6538401007629</v>
+        <v>-170.0018689274777</v>
       </c>
     </row>
     <row r="628">
@@ -5453,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-130.3047904643063</v>
+        <v>-159.4616077279393</v>
       </c>
     </row>
     <row r="629">
@@ -5461,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-130.8616383372712</v>
+        <v>-155.4305982878899</v>
       </c>
     </row>
     <row r="630">
@@ -5469,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-131.4291885886704</v>
+        <v>-153.4101529915922</v>
       </c>
     </row>
     <row r="631">
@@ -5477,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-132.1555210082951</v>
+        <v>-152.5781696183998</v>
       </c>
     </row>
     <row r="632">
@@ -5485,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-133.2146365098546</v>
+        <v>-152.6987200892242</v>
       </c>
     </row>
     <row r="633">
@@ -5493,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-134.8316178239911</v>
+        <v>-153.782690179118</v>
       </c>
     </row>
     <row r="634">
@@ -5501,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-137.3939324360573</v>
+        <v>-156.1015728002926</v>
       </c>
     </row>
     <row r="635">
@@ -5509,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-141.8929041372093</v>
+        <v>-160.6061118157274</v>
       </c>
     </row>
     <row r="636">
@@ -5517,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-153.8241082090333</v>
+        <v>-173.3489689057378</v>
       </c>
     </row>
     <row r="637">
@@ -5525,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-146.7681190660401</v>
+        <v>-165.5521702825394</v>
       </c>
     </row>
     <row r="638">
@@ -5533,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-139.1670588243999</v>
+        <v>-158.4193023788021</v>
       </c>
     </row>
     <row r="639">
@@ -5541,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-135.34396043739</v>
+        <v>-155.1675358785286</v>
       </c>
     </row>
     <row r="640">
@@ -5549,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-132.9682524152244</v>
+        <v>-153.5194048797225</v>
       </c>
     </row>
     <row r="641">
@@ -5557,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-131.434481754805</v>
+        <v>-152.9190560632736</v>
       </c>
     </row>
     <row r="642">
@@ -5565,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-130.5039609381063</v>
+        <v>-153.208235494898</v>
       </c>
     </row>
     <row r="643">
@@ -5573,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-130.069891836636</v>
+        <v>-154.4346697807548</v>
       </c>
     </row>
     <row r="644">
@@ -5581,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-130.0905526249069</v>
+        <v>-156.9050905956259</v>
       </c>
     </row>
     <row r="645">
@@ -5589,7 +5587,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-130.5672003491126</v>
+        <v>-161.6669814082454</v>
       </c>
     </row>
     <row r="646">
@@ -5597,7 +5595,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-131.5379605068689</v>
+        <v>-176.0742176070394</v>
       </c>
     </row>
     <row r="647">
@@ -5605,7 +5603,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-133.0718835170353</v>
+        <v>-165.3819603421147</v>
       </c>
     </row>
     <row r="648">
@@ -5613,7 +5611,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-135.2073444954575</v>
+        <v>-158.7071849850247</v>
       </c>
     </row>
     <row r="649">
@@ -5621,7 +5619,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-137.5325392843915</v>
+        <v>-155.5628161541414</v>
       </c>
     </row>
     <row r="650">
@@ -5629,7 +5627,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-138.0929112279151</v>
+        <v>-153.9360099956655</v>
       </c>
     </row>
     <row r="651">
@@ -5637,7 +5635,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-135.9512057126205</v>
+        <v>-153.3079332229336</v>
       </c>
     </row>
     <row r="652">
@@ -5645,7 +5643,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-133.3253774443328</v>
+        <v>-153.5224739855518</v>
       </c>
     </row>
     <row r="653">
@@ -5653,7 +5651,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-131.2150974964044</v>
+        <v>-154.6086885522332</v>
       </c>
     </row>
     <row r="654">
@@ -5661,7 +5659,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-129.6793838494561</v>
+        <v>-156.8109000672841</v>
       </c>
     </row>
     <row r="655">
@@ -5669,7 +5667,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-128.6374016313046</v>
+        <v>-160.917984727792</v>
       </c>
     </row>
     <row r="656">
@@ -5677,7 +5675,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-128.0223900493358</v>
+        <v>-170.9457996118604</v>
       </c>
     </row>
     <row r="657">
@@ -5685,7 +5683,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-127.7962081321884</v>
+        <v>-168.7116165896388</v>
       </c>
     </row>
     <row r="658">
@@ -5693,7 +5691,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-127.9460794611551</v>
+        <v>-160.3286479005455</v>
       </c>
     </row>
     <row r="659">
@@ -5701,7 +5699,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-128.4815230774351</v>
+        <v>-156.6614836746358</v>
       </c>
     </row>
     <row r="660">
@@ -5709,7 +5707,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-129.4314383117763</v>
+        <v>-154.7102929139335</v>
       </c>
     </row>
     <row r="661">
@@ -5717,7 +5715,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-130.8306830890634</v>
+        <v>-153.7993027004464</v>
       </c>
     </row>
     <row r="662">
@@ -5725,7 +5723,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-132.646723130845</v>
+        <v>-153.7079566084029</v>
       </c>
     </row>
     <row r="663">
@@ -5733,7 +5731,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-134.4676261811339</v>
+        <v>-154.4040276608171</v>
       </c>
     </row>
     <row r="664">
@@ -5741,7 +5739,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-134.9905462285245</v>
+        <v>-156.015120271743</v>
       </c>
     </row>
     <row r="665">
@@ -5749,7 +5747,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-133.4943898291359</v>
+        <v>-158.9611879995571</v>
       </c>
     </row>
     <row r="666">
@@ -5757,7 +5755,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-131.2835013440341</v>
+        <v>-164.7064970305763</v>
       </c>
     </row>
     <row r="667">
@@ -5765,7 +5763,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-129.3051750328409</v>
+        <v>-183.3550775956357</v>
       </c>
     </row>
     <row r="668">
@@ -5773,7 +5771,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-127.7549644517318</v>
+        <v>-164.4437048949243</v>
       </c>
     </row>
     <row r="669">
@@ -5781,7 +5779,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-126.6136055000006</v>
+        <v>-158.9814606652128</v>
       </c>
     </row>
     <row r="670">
@@ -5789,7 +5787,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-125.8344292214241</v>
+        <v>-156.1879528703334</v>
       </c>
     </row>
     <row r="671">
@@ -5797,7 +5795,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-125.3812469159202</v>
+        <v>-154.6822283927114</v>
       </c>
     </row>
     <row r="672">
@@ -5805,7 +5803,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-125.2333031525536</v>
+        <v>-154.0533957144548</v>
       </c>
     </row>
     <row r="673">
@@ -5813,7 +5811,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-125.3848013116723</v>
+        <v>-154.1648955848345</v>
       </c>
     </row>
     <row r="674">
@@ -5821,7 +5819,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-125.8447490573705</v>
+        <v>-155.0228986309116</v>
       </c>
     </row>
     <row r="675">
@@ -5829,7 +5827,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-126.6381113372381</v>
+        <v>-156.7824002255314</v>
       </c>
     </row>
     <row r="676">
@@ -5837,7 +5835,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-127.8071604337855</v>
+        <v>-159.9052476985381</v>
       </c>
     </row>
     <row r="677">
@@ -5845,7 +5843,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-129.4053831656207</v>
+        <v>-166.0236270687645</v>
       </c>
     </row>
     <row r="678">
@@ -5853,7 +5851,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-131.4435500160968</v>
+        <v>-180.8393406201537</v>
       </c>
     </row>
     <row r="679">
@@ -5861,7 +5859,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-133.6098433432139</v>
+        <v>-164.5063962639391</v>
       </c>
     </row>
     <row r="680">
@@ -5869,7 +5867,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-134.5906270687299</v>
+        <v>-159.3413032465782</v>
       </c>
     </row>
     <row r="681">
@@ -5877,7 +5875,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-133.2687679007045</v>
+        <v>-156.6236530287162</v>
       </c>
     </row>
     <row r="682">
@@ -5885,7 +5883,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-130.998389407135</v>
+        <v>-155.1187910897995</v>
       </c>
     </row>
     <row r="683">
@@ -5893,7 +5891,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-128.931980001295</v>
+        <v>-154.4412858785614</v>
       </c>
     </row>
     <row r="684">
@@ -5901,7 +5899,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-127.2974390835337</v>
+        <v>-154.4544000918135</v>
       </c>
     </row>
     <row r="685">
@@ -5909,7 +5907,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-126.0641276397135</v>
+        <v>-155.1473565368271</v>
       </c>
     </row>
     <row r="686">
@@ -5917,7 +5915,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-125.1716576358535</v>
+        <v>-156.6280728241873</v>
       </c>
     </row>
     <row r="687">
@@ -5925,7 +5923,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-124.5712222310231</v>
+        <v>-159.2164512338363</v>
       </c>
     </row>
     <row r="688">
@@ -5933,7 +5931,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-124.2288434165146</v>
+        <v>-163.8830129896322</v>
       </c>
     </row>
     <row r="689">
@@ -5941,7 +5939,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-124.1227992857995</v>
+        <v>-176.0193164421798</v>
       </c>
     </row>
     <row r="690">
@@ -5949,7 +5947,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-124.2412039418955</v>
+        <v>-168.4948517286788</v>
       </c>
     </row>
     <row r="691">
@@ -5957,7 +5955,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-124.5806375459163</v>
+        <v>-161.4897776289678</v>
       </c>
     </row>
     <row r="692">
@@ -5965,7 +5963,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-125.1459061751291</v>
+        <v>-158.0798050999701</v>
       </c>
     </row>
     <row r="693">
@@ -5973,7 +5971,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-125.951039137994</v>
+        <v>-156.1343083305803</v>
       </c>
     </row>
     <row r="694">
@@ -5981,7 +5979,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-127.0219785541941</v>
+        <v>-155.0846664510881</v>
       </c>
     </row>
     <row r="695">
@@ -5989,7 +5987,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-128.4020513099456</v>
+        <v>-154.7191927743186</v>
       </c>
     </row>
     <row r="696">
@@ -5997,7 +5995,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-130.1626764621276</v>
+        <v>-154.9689700087342</v>
       </c>
     </row>
     <row r="697">
@@ -6005,7 +6003,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-132.4243650193341</v>
+        <v>-155.8590538668438</v>
       </c>
     </row>
     <row r="698">
@@ -6013,7 +6011,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-135.3944322105194</v>
+        <v>-157.5262293357897</v>
       </c>
     </row>
     <row r="699">
@@ -6021,7 +6019,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-139.3629355171308</v>
+        <v>-160.3354143363461</v>
       </c>
     </row>
     <row r="700">
@@ -6029,7 +6027,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-143.5187130867632</v>
+        <v>-165.4070407924227</v>
       </c>
     </row>
     <row r="701">
@@ -6037,7 +6035,7 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-142.3560018630551</v>
+        <v>-178.9363505153999</v>
       </c>
     </row>
     <row r="702">
@@ -6045,7 +6043,7 @@
         <v>2.446178929380262</v>
       </c>
       <c r="B702" t="n">
-        <v>-138.6384220967596</v>
+        <v>-167.9722950664948</v>
       </c>
     </row>
     <row r="703">
@@ -6053,7 +6051,7 @@
         <v>2.449673470707948</v>
       </c>
       <c r="B703" t="n">
-        <v>-135.8193475946962</v>
+        <v>-161.6935014597245</v>
       </c>
     </row>
     <row r="704">
@@ -6061,7 +6059,7 @@
         <v>2.453168012035634</v>
       </c>
       <c r="B704" t="n">
-        <v>-133.7727516952726</v>
+        <v>-158.4718641520797</v>
       </c>
     </row>
     <row r="705">
@@ -6069,7 +6067,7 @@
         <v>2.45666255336332</v>
       </c>
       <c r="B705" t="n">
-        <v>-132.194441037927</v>
+        <v>-156.5817892715249</v>
       </c>
     </row>
     <row r="706">
@@ -6077,7 +6075,7 @@
         <v>2.460157094691006</v>
       </c>
       <c r="B706" t="n">
-        <v>-130.8879188703759</v>
+        <v>-155.5202434339613</v>
       </c>
     </row>
     <row r="707">
@@ -6085,7 +6083,7 @@
         <v>2.463651636018692</v>
       </c>
       <c r="B707" t="n">
-        <v>-129.7315521716511</v>
+        <v>-155.0901942812076</v>
       </c>
     </row>
     <row r="708">
@@ -6093,7 +6091,7 @@
         <v>2.467146177346378</v>
       </c>
       <c r="B708" t="n">
-        <v>-128.6541071917351</v>
+        <v>-155.2192849860194</v>
       </c>
     </row>
     <row r="709">
@@ -6101,7 +6099,7 @@
         <v>2.470640718674064</v>
       </c>
       <c r="B709" t="n">
-        <v>-127.6211540332971</v>
+        <v>-155.9132659922281</v>
       </c>
     </row>
     <row r="710">
@@ -6109,7 +6107,7 @@
         <v>2.47413526000175</v>
       </c>
       <c r="B710" t="n">
-        <v>-126.6241636460234</v>
+        <v>-157.2600349954742</v>
       </c>
     </row>
     <row r="711">
@@ -6117,7 +6115,7 @@
         <v>2.477629801329436</v>
       </c>
       <c r="B711" t="n">
-        <v>-125.669994182965</v>
+        <v>-159.4903887064802</v>
       </c>
     </row>
     <row r="712">
@@ -6125,7 +6123,7 @@
         <v>2.481124342657123</v>
       </c>
       <c r="B712" t="n">
-        <v>-124.7720067372943</v>
+        <v>-163.2127121394494</v>
       </c>
     </row>
     <row r="713">
@@ -6133,7 +6131,7 @@
         <v>2.484618883984809</v>
       </c>
       <c r="B713" t="n">
-        <v>-123.9441229608421</v>
+        <v>-170.7024250791036</v>
       </c>
     </row>
     <row r="714">
@@ -6141,7 +6139,7 @@
         <v>2.488113425312495</v>
       </c>
       <c r="B714" t="n">
-        <v>-123.1978692056408</v>
+        <v>-175.1071648664257</v>
       </c>
     </row>
     <row r="715">
@@ -6149,7 +6147,7 @@
         <v>2.491607966640181</v>
       </c>
       <c r="B715" t="n">
-        <v>-122.5415401525561</v>
+        <v>-165.0003595636006</v>
       </c>
     </row>
     <row r="716">
@@ -6157,7 +6155,7 @@
         <v>2.495102507967867</v>
       </c>
       <c r="B716" t="n">
-        <v>-121.9804793769966</v>
+        <v>-160.6317463562017</v>
       </c>
     </row>
     <row r="717">
@@ -6165,7 +6163,7 @@
         <v>2.498597049295553</v>
       </c>
       <c r="B717" t="n">
-        <v>-121.5177769032163</v>
+        <v>-158.1182044309693</v>
       </c>
     </row>
     <row r="718">
@@ -6173,7 +6171,7 @@
         <v>2.502091590623239</v>
       </c>
       <c r="B718" t="n">
-        <v>-121.1550120713355</v>
+        <v>-156.5934505170047</v>
       </c>
     </row>
     <row r="719">
@@ -6181,7 +6179,7 @@
         <v>2.505586131950925</v>
       </c>
       <c r="B719" t="n">
-        <v>-120.8928870529998</v>
+        <v>-155.7437866062446</v>
       </c>
     </row>
     <row r="720">
@@ -6189,7 +6187,7 @@
         <v>2.509080673278612</v>
       </c>
       <c r="B720" t="n">
-        <v>-120.7317225058584</v>
+        <v>-155.4355973322315</v>
       </c>
     </row>
     <row r="721">
@@ -6197,7 +6195,7 @@
         <v>2.512575214606298</v>
       </c>
       <c r="B721" t="n">
-        <v>-120.6718354658636</v>
+        <v>-155.6205272896155</v>
       </c>
     </row>
     <row r="722">
@@ -6205,7 +6203,7 @@
         <v>2.516069755933983</v>
       </c>
       <c r="B722" t="n">
-        <v>-120.7138272114433</v>
+        <v>-156.3096098183238</v>
       </c>
     </row>
     <row r="723">
@@ -6213,7 +6211,7 @@
         <v>2.519564297261669</v>
       </c>
       <c r="B723" t="n">
-        <v>-120.8588183903101</v>
+        <v>-157.5794918872882</v>
       </c>
     </row>
     <row r="724">
@@ -6221,7 +6219,7 @@
         <v>2.523058838589356</v>
       </c>
       <c r="B724" t="n">
-        <v>-121.1086619830447</v>
+        <v>-159.6186482442263</v>
       </c>
     </row>
     <row r="725">
@@ -6229,7 +6227,7 @@
         <v>2.526553379917042</v>
       </c>
       <c r="B725" t="n">
-        <v>-121.4661581279535</v>
+        <v>-162.8883854782387</v>
       </c>
     </row>
     <row r="726">
@@ -6237,7 +6235,7 @@
         <v>2.530047921244728</v>
       </c>
       <c r="B726" t="n">
-        <v>-121.9352999404964</v>
+        <v>-168.8503594907838</v>
       </c>
     </row>
     <row r="727">
@@ -6245,7 +6243,7 @@
         <v>2.533542462572414</v>
       </c>
       <c r="B727" t="n">
-        <v>-122.521576148388</v>
+        <v>-179.0189648747182</v>
       </c>
     </row>
     <row r="728">
@@ -6253,7 +6251,7 @@
         <v>2.5370370039001</v>
       </c>
       <c r="B728" t="n">
-        <v>-123.2323646699585</v>
+        <v>-167.5408280749699</v>
       </c>
     </row>
     <row r="729">
@@ -6261,7 +6259,7 @@
         <v>2.540531545227786</v>
       </c>
       <c r="B729" t="n">
-        <v>-124.0774498157521</v>
+        <v>-162.3758275891593</v>
       </c>
     </row>
     <row r="730">
@@ -6269,7 +6267,7 @@
         <v>2.544026086555472</v>
       </c>
       <c r="B730" t="n">
-        <v>-125.0696997948619</v>
+        <v>-159.4656885018674</v>
       </c>
     </row>
     <row r="731">
@@ -6277,7 +6275,7 @@
         <v>2.547520627883158</v>
       </c>
       <c r="B731" t="n">
-        <v>-126.2258939504396</v>
+        <v>-157.651532820501</v>
       </c>
     </row>
     <row r="732">
@@ -6285,7 +6283,7 @@
         <v>2.551015169210844</v>
       </c>
       <c r="B732" t="n">
-        <v>-127.56752824641</v>
+        <v>-156.5370805795268</v>
       </c>
     </row>
     <row r="733">
@@ -6293,7 +6291,7 @@
         <v>2.554509710538531</v>
       </c>
       <c r="B733" t="n">
-        <v>-129.1208014219007</v>
+        <v>-155.9503220703258</v>
       </c>
     </row>
     <row r="734">
@@ -6301,7 +6299,7 @@
         <v>2.558004251866217</v>
       </c>
       <c r="B734" t="n">
-        <v>-130.9127954875042</v>
+        <v>-155.8136833512343</v>
       </c>
     </row>
     <row r="735">
@@ -6309,7 +6307,7 @@
         <v>2.561498793193903</v>
       </c>
       <c r="B735" t="n">
-        <v>-132.9531686278391</v>
+        <v>-156.1032745340341</v>
       </c>
     </row>
     <row r="736">
@@ -6317,7 +6315,7 @@
         <v>2.564993334521589</v>
       </c>
       <c r="B736" t="n">
-        <v>-135.1665061171471</v>
+        <v>-156.8386979937863</v>
       </c>
     </row>
     <row r="737">
@@ -6325,7 +6323,7 @@
         <v>2.568487875849275</v>
       </c>
       <c r="B737" t="n">
-        <v>-137.2024968631166</v>
+        <v>-158.0921814206177</v>
       </c>
     </row>
     <row r="738">
@@ -6333,7 +6331,7 @@
         <v>2.571982417176961</v>
       </c>
       <c r="B738" t="n">
-        <v>-138.265725459686</v>
+        <v>-160.0267526909111</v>
       </c>
     </row>
     <row r="739">
@@ -6341,7 +6339,7 @@
         <v>2.575476958504647</v>
       </c>
       <c r="B739" t="n">
-        <v>-137.8652034878004</v>
+        <v>-163.0163418461032</v>
       </c>
     </row>
     <row r="740">
@@ -6349,7 +6347,7 @@
         <v>2.578971499832333</v>
       </c>
       <c r="B740" t="n">
-        <v>-136.6259461025667</v>
+        <v>-168.1145726205029</v>
       </c>
     </row>
     <row r="741">
@@ -6357,7 +6355,7 @@
         <v>2.582466041160019</v>
       </c>
       <c r="B741" t="n">
-        <v>-135.2767999721063</v>
+        <v>-178.1691141574595</v>
       </c>
     </row>
     <row r="742">
@@ -6365,7 +6363,7 @@
         <v>2.585960582487705</v>
       </c>
       <c r="B742" t="n">
-        <v>-134.0952748567626</v>
+        <v>-170.0258001029914</v>
       </c>
     </row>
     <row r="743">
@@ -6373,7 +6371,7 @@
         <v>2.589455123815391</v>
       </c>
       <c r="B743" t="n">
-        <v>-133.12382813807</v>
+        <v>-164.1522192338043</v>
       </c>
     </row>
     <row r="744">
@@ -6381,7 +6379,7 @@
         <v>2.592949665143077</v>
       </c>
       <c r="B744" t="n">
-        <v>-132.3363248768964</v>
+        <v>-160.8952289160658</v>
       </c>
     </row>
     <row r="745">
@@ -6389,7 +6387,7 @@
         <v>2.596444206470764</v>
       </c>
       <c r="B745" t="n">
-        <v>-131.6939797435022</v>
+        <v>-158.8328239754999</v>
       </c>
     </row>
     <row r="746">
@@ -6397,7 +6395,7 @@
         <v>2.59993874779845</v>
       </c>
       <c r="B746" t="n">
-        <v>-131.160629574393</v>
+        <v>-157.4928804574844</v>
       </c>
     </row>
     <row r="747">
@@ -6405,7 +6403,7 @@
         <v>2.603433289126136</v>
       </c>
       <c r="B747" t="n">
-        <v>-130.7064695291314</v>
+        <v>-156.6706972875428</v>
       </c>
     </row>
     <row r="748">
@@ -6413,7 +6411,7 @@
         <v>2.606927830453822</v>
       </c>
       <c r="B748" t="n">
-        <v>-130.3087974501992</v>
+        <v>-156.2667286533781</v>
       </c>
     </row>
     <row r="749">
@@ -6421,7 +6419,7 @@
         <v>2.610422371781508</v>
       </c>
       <c r="B749" t="n">
-        <v>-129.9519587330533</v>
+        <v>-156.2345861221644</v>
       </c>
     </row>
     <row r="750">
@@ -6429,7 +6427,7 @@
         <v>2.613916913109194</v>
       </c>
       <c r="B750" t="n">
-        <v>-129.6268903746398</v>
+        <v>-156.5625545011648</v>
       </c>
     </row>
     <row r="751">
@@ -6437,7 +6435,7 @@
         <v>2.61741145443688</v>
       </c>
       <c r="B751" t="n">
-        <v>-129.3302696101101</v>
+        <v>-157.2696860669802</v>
       </c>
     </row>
     <row r="752">
@@ -6445,7 +6443,7 @@
         <v>2.620905995764566</v>
       </c>
       <c r="B752" t="n">
-        <v>-129.0633318304936</v>
+        <v>-158.4131482071779</v>
       </c>
     </row>
     <row r="753">
@@ -6453,7 +6451,7 @@
         <v>2.624400537092252</v>
       </c>
       <c r="B753" t="n">
-        <v>-128.8305288545723</v>
+        <v>-160.1131298140899</v>
       </c>
     </row>
     <row r="754">
@@ -6461,7 +6459,7 @@
         <v>2.627895078419938</v>
       </c>
       <c r="B754" t="n">
-        <v>-128.6382488251182</v>
+        <v>-162.6222889639429</v>
       </c>
     </row>
     <row r="755">
@@ -6469,7 +6467,7 @@
         <v>2.631389619747624</v>
       </c>
       <c r="B755" t="n">
-        <v>-128.4937744917497</v>
+        <v>-166.5494144671258</v>
       </c>
     </row>
     <row r="756">
@@ -6477,7 +6475,7 @@
         <v>2.63488416107531</v>
       </c>
       <c r="B756" t="n">
-        <v>-128.4045566364352</v>
+        <v>-173.6660846371771</v>
       </c>
     </row>
     <row r="757">
@@ -6485,7 +6483,7 @@
         <v>2.638378702402997</v>
       </c>
       <c r="B757" t="n">
-        <v>-128.3778073788519</v>
+        <v>-174.8532050135543</v>
       </c>
     </row>
     <row r="758">
@@ -6493,7 +6491,7 @@
         <v>2.641873243730683</v>
       </c>
       <c r="B758" t="n">
-        <v>-128.4203331727292</v>
+        <v>-167.3086669054555</v>
       </c>
     </row>
     <row r="759">
@@ -6501,7 +6499,7 @@
         <v>2.645367785058369</v>
       </c>
       <c r="B759" t="n">
-        <v>-128.5385399404588</v>
+        <v>-163.2411041130277</v>
       </c>
     </row>
     <row r="760">
@@ -6509,7 +6507,7 @@
         <v>2.648862326386055</v>
       </c>
       <c r="B760" t="n">
-        <v>-128.7385123906559</v>
+        <v>-160.7003027677762</v>
       </c>
     </row>
     <row r="761">
@@ -6517,7 +6515,7 @@
         <v>2.652356867713741</v>
       </c>
       <c r="B761" t="n">
-        <v>-129.0261020732643</v>
+        <v>-158.9974986648613</v>
       </c>
     </row>
     <row r="762">
@@ -6525,7 +6523,7 @@
         <v>2.655851409041427</v>
       </c>
       <c r="B762" t="n">
-        <v>-129.4069184370867</v>
+        <v>-157.8493746659134</v>
       </c>
     </row>
     <row r="763">
@@ -6533,7 +6531,7 @@
         <v>2.659345950369113</v>
       </c>
       <c r="B763" t="n">
-        <v>-129.8860943277436</v>
+        <v>-157.1175544924972</v>
       </c>
     </row>
     <row r="764">
@@ -6541,7 +6539,7 @@
         <v>2.662840491696799</v>
       </c>
       <c r="B764" t="n">
-        <v>-130.4675795113959</v>
+        <v>-156.7289854936043</v>
       </c>
     </row>
     <row r="765">
@@ -6549,7 +6547,7 @@
         <v>2.666335033024485</v>
       </c>
       <c r="B765" t="n">
-        <v>-131.1524976756633</v>
+        <v>-156.6462290315112</v>
       </c>
     </row>
     <row r="766">
@@ -6557,7 +6555,7 @@
         <v>2.669829574352172</v>
       </c>
       <c r="B766" t="n">
-        <v>-131.9356974188105</v>
+        <v>-156.8555163206838</v>
       </c>
     </row>
     <row r="767">
@@ -6565,7 +6563,7 @@
         <v>2.673324115679857</v>
       </c>
       <c r="B767" t="n">
-        <v>-132.7990150658081</v>
+        <v>-157.3630094839031</v>
       </c>
     </row>
     <row r="768">
@@ -6573,7 +6571,7 @@
         <v>2.676818657007543</v>
       </c>
       <c r="B768" t="n">
-        <v>-133.6994444440934</v>
+        <v>-158.1968018447746</v>
       </c>
     </row>
     <row r="769">
@@ -6581,7 +6579,7 @@
         <v>2.68031319833523</v>
       </c>
       <c r="B769" t="n">
-        <v>-134.5526996871945</v>
+        <v>-159.4158171947549</v>
       </c>
     </row>
     <row r="770">
@@ -6589,7 +6587,7 @@
         <v>2.683807739662916</v>
       </c>
       <c r="B770" t="n">
-        <v>-135.2235994893259</v>
+        <v>-161.1321709458899</v>
       </c>
     </row>
     <row r="771">
@@ -6597,7 +6595,7 @@
         <v>2.687302280990602</v>
       </c>
       <c r="B771" t="n">
-        <v>-135.5545741536369</v>
+        <v>-163.5674437192053</v>
       </c>
     </row>
     <row r="772">
@@ -6605,7 +6603,7 @@
         <v>2.690796822318288</v>
       </c>
       <c r="B772" t="n">
-        <v>-135.4515624703279</v>
+        <v>-167.2128807956816</v>
       </c>
     </row>
     <row r="773">
@@ -6613,7 +6611,7 @@
         <v>2.694291363645974</v>
       </c>
       <c r="B773" t="n">
-        <v>-134.9571301487003</v>
+        <v>-173.2193919236495</v>
       </c>
     </row>
     <row r="774">
@@ -6621,7 +6619,7 @@
         <v>2.69778590497366</v>
       </c>
       <c r="B774" t="n">
-        <v>-134.2150960748504</v>
+        <v>-175.9649774751012</v>
       </c>
     </row>
     <row r="775">
@@ -6629,7 +6627,7 @@
         <v>2.701280446301346</v>
       </c>
       <c r="B775" t="n">
-        <v>-133.3756308365367</v>
+        <v>-169.1788022374812</v>
       </c>
     </row>
     <row r="776">
@@ -6637,7 +6635,7 @@
         <v>2.704774987629032</v>
       </c>
       <c r="B776" t="n">
-        <v>-132.5426872796365</v>
+        <v>-164.9703842421556</v>
       </c>
     </row>
     <row r="777">
@@ -6645,7 +6643,7 @@
         <v>2.708269528956718</v>
       </c>
       <c r="B777" t="n">
-        <v>-131.7730827125092</v>
+        <v>-162.2810874264043</v>
       </c>
     </row>
     <row r="778">
@@ -6653,7 +6651,7 @@
         <v>2.711764070284405</v>
       </c>
       <c r="B778" t="n">
-        <v>-131.0926814288571</v>
+        <v>-160.4285393081609</v>
       </c>
     </row>
     <row r="779">
@@ -6661,7 +6659,7 @@
         <v>2.715258611612091</v>
       </c>
       <c r="B779" t="n">
-        <v>-130.5104976148994</v>
+        <v>-159.1170057958496</v>
       </c>
     </row>
     <row r="780">
@@ -6669,7 +6667,7 @@
         <v>2.718753152939777</v>
       </c>
       <c r="B780" t="n">
-        <v>-130.0273345456635</v>
+        <v>-158.1982744310454</v>
       </c>
     </row>
     <row r="781">
@@ -6677,7 +6675,7 @@
         <v>2.722247694267463</v>
       </c>
       <c r="B781" t="n">
-        <v>-129.6404013087692</v>
+        <v>-157.5902792598483</v>
       </c>
     </row>
     <row r="782">
@@ -6685,7 +6683,7 @@
         <v>2.725742235595149</v>
       </c>
       <c r="B782" t="n">
-        <v>-129.3456340010779</v>
+        <v>-157.2454706888332</v>
       </c>
     </row>
     <row r="783">
@@ -6693,7 +6691,7 @@
         <v>2.729236776922835</v>
       </c>
       <c r="B783" t="n">
-        <v>-129.1388121958116</v>
+        <v>-157.1369076630029</v>
       </c>
     </row>
     <row r="784">
@@ -6701,7 +6699,7 @@
         <v>2.732731318250521</v>
       </c>
       <c r="B784" t="n">
-        <v>-129.0160682474882</v>
+        <v>-157.2518718191999</v>
       </c>
     </row>
     <row r="785">
@@ -6709,7 +6707,7 @@
         <v>2.736225859578207</v>
       </c>
       <c r="B785" t="n">
-        <v>-128.9741008688536</v>
+        <v>-157.5892618148153</v>
       </c>
     </row>
     <row r="786">
@@ -6717,7 +6715,7 @@
         <v>2.739720400905893</v>
       </c>
       <c r="B786" t="n">
-        <v>-129.010239366142</v>
+        <v>-158.159502364844</v>
       </c>
     </row>
     <row r="787">
@@ -6725,7 +6723,7 @@
         <v>2.743214942233579</v>
       </c>
       <c r="B787" t="n">
-        <v>-129.1224397499114</v>
+        <v>-158.9869588415297</v>
       </c>
     </row>
     <row r="788">
@@ -6733,7 +6731,7 @@
         <v>2.746709483561265</v>
       </c>
       <c r="B788" t="n">
-        <v>-129.3092430528727</v>
+        <v>-160.115849544791</v>
       </c>
     </row>
     <row r="789">
@@ -6741,7 +6739,7 @@
         <v>2.750204024888951</v>
       </c>
       <c r="B789" t="n">
-        <v>-129.5697039360878</v>
+        <v>-161.6229635397478</v>
       </c>
     </row>
     <row r="790">
@@ -6749,7 +6747,7 @@
         <v>2.753698566216638</v>
       </c>
       <c r="B790" t="n">
-        <v>-129.903291215425</v>
+        <v>-163.6453628815279</v>
       </c>
     </row>
     <row r="791">
@@ -6757,7 +6755,7 @@
         <v>2.757193107544324</v>
       </c>
       <c r="B791" t="n">
-        <v>-130.3097357687065</v>
+        <v>-166.4443850919273</v>
       </c>
     </row>
     <row r="792">
@@ -6765,7 +6763,7 @@
         <v>2.76068764887201</v>
       </c>
       <c r="B792" t="n">
-        <v>-130.7887936473401</v>
+        <v>-170.5343219855149</v>
       </c>
     </row>
     <row r="793">
@@ -6773,7 +6771,7 @@
         <v>2.764182190199696</v>
       </c>
       <c r="B793" t="n">
-        <v>-131.339856051657</v>
+        <v>-175.8377204961448</v>
       </c>
     </row>
     <row r="794">
@@ -6781,7 +6779,7 @@
         <v>2.767676731527382</v>
       </c>
       <c r="B794" t="n">
-        <v>-131.9613022306102</v>
+        <v>-173.8021855946941</v>
       </c>
     </row>
     <row r="795">
@@ -6789,7 +6787,7 @@
         <v>2.771171272855068</v>
       </c>
       <c r="B795" t="n">
-        <v>-132.6494365102775</v>
+        <v>-168.8492003818818</v>
       </c>
     </row>
     <row r="796">
@@ -6797,7 +6795,7 @@
         <v>2.774665814182754</v>
       </c>
       <c r="B796" t="n">
-        <v>-133.3967561349197</v>
+        <v>-165.5077040859436</v>
       </c>
     </row>
     <row r="797">
@@ -6805,7 +6803,7 @@
         <v>2.77816035551044</v>
       </c>
       <c r="B797" t="n">
-        <v>-134.1892612612982</v>
+        <v>-163.193684493568</v>
       </c>
     </row>
     <row r="798">
@@ -6813,7 +6811,7 @@
         <v>2.781654896838126</v>
       </c>
       <c r="B798" t="n">
-        <v>-135.002658889021</v>
+        <v>-161.5119290890901</v>
       </c>
     </row>
     <row r="799">
@@ -6821,7 +6819,7 @@
         <v>2.785149438165812</v>
       </c>
       <c r="B799" t="n">
-        <v>-135.7979661902613</v>
+        <v>-160.2603393979269</v>
       </c>
     </row>
     <row r="800">
@@ -6829,7 +6827,7 @@
         <v>2.788643979493498</v>
       </c>
       <c r="B800" t="n">
-        <v>-136.5188346784594</v>
+        <v>-159.3270013699124</v>
       </c>
     </row>
     <row r="801">
@@ -6837,7 +6835,7 @@
         <v>2.792138520821184</v>
       </c>
       <c r="B801" t="n">
-        <v>-137.095724913157</v>
+        <v>-158.6450352747989</v>
       </c>
     </row>
     <row r="802">
@@ -6845,7 +6843,7 @@
         <v>2.795633062148871</v>
       </c>
       <c r="B802" t="n">
-        <v>-137.4624806513177</v>
+        <v>-158.1723529490308</v>
       </c>
     </row>
     <row r="803">
@@ -6853,7 +6851,7 @@
         <v>2.799127603476557</v>
       </c>
       <c r="B803" t="n">
-        <v>-137.5824744886116</v>
+        <v>-157.8817971872208</v>
       </c>
     </row>
     <row r="804">
@@ -6861,7 +6859,7 @@
         <v>2.802622144804243</v>
       </c>
       <c r="B804" t="n">
-        <v>-137.4668650974193</v>
+        <v>-157.7560083994158</v>
       </c>
     </row>
     <row r="805">
@@ -6869,7 +6867,7 @@
         <v>2.806116686131929</v>
       </c>
       <c r="B805" t="n">
-        <v>-137.1683160334657</v>
+        <v>-157.7846661426349</v>
       </c>
     </row>
     <row r="806">
@@ -6877,7 +6875,7 @@
         <v>2.809611227459615</v>
       </c>
       <c r="B806" t="n">
-        <v>-136.7561968442481</v>
+        <v>-157.9630833840088</v>
       </c>
     </row>
     <row r="807">
@@ -6885,7 +6883,7 @@
         <v>2.813105768787301</v>
       </c>
       <c r="B807" t="n">
-        <v>-136.2936439334496</v>
+        <v>-158.2916123436355</v>
       </c>
     </row>
     <row r="808">
@@ -6893,7 +6891,7 @@
         <v>2.816600310114987</v>
       </c>
       <c r="B808" t="n">
-        <v>-135.8272857323657</v>
+        <v>-158.7758061974648</v>
       </c>
     </row>
     <row r="809">
@@ -6901,7 +6899,7 @@
         <v>2.820094851442673</v>
       </c>
       <c r="B809" t="n">
-        <v>-135.3870885810703</v>
+        <v>-159.427220697751</v>
       </c>
     </row>
     <row r="810">
@@ -6909,7 +6907,7 @@
         <v>2.823589392770359</v>
       </c>
       <c r="B810" t="n">
-        <v>-134.990288259682</v>
+        <v>-160.2652370489531</v>
       </c>
     </row>
     <row r="811">
@@ -6917,7 +6915,7 @@
         <v>2.827083934098045</v>
       </c>
       <c r="B811" t="n">
-        <v>-134.6456203291073</v>
+        <v>-161.32032006057</v>
       </c>
     </row>
     <row r="812">
@@ -6925,7 +6923,7 @@
         <v>2.830578475425731</v>
       </c>
       <c r="B812" t="n">
-        <v>-134.3565611217904</v>
+        <v>-162.6399636370303</v>
       </c>
     </row>
     <row r="813">
@@ -6933,7 +6931,7 @@
         <v>2.834073016753417</v>
       </c>
       <c r="B813" t="n">
-        <v>-134.1234845495476</v>
+        <v>-164.2993930609486</v>
       </c>
     </row>
     <row r="814">
@@ -6941,7 +6939,7 @@
         <v>2.837567558081104</v>
       </c>
       <c r="B814" t="n">
-        <v>-133.9450027956676</v>
+        <v>-166.4204867425437</v>
       </c>
     </row>
     <row r="815">
@@ -6949,7 +6947,7 @@
         <v>2.84106209940879</v>
       </c>
       <c r="B815" t="n">
-        <v>-133.8187461321965</v>
+        <v>-169.1948631048786</v>
       </c>
     </row>
     <row r="816">
@@ -6957,7 +6955,7 @@
         <v>2.844556640736476</v>
       </c>
       <c r="B816" t="n">
-        <v>-133.7418078470473</v>
+        <v>-172.7781684923779</v>
       </c>
     </row>
     <row r="817">
@@ -6965,7 +6963,7 @@
         <v>2.848051182064162</v>
       </c>
       <c r="B817" t="n">
-        <v>-133.7109844080434</v>
+        <v>-175.7391090555521</v>
       </c>
     </row>
     <row r="818">
@@ -6973,7 +6971,7 @@
         <v>2.851545723391848</v>
       </c>
       <c r="B818" t="n">
-        <v>-133.7228710594682</v>
+        <v>-173.8423096503108</v>
       </c>
     </row>
     <row r="819">
@@ -6981,7 +6979,7 @@
         <v>2.855040264719534</v>
       </c>
       <c r="B819" t="n">
-        <v>-133.7738936132912</v>
+        <v>-170.2895704271975</v>
       </c>
     </row>
     <row r="820">
@@ -6989,7 +6987,7 @@
         <v>2.85853480604722</v>
       </c>
       <c r="B820" t="n">
-        <v>-133.8602890373492</v>
+        <v>-167.4796498935063</v>
       </c>
     </row>
     <row r="821">
@@ -6997,7 +6995,7 @@
         <v>2.862029347374906</v>
       </c>
       <c r="B821" t="n">
-        <v>-133.9780557853475</v>
+        <v>-165.3694081155839</v>
       </c>
     </row>
     <row r="822">
@@ -7005,7 +7003,7 @@
         <v>2.865523888702592</v>
       </c>
       <c r="B822" t="n">
-        <v>-134.1228934090505</v>
+        <v>-163.7490716769703</v>
       </c>
     </row>
     <row r="823">
@@ -7013,7 +7011,7 @@
         <v>2.869018430030279</v>
       </c>
       <c r="B823" t="n">
-        <v>-134.2901408938463</v>
+        <v>-162.4784824428708</v>
       </c>
     </row>
     <row r="824">
@@ -7021,7 +7019,7 @@
         <v>2.872512971357965</v>
       </c>
       <c r="B824" t="n">
-        <v>-134.4747201202845</v>
+        <v>-161.4697718889909</v>
       </c>
     </row>
     <row r="825">
@@ -7029,7 +7027,7 @@
         <v>2.876007512685651</v>
       </c>
       <c r="B825" t="n">
-        <v>-134.6711159765935</v>
+        <v>-160.6661284486428</v>
       </c>
     </row>
     <row r="826">
@@ -7037,7 +7035,7 @@
         <v>2.879502054013336</v>
       </c>
       <c r="B826" t="n">
-        <v>-134.8733949326199</v>
+        <v>-160.0292266389122</v>
       </c>
     </row>
     <row r="827">
@@ -7045,7 +7043,7 @@
         <v>2.882996595341023</v>
       </c>
       <c r="B827" t="n">
-        <v>-135.0752815991974</v>
+        <v>-159.5322961479432</v>
       </c>
     </row>
     <row r="828">
@@ -7053,7 +7051,7 @@
         <v>2.886491136668709</v>
       </c>
       <c r="B828" t="n">
-        <v>-135.2703276135561</v>
+        <v>-159.1560779987518</v>
       </c>
     </row>
     <row r="829">
@@ -7061,7 +7059,7 @@
         <v>2.889985677996395</v>
       </c>
       <c r="B829" t="n">
-        <v>-135.4521524760881</v>
+        <v>-158.8864447255519</v>
       </c>
     </row>
     <row r="830">
@@ -7069,7 +7067,7 @@
         <v>2.893480219324081</v>
       </c>
       <c r="B830" t="n">
-        <v>-135.614778489702</v>
+        <v>-158.7128945278621</v>
       </c>
     </row>
     <row r="831">
@@ -7077,7 +7075,7 @@
         <v>2.896974760651767</v>
       </c>
       <c r="B831" t="n">
-        <v>-135.7530004815035</v>
+        <v>-158.6276125372131</v>
       </c>
     </row>
     <row r="832">
@@ -7085,7 +7083,7 @@
         <v>2.900469301979453</v>
       </c>
       <c r="B832" t="n">
-        <v>-135.8627616374899</v>
+        <v>-158.6248448995706</v>
       </c>
     </row>
     <row r="833">
@@ -7093,7 +7091,7 @@
         <v>2.903963843307139</v>
       </c>
       <c r="B833" t="n">
-        <v>-135.9414680162971</v>
+        <v>-158.7005090669141</v>
       </c>
     </row>
     <row r="834">
@@ -7101,7 +7099,7 @@
         <v>2.907458384634825</v>
       </c>
       <c r="B834" t="n">
-        <v>-135.9881608993637</v>
+        <v>-158.8519169747817</v>
       </c>
     </row>
     <row r="835">
@@ -7109,7 +7107,7 @@
         <v>2.910952925962512</v>
       </c>
       <c r="B835" t="n">
-        <v>-136.0035332872342</v>
+        <v>-159.0776529682025</v>
       </c>
     </row>
     <row r="836">
@@ -7117,7 +7115,7 @@
         <v>2.914447467290198</v>
       </c>
       <c r="B836" t="n">
-        <v>-135.989764103124</v>
+        <v>-159.37746530908</v>
       </c>
     </row>
     <row r="837">
@@ -7125,7 +7123,7 @@
         <v>2.917942008617884</v>
       </c>
       <c r="B837" t="n">
-        <v>-135.9502213348931</v>
+        <v>-159.7523200435024</v>
       </c>
     </row>
     <row r="838">
@@ -7133,7 +7131,7 @@
         <v>2.92143654994557</v>
       </c>
       <c r="B838" t="n">
-        <v>-135.8890777565156</v>
+        <v>-160.2044349132753</v>
       </c>
     </row>
     <row r="839">
@@ -7141,7 +7139,7 @@
         <v>2.924931091273256</v>
       </c>
       <c r="B839" t="n">
-        <v>-135.8109205676594</v>
+        <v>-160.7374566573405</v>
       </c>
     </row>
     <row r="840">
@@ -7149,7 +7147,7 @@
         <v>2.928425632600942</v>
       </c>
       <c r="B840" t="n">
-        <v>-135.7203967181908</v>
+        <v>-161.356726863858</v>
       </c>
     </row>
     <row r="841">
@@ -7157,7 +7155,7 @@
         <v>2.931920173928628</v>
       </c>
       <c r="B841" t="n">
-        <v>-135.6219373125396</v>
+        <v>-162.0696204017652</v>
       </c>
     </row>
     <row r="842">
@@ -7165,7 +7163,7 @@
         <v>2.935414715256314</v>
       </c>
       <c r="B842" t="n">
-        <v>-135.519561224938</v>
+        <v>-162.8860944417476</v>
       </c>
     </row>
     <row r="843">
@@ -7173,7 +7171,7 @@
         <v>2.938909256584</v>
       </c>
       <c r="B843" t="n">
-        <v>-135.4167696507547</v>
+        <v>-163.819379278603</v>
       </c>
     </row>
     <row r="844">
@@ -7181,7 +7179,7 @@
         <v>2.942403797911686</v>
       </c>
       <c r="B844" t="n">
-        <v>-135.3164968109503</v>
+        <v>-164.8868829948142</v>
       </c>
     </row>
     <row r="845">
@@ -7189,7 +7187,7 @@
         <v>2.945898339239372</v>
       </c>
       <c r="B845" t="n">
-        <v>-135.2211135116084</v>
+        <v>-166.1110113508412</v>
       </c>
     </row>
     <row r="846">
@@ -7197,7 +7195,7 @@
         <v>2.949392880567058</v>
       </c>
       <c r="B846" t="n">
-        <v>-135.1324621129845</v>
+        <v>-167.5192317590462</v>
       </c>
     </row>
     <row r="847">
@@ -7205,7 +7203,7 @@
         <v>2.952887421894745</v>
       </c>
       <c r="B847" t="n">
-        <v>-135.0519067456184</v>
+        <v>-169.1398833248207</v>
       </c>
     </row>
     <row r="848">
@@ -7213,7 +7211,7 @@
         <v>2.956381963222431</v>
       </c>
       <c r="B848" t="n">
-        <v>-134.9803923019304</v>
+        <v>-170.9821090333115</v>
       </c>
     </row>
     <row r="849">
@@ -7221,7 +7219,7 @@
         <v>2.959876504550117</v>
       </c>
       <c r="B849" t="n">
-        <v>-134.9185043619087</v>
+        <v>-172.9611060594602</v>
       </c>
     </row>
     <row r="850">
@@ -7229,7 +7227,7 @@
         <v>2.963371045877803</v>
       </c>
       <c r="B850" t="n">
-        <v>-134.8665237109345</v>
+        <v>-174.6919043910012</v>
       </c>
     </row>
     <row r="851">
@@ -7237,7 +7235,7 @@
         <v>2.966865587205489</v>
       </c>
       <c r="B851" t="n">
-        <v>-134.8244727237225</v>
+        <v>-175.341404937154</v>
       </c>
     </row>
     <row r="852">
@@ -7245,7 +7243,7 @@
         <v>2.970360128533175</v>
       </c>
       <c r="B852" t="n">
-        <v>-134.792168220078</v>
+        <v>-174.4938492823424</v>
       </c>
     </row>
     <row r="853">
@@ -7253,7 +7251,7 @@
         <v>2.973854669860861</v>
       </c>
       <c r="B853" t="n">
-        <v>-134.769253234362</v>
+        <v>-172.858449021103</v>
       </c>
     </row>
     <row r="854">
@@ -7261,7 +7259,7 @@
         <v>2.977349211188547</v>
       </c>
       <c r="B854" t="n">
-        <v>-134.7552308556198</v>
+        <v>-171.1473562820422</v>
       </c>
     </row>
     <row r="855">
@@ -7269,7 +7267,7 @@
         <v>2.980843752516233</v>
       </c>
       <c r="B855" t="n">
-        <v>-134.7494943563608</v>
+        <v>-169.614871697399</v>
       </c>
     </row>
     <row r="856">
@@ -7277,7 +7275,7 @@
         <v>2.984338293843919</v>
       </c>
       <c r="B856" t="n">
-        <v>-134.7513481548604</v>
+        <v>-168.2989629229999</v>
       </c>
     </row>
     <row r="857">
@@ -7285,7 +7283,7 @@
         <v>2.987832835171605</v>
       </c>
       <c r="B857" t="n">
-        <v>-134.7600331310344</v>
+        <v>-167.1782571061659</v>
       </c>
     </row>
     <row r="858">
@@ -7293,7 +7291,7 @@
         <v>2.991327376499291</v>
       </c>
       <c r="B858" t="n">
-        <v>-134.7747448323306</v>
+        <v>-166.2219105623228</v>
       </c>
     </row>
     <row r="859">
@@ -7301,7 +7299,7 @@
         <v>2.994821917826977</v>
       </c>
       <c r="B859" t="n">
-        <v>-134.7946470861486</v>
+        <v>-165.4020649823064</v>
       </c>
     </row>
     <row r="860">
@@ -7309,7 +7307,7 @@
         <v>2.998316459154664</v>
       </c>
       <c r="B860" t="n">
-        <v>-134.8188914315921</v>
+        <v>-164.6960479205247</v>
       </c>
     </row>
     <row r="861">
@@ -7317,7 +7315,7 @@
         <v>3.00181100048235</v>
       </c>
       <c r="B861" t="n">
-        <v>-134.8466299099968</v>
+        <v>-164.0858190321697</v>
       </c>
     </row>
     <row r="862">
@@ -7325,7 +7323,7 @@
         <v>3.005305541810036</v>
       </c>
       <c r="B862" t="n">
-        <v>-134.8770311544034</v>
+        <v>-163.5570948080101</v>
       </c>
     </row>
     <row r="863">
@@ -7333,7 +7331,7 @@
         <v>3.008800083137722</v>
       </c>
       <c r="B863" t="n">
-        <v>-134.9092913017193</v>
+        <v>-163.0984398819258</v>
       </c>
     </row>
     <row r="864">
@@ -7341,7 +7339,7 @@
         <v>3.012294624465408</v>
       </c>
       <c r="B864" t="n">
-        <v>-134.9426459413014</v>
+        <v>-162.7005972927972</v>
       </c>
     </row>
     <row r="865">
@@ -7349,7 +7347,7 @@
         <v>3.015789165793094</v>
       </c>
       <c r="B865" t="n">
-        <v>-134.9763839419556</v>
+        <v>-162.3560051424147</v>
       </c>
     </row>
     <row r="866">
@@ -7357,7 +7355,7 @@
         <v>3.01928370712078</v>
       </c>
       <c r="B866" t="n">
-        <v>-135.009854880813</v>
+        <v>-162.0583812593067</v>
       </c>
     </row>
     <row r="867">
@@ -7365,7 +7363,7 @@
         <v>3.022778248448466</v>
       </c>
       <c r="B867" t="n">
-        <v>-135.0424794317712</v>
+        <v>-161.8024614187158</v>
       </c>
     </row>
     <row r="868">
@@ -7373,7 +7371,7 @@
         <v>3.026272789776153</v>
       </c>
       <c r="B868" t="n">
-        <v>-135.073757991293</v>
+        <v>-161.5837789560931</v>
       </c>
     </row>
     <row r="869">
@@ -7381,7 +7379,7 @@
         <v>3.029767331103839</v>
       </c>
       <c r="B869" t="n">
-        <v>-135.1032713502861</v>
+        <v>-161.3985085678286</v>
       </c>
     </row>
     <row r="870">
@@ -7389,7 +7387,7 @@
         <v>3.033261872431525</v>
       </c>
       <c r="B870" t="n">
-        <v>-135.1306923243552</v>
+        <v>-161.2433307892805</v>
       </c>
     </row>
     <row r="871">
@@ -7397,7 +7395,7 @@
         <v>3.03675641375921</v>
       </c>
       <c r="B871" t="n">
-        <v>-135.155778655872</v>
+        <v>-161.1153649543285</v>
       </c>
     </row>
     <row r="872">
@@ -7405,7 +7403,7 @@
         <v>3.040250955086897</v>
       </c>
       <c r="B872" t="n">
-        <v>-135.1783803535422</v>
+        <v>-161.0120600747654</v>
       </c>
     </row>
     <row r="873">
@@ -7413,7 +7411,7 @@
         <v>3.043745496414583</v>
       </c>
       <c r="B873" t="n">
-        <v>-135.1984331671943</v>
+        <v>-160.9311691523885</v>
       </c>
     </row>
     <row r="874">
@@ -7421,7 +7419,7 @@
         <v>3.047240037742269</v>
       </c>
       <c r="B874" t="n">
-        <v>-135.2159564039314</v>
+        <v>-160.870682471306</v>
       </c>
     </row>
     <row r="875">
@@ -7429,7 +7427,7 @@
         <v>3.050734579069955</v>
       </c>
       <c r="B875" t="n">
-        <v>-135.2310487742954</v>
+        <v>-160.8288006380376</v>
       </c>
     </row>
     <row r="876">
@@ -7437,7 +7435,7 @@
         <v>3.054229120397641</v>
       </c>
       <c r="B876" t="n">
-        <v>-135.2438796073625</v>
+        <v>-160.8038987101443</v>
       </c>
     </row>
     <row r="877">
@@ -7445,7 +7443,7 @@
         <v>3.057723661725327</v>
       </c>
       <c r="B877" t="n">
-        <v>-135.2546862162896</v>
+        <v>-160.7945249900735</v>
       </c>
     </row>
     <row r="878">
@@ -7453,7 +7451,7 @@
         <v>3.061218203053013</v>
       </c>
       <c r="B878" t="n">
-        <v>-135.2637612749141</v>
+        <v>-160.7993472956443</v>
       </c>
     </row>
     <row r="879">
@@ -7461,7 +7459,7 @@
         <v>3.064712744380699</v>
       </c>
       <c r="B879" t="n">
-        <v>-135.2714523179045</v>
+        <v>-160.8171750790789</v>
       </c>
     </row>
     <row r="880">
@@ -7469,7 +7467,7 @@
         <v>3.068207285708386</v>
       </c>
       <c r="B880" t="n">
-        <v>-135.2781495375664</v>
+        <v>-160.846919224067</v>
       </c>
     </row>
     <row r="881">
@@ -7477,7 +7475,7 @@
         <v>3.071701827036072</v>
       </c>
       <c r="B881" t="n">
-        <v>-135.284286170218</v>
+        <v>-160.8876136053596</v>
       </c>
     </row>
     <row r="882">
@@ -7485,7 +7483,7 @@
         <v>3.075196368363758</v>
       </c>
       <c r="B882" t="n">
-        <v>-135.2903294200873</v>
+        <v>-160.9383890070824</v>
       </c>
     </row>
     <row r="883">
@@ -7493,7 +7491,7 @@
         <v>3.078690909691444</v>
       </c>
       <c r="B883" t="n">
-        <v>-135.296784682142</v>
+        <v>-160.9984749697886</v>
       </c>
     </row>
     <row r="884">
@@ -7501,7 +7499,7 @@
         <v>3.08218545101913</v>
       </c>
       <c r="B884" t="n">
-        <v>-135.3041909045588</v>
+        <v>-161.0672200298265</v>
       </c>
     </row>
     <row r="885">
@@ -7509,7 +7507,7 @@
         <v>3.085679992346816</v>
       </c>
       <c r="B885" t="n">
-        <v>-135.3131282194431</v>
+        <v>-161.1440678639275</v>
       </c>
     </row>
     <row r="886">
@@ -7517,7 +7515,7 @@
         <v>3.089174533674502</v>
       </c>
       <c r="B886" t="n">
-        <v>-135.3242245926011</v>
+        <v>-161.2285905385562</v>
       </c>
     </row>
     <row r="887">
@@ -7525,7 +7523,7 @@
         <v>3.092669075002188</v>
       </c>
       <c r="B887" t="n">
-        <v>-135.3381702351621</v>
+        <v>-161.3204915917375</v>
       </c>
     </row>
     <row r="888">
@@ -7533,7 +7531,7 @@
         <v>3.096163616329874</v>
       </c>
       <c r="B888" t="n">
-        <v>-135.3557377754832</v>
+        <v>-161.4196371657322</v>
       </c>
     </row>
     <row r="889">
@@ -7541,7 +7539,7 @@
         <v>3.09965815765756</v>
       </c>
       <c r="B889" t="n">
-        <v>-135.3778150205904</v>
+        <v>-161.5260679863846</v>
       </c>
     </row>
     <row r="890">
@@ -7549,7 +7547,7 @@
         <v>3.103152698985246</v>
       </c>
       <c r="B890" t="n">
-        <v>-135.4054505749841</v>
+        <v>-161.640076093985</v>
       </c>
     </row>
     <row r="891">
@@ -7557,7 +7555,7 @@
         <v>3.106647240312932</v>
       </c>
       <c r="B891" t="n">
-        <v>-135.4399236522617</v>
+        <v>-161.7622491505423</v>
       </c>
     </row>
     <row r="892">
@@ -7565,7 +7563,7 @@
         <v>3.110141781640618</v>
       </c>
       <c r="B892" t="n">
-        <v>-135.4828548379363</v>
+        <v>-161.8935963141538</v>
       </c>
     </row>
     <row r="893">
@@ -7573,7 +7571,7 @@
         <v>3.113636322968305</v>
       </c>
       <c r="B893" t="n">
-        <v>-135.5363772330307</v>
+        <v>-162.0357142275039</v>
       </c>
     </row>
     <row r="894">
@@ -7581,7 +7579,7 @@
         <v>3.117130864295991</v>
       </c>
       <c r="B894" t="n">
-        <v>-135.6034292697543</v>
+        <v>-162.1910784951034</v>
       </c>
     </row>
     <row r="895">
@@ -7589,7 +7587,7 @@
         <v>3.120625405623677</v>
       </c>
       <c r="B895" t="n">
-        <v>-135.6882662261224</v>
+        <v>-162.3635603724518</v>
       </c>
     </row>
     <row r="896">
@@ -7597,7 +7595,7 @@
         <v>3.124119946951363</v>
       </c>
       <c r="B896" t="n">
-        <v>-135.7974513658861</v>
+        <v>-162.5594236943595</v>
       </c>
     </row>
     <row r="897">
@@ -7605,7 +7603,7 @@
         <v>3.127614488279049</v>
       </c>
       <c r="B897" t="n">
-        <v>-135.9419565468324</v>
+        <v>-162.7894360941057</v>
       </c>
     </row>
     <row r="898">
@@ -7613,7 +7611,7 @@
         <v>3.131109029606735</v>
       </c>
       <c r="B898" t="n">
-        <v>-136.1423477746619</v>
+        <v>-163.0740889888929</v>
       </c>
     </row>
     <row r="899">
@@ -7621,7 +7619,7 @@
         <v>3.134603570934421</v>
       </c>
       <c r="B899" t="n">
-        <v>-136.4448270810726</v>
+        <v>-163.4598243255484</v>
       </c>
     </row>
     <row r="900">
@@ -7629,17 +7627,15 @@
         <v>3.138098112262107</v>
       </c>
       <c r="B900" t="n">
-        <v>-136.9969215040243</v>
+        <v>-164.0959318659399</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="1" t="n">
         <v>3.141592653589793</v>
       </c>
-      <c r="B901" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B901" t="n">
+        <v>-180.6085248711574</v>
       </c>
     </row>
   </sheetData>
